--- a/Database - Spicers Mill.xlsx
+++ b/Database - Spicers Mill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chad\Documents\Spicers Mill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chad\Documents\Spicers Mill\Database-Bartender-Spicers-Mill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF1B7E5-F126-4AF8-869F-3DF0B419AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E05CB1-776D-489B-9D63-BE7564F1E9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{69723D9F-0E43-4143-9271-37B31EE29503}"/>
+    <workbookView xWindow="-22170" yWindow="5220" windowWidth="28800" windowHeight="11385" xr2:uid="{69723D9F-0E43-4143-9271-37B31EE29503}"/>
   </bookViews>
   <sheets>
     <sheet name="4oz, 8oz, Cruet, Mixer" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1173">
   <si>
     <t>Bacon &amp; Cheddar Popcorn Seasoning</t>
   </si>
@@ -2432,152 +2432,39 @@
 salt, cocoa powder, sugar, vanilla extract</t>
   </si>
   <si>
-    <t>BBQ Bacon Popcorn Seasoning Ingredients:
-sugar, salt, onion powder, torula yeast,
-tomato powder, natural bacon flavor (bacon fat),
-spices, natural smoke flavor, garlic powder,
-disodium inosinate and disodium guanylate, citric acid,
-extractive of paprika, less than 2% silicon dioxide
-added to prevent caking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacon &amp; Cheddar Popcorn Seasoning Ingredients:
-whey, cheese blend, cheddar cheese, milk
-salt, cheese cultures, enzymes, disodium phosphate
-fd &amp;c yellow#5(E102) yellow #6, lactose, hydrolyzed
-soy protein, nonfat dry milk, natural &amp; artificial flavors, 
-onion powder, natural smoke flavor, yellow#5 lake, #6
-silicon dioxide, red #40 lake, blue#1 lake
-ALLERGENS: CONTAINS MILK &amp; CHEESE </t>
-  </si>
-  <si>
     <t xml:space="preserve">
 NET WT. 2.2 oz (62.3 grams)</t>
   </si>
   <si>
-    <t>Bacon Salt Ingredients:
-salt, brown sugar, rendered bacon fat, natural
-applewood smoke flavor, silicon dioxide to 
-prevent caking
-GLUTEN FREE</t>
-  </si>
-  <si>
     <t>NET WT. 3.8 oz (107.73 grams)</t>
   </si>
   <si>
-    <t>Bleu Cheese Powder Ingredients:
-dehydrated blend of blue &amp; cheddar cheeses
-(pasteurized milk, cheese cultures, salt, enzymes)
-whey, sodium phosphate salt, lactic acid.   
-ALLERGY ALERT: CONTAINS DAIRY</t>
-  </si>
-  <si>
     <t>NET WT. 6.6 oz (187.11 grams)</t>
   </si>
   <si>
-    <t>Brown Sugar Bacon Salt Ingredients:
-sea salt, cane sugar, dehydrated onion, dehydrated 
-garlic, smoked paprika, red bell peppers, black pepper,
-natural hickory smoke flavor (maltodextrin, sunflower
-oil, silicon dioxide (anti cake) natural smoke flavor),
-paprika oleoresin, rice concentrate (flow agent), bacon
-flavor (sunflower oil, natural flavor, high oleic sunflower
-oil, natural smoke flavor)</t>
-  </si>
-  <si>
-    <t>Bruschetta Bread Dip Ingredients:
-tomato flakes, onion, chives, garlic, basil,
-celery seed, sea salt, oregano, parsley,
-red pepper flakes, paprika, black pepper,
-ginger, thyme, yellow mustard, and cloves.</t>
-  </si>
-  <si>
     <t>NET WT.  3.6oz (102.06 grams)</t>
   </si>
   <si>
-    <t>Burnt End Brisket Rub Ingredients:
-salt, spices, wheat flour, sugar, monosodium
-glutamate, dehydrated onion &amp; garlic, tricalium 
-phosphate, papain, citric acid</t>
-  </si>
-  <si>
-    <t>Classic Italian Dressing Ingredients:
-gralic, carrots, salt, dried red bell peppers,
-onion, maltodextrin, non gmo corn starch,
-citric acid, natural lemon juice, black pepper,
-oregano, crushed red pepper, parsley</t>
-  </si>
-  <si>
     <t>NET WT. 2.6 oz (73.71 grams)</t>
   </si>
   <si>
-    <t>Blackened Seasoning Ingredients:
-salt, onion, garlic, black pepper, cayenne,
-paprika, cumin, basil, oregano, thyme</t>
-  </si>
-  <si>
     <t>NET WT. 2.75 oz (77.9 grams)</t>
-  </si>
-  <si>
-    <t>Cape Cod Seafood Ingredients:
-celery salt (approx. 47%), mustard, red pepper,
-black pepper, bay leaves, cloves, allspice, ginger,
-mace, cardamom, cinnamon, paprika</t>
-  </si>
-  <si>
-    <t>Caramel Popcorn Glaze Ingredients:
-sugar, molasses, brown sugar, natural/artificial flavors,
-artificial colors, soy lecithin.
-ALLERGY ALERT: CONTAINS SOY</t>
   </si>
   <si>
     <t>Crackin' Crab &amp; Shrimp Ingredients:
 salt, spices, and paprika.</t>
   </si>
   <si>
-    <t>Fiesta Fajita Seasoning Ingredients:
-cumin, chili powder, oregano, onion,
-salt, garlic, pepper, crushed red peppers</t>
-  </si>
-  <si>
     <t>NET WT. 4.0oz (113.3 grams)</t>
   </si>
   <si>
-    <t>Flipping the Bird Ingredients:
-paprika, onion, lemon, honey, sage, marjoram,
-ancho, black pepper, pasilla, celery, garlic, cumin</t>
-  </si>
-  <si>
     <t>NET WT. 3.7oz (104.8 grams)</t>
   </si>
   <si>
     <t>NET WT. 2.2 oz (62.3 grams)</t>
   </si>
   <si>
-    <t>Garlic &amp; Pepper Steak Seasoning Ingredients:
-salt (including black peppercorn, dill, ginger), spices, garlic,
-red pepper, contains 2% or less of oleoresin paprika,
-natural flavors and canola oil</t>
-  </si>
-  <si>
     <t>NET WT.  3.8 oz (107.73 grams)</t>
-  </si>
-  <si>
-    <t>Garlic Parmesan Bread Dip Ingredients:
-dehydrated vegetables (garlic, red bell pepper, onion, parsley),
-salt, spices, maltodextrin, natural flavor, parmesan cheese
-[pasteurized milk cheese cultures, salt, enzymes), cultured nonfat milk,
-partially hydrogenated soybean oil, whey, sodium citrate, natural flavor, salt],
-silicon dioxide added to prevent caking
-ALLERGY ALERT: CONTAINS MILK
-This product is packaged with equipment that makes
-products containing wheat, eggs, milk, soy, and tree nuts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garlic &amp; Tomato Bread Dip Ingredients:
-salt, spices, dehydrated garlic, onion powder,
-tomato powder, red bell peppers, canola oil, 
-dehydrated tomato </t>
   </si>
   <si>
     <t>Hickory Smoked Sea Salt Ingredients:
@@ -2587,39 +2474,13 @@
     <t>NET WT. 4.6 oz (130.41 grams)</t>
   </si>
   <si>
-    <t>Honey Chipotle Sea Salt Ingredients:
-granulated honey, dried chiles, salt, paprika, 
-spices, contains &lt;2% onion, garlic</t>
-  </si>
-  <si>
-    <t>Italian Salad Dressing Mix Ingredients:
-salt, sugar, spices, red bell peppers, accent 
-flavor enhancer(msg), xanthan gum, lemon oil</t>
-  </si>
-  <si>
     <t>NET WT. 4.2 oz (119.07 grams)</t>
-  </si>
-  <si>
-    <t>Kettle Corn Popcorn Ingredients:
-sugar, salt, natural butter flavor, 
-less than 2% tricalcium phosphate (anticaking)
-ALLERGY ALERT: CONTAINS MILK</t>
   </si>
   <si>
     <t>Lemon Basil Sea Salt Ingredients:
 sea salt, granulated lemon peel, basil</t>
   </si>
   <si>
-    <t>Louisiana Bayou Ingredients:
-aleppo pepper, paprika, salt, onion, garlic, cayenne pepper,
-black pepper, celery, thyme, jalapeno powder, Mexican oregano,
-habanero chili powder, parsley, oregano, minced garlic,
-minced onion, salt, dried cane syrup, spices, natural flavor, bell pepper
-powder, garlic powder, peppers, distilled vinegar, dextrose,
-tamarind powder, rice concentrate, molasses, corn syrup,
-caramel color, corn, maltodextrin</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -2631,44 +2492,7 @@
 sea salt smoked over mesquite wood</t>
   </si>
   <si>
-    <t>Movie Butter Popcorn Ingredients:
-maltodextrin, salt, natural &amp; artificial flavors including butter, whey,
-dextrose, butter powder (butter (cream, salt), nonfat milk, bha (preservative),
-buttermilk powder, xanthan gum, extractives of turmeric &amp; paprika,
-less than 2% silicon dioxide to prevent caking
-ALLERGY ALERT: CONTAIN MILK</t>
-  </si>
-  <si>
-    <t>Moroccan Bread Dip Ingredients:
-salt, dehydrated garlic &amp; onion, spices (including mustard),
-paprika, yeast extract (contains salt), sugar,
-and silicon dioxide (to prevent caking)</t>
-  </si>
-  <si>
-    <t>Parmesan &amp; Herb Bread Dip Ingredients:
-parmesan cheese ([part-skim milk, cheese culture, salt enzymes], whey,
-buttermilk solids, sodium phosphate, salt), salt, oregano, basil, garlic, 
-crushed red pepper 
-ALLERGY ALERT: CONTAINS MILK</t>
-  </si>
-  <si>
-    <t>Parmesan Cheese Powder Ingredients:
-dehydrated parmesan cheese (part-skim
-milk, cheese culture, salt, ezymes) whey
-buttermilk solids, sodium phosphate
-ALLERGY ALERT: CONTAINS MILK</t>
-  </si>
-  <si>
     <t>NET WT. 2.2 oz (62.37 grams)</t>
-  </si>
-  <si>
-    <t>Parmesan Garlic Popcorn Seasoning Ingredients: 
-whey, parmesan and romano cheese powders (parmesan and romano cheese
-(cultured part skim milk, cultures, salt, enzymes), buttermilk, soybean oil, whey,
-disodium phosphate, citric acid, salt, pasteurized cultured milk, sodium caseinate,
-lactic acid, enzymes), maltodextrin, salt, garlic, onion, spice, natural butter flavor,
-and less than 2% silicon dioxide added to prevent caking
-ALLERGY ALERT: CONTAINS MILK</t>
   </si>
   <si>
     <t>Pumpkin Spice Popcorn Seasoning Ingredients:
@@ -2686,38 +2510,7 @@
     <t>NET WT. 14 oz (396.89 grams)</t>
   </si>
   <si>
-    <t>Ranch Dressing Mix Ingredients:
-buttermilk solids (whey solids, buttermilk powder, nonfat dry milk),
-cane sugar, whole milk, sea salt, dried onion, maltodextrin, salt,
-monosodium glutamate, citric acid (acidifier), dried garlic, 
-whey, chicken flavoring (dextrose, salt, monosodium glutamate, 
-lactose (milk), potato flour, pure vegetable oil (sunflower oil), celery,
-turmeric (color), onion powder, sunflower lecithin,
-parsley, and herbs), dextrose, dried sour cream powder
-(sour cream (cultured cream, nonfat milk)),
-parsley, corn starch, dried roasted garlic, non-fat dry milk,
-silicon dioxide (flow agent), lactic acid powder,
-lswiss cheese flavor (maltodextrin, whey solids, natural swiss
-cheese flavor, salt), butter powder (butter (cream, salt),
-dry buttermilk), ascorbic acid (preservative), natural and
-artificial sour cream flavor, natural and artificial sour cream
-&amp; onion flavor (soy), natural butter flavor, beta carotene (color),
-canola oil. contains milk, soy. processed on equipment
-that also processes: crustacean shellfish, egg, fish, milk, peanut,
-soy, tree nuts (almond, brazil nut, cashew, coconut,
-filbert (hazelnut), macadamia nut, pecan, pine nut, pistachio, 
-walnut) and wheat.</t>
-  </si>
-  <si>
     <t>Ranch Dressing Mix</t>
-  </si>
-  <si>
-    <t>Ranch Popcorn Seasoning Ingredients:
-whey, salt, buttermilk solids, sugar, onion
-powder, dried cream extract, parsley, silicon
-dioxide, (flow agent) lactic acid, canola oil,
-extract of turmeric (color) natural flavor
-ALLERGY ALERT: CONTAINS MILK, SOY</t>
   </si>
   <si>
     <t>Rosemary &amp; Garlic Bread Dip Ingredients:
@@ -2741,43 +2534,16 @@
     <t>NET WT. 1.1 oz (31.1 grams)</t>
   </si>
   <si>
-    <t>Smoky Bacon Popcorn Seasoning:
-sugar, salt, onion powder, torula yeast,
-tomato powder, natural bacon flavor
-(bacon fat)spices, natural smoke flavor,
-garlic powder, disodium inosinate, disodium
-guanylate, citric acid, extratives of paprika,
-&lt;2% silicon dioxide</t>
-  </si>
-  <si>
     <t>Smoked Bacon Bourbon</t>
   </si>
   <si>
-    <t>Smoked Bacon Bourbon Ingredients:
-brown sugar, cinnamon, caramel sugar, 
-salt, chipotle, soy based bacon bits
-ALLERGY ALERT: CONTAINS SOY</t>
-  </si>
-  <si>
     <t>NET WT. 2.8 oz (79.38 grams)</t>
   </si>
   <si>
     <t>Smoky Bacon</t>
   </si>
   <si>
-    <t>Smokey Bacon Ingredients:
-maltodextrin, autolyzed yeast extract, natural flavors, sugar, salt.
-This product is packaged in a facility that also handles
-wheat, milk, soy, egg, sesame, peanuts, and tree nuts.</t>
-  </si>
-  <si>
     <t>NET WT. 3.7 oz (104.8 grams)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smoky Mountain BBQ Griller Ingredients:
-salt, spices (black pepper, dill seed, coriander, red
-pepper) dehydrated garlic, soybean oil, hickory, 
-extactives of paprika, dill, garlic, black pepper </t>
   </si>
   <si>
     <t>Smoky BBQ Ingredients:
@@ -2787,77 +2553,20 @@
     <t>NET WT. 2.2 oz (62.36 grams)</t>
   </si>
   <si>
-    <t>Sour Cream and Chive Popcorn Ingredients:
-maltodextrin, salt, sour cream powder (milk), onion powder, sugar, dried cream extract (milk),
-silicon dioxide (flow agent), chives, lactic acid, parsley, canola oil, and natural flavor.</t>
-  </si>
-  <si>
     <t>Stir Fry Seasoning Ingredients:
 garlic, onion, ginger, red pepper, sesame, bell peppers, sea salt, orange peel and sugar.</t>
   </si>
   <si>
-    <t>Sugar Cookie Popcorn Ingredients:
-sugar, natural flavors, salt, less than 2% silicon dioxide added to prevent caking
-ALLERGY ALERT: CONTAIN MILK</t>
-  </si>
-  <si>
-    <t>Sundried Tomato &amp; Basil Ingredients:
-salt, dehydrated garlic, basil, dehydrated 
-tomato, green bell peppers, soybean oil,
-dehydrated parsley 
-ALLERGY ALERT: SOYBEAN OIL</t>
-  </si>
-  <si>
     <t>NET WT. 2.3 oz (65.2 grams)</t>
   </si>
   <si>
-    <t>Tomato Balsamic Bread Dip Ingredients:
-dehydrated vegetables (tomato, garlic, onion, green onion), salt, spices, demerara sugar,
-maltodextrin, balsamic vinegar powder (maltodextrin, balsamic vinegar, modified food starch,
-natural flavor, molasses, caramel color), silicon dioxide added to prevent caking
-This product is packaged on equipment that makes products
-containing wheat, eggs, milk, soy, and tree nuts</t>
-  </si>
-  <si>
     <t>NET WT. 5.2oz (147.41 grams)</t>
   </si>
   <si>
-    <t>Truffle &amp; Cayan Seasoning Ingredients:
-sea salt, truffle, canola oil, cayenne pepper
-truffle flavor (natural &amp; artificial)</t>
-  </si>
-  <si>
     <t>Truffle &amp; Cayan</t>
   </si>
   <si>
-    <t>Truffle &amp; Parsely Ingredients:
-sea salt, truffle, canola oil, parsely,
-truffle flavor (natural &amp; artificial)</t>
-  </si>
-  <si>
     <t>Truffle &amp; Parsely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truffle Parmesan Seasoning Ingredients:
-parmesean cheese (pasturized part skim milk, cheese
-cultures, salt, enzymes) trullfe salt (salt, truffles, natural
-and artificial flavors) mushrooms, cheese flavor (parmesean
-(pasturized part skim milk, cheese cultures, enzymes) sodium
-phosphate, salt, lactic acid) corn starch, salt, garlic, dried cane 
-syrup, rice concentrate, onion, cabbage extract powder 
-(maltodextrin, sugar, caggage extract, corn oil) &lt;2% lemon
-powder (lemon juice concentrate, corn syrup solids, lemon oil)
-olive oil, artificial and natural flavor
-ALLERGY ALERT: CONTAINS MILK, DAIRY, MUSHROOMS </t>
-  </si>
-  <si>
-    <t>Truffle Parmesan &amp; Black Garlic Seasoning Ingredients:
- black truffle salt (salt, black truffle, natural &amp; artificial flavors), parmesan cheese
-(pasteurized part-skim milk, cheese culture, salt, enzymes), cheese flavor
-(parmesan cheese (pasteurized part-skim milk, cheese culture, salt, enzymes),
-sodium phosphate, salt, lactic acid), corn starch, dried cane syrup, black garlic powder,
-cellulose, spices, garlic, natural flavor, onion, olive oil (olive oil, natural flavors). 
-ALLERGY ALERT: CONTAINS MILK</t>
   </si>
   <si>
     <t>Truffle Parmesan &amp; Black Garlic Seasoning</t>
@@ -2871,12 +2580,6 @@
 Brown sugar, sea salt, ginger, orange, black pepper, nutmeg, and cloves</t>
   </si>
   <si>
-    <t>Tuscan Sea Salt Ingredients:
-tuscan sea salt
-This product is packaged on equipment that makes products
-containing wheat, eggs, milk, soy, and tree nuts.</t>
-  </si>
-  <si>
     <t>NET WT. .7 oz (19.8 grams)</t>
   </si>
   <si>
@@ -2894,21 +2597,10 @@
     <t>Tuscan Blend</t>
   </si>
   <si>
-    <t>Tuscan Blend Ingredients:
-basil, granulated garlic, rosemary,
-oregano, thyme, ground black pepper,
-parsley</t>
-  </si>
-  <si>
     <t>Tuscan Tomato Bread Dip Ingredients:
 tomato, onion, salt, roasted garlic, oregano, parsley</t>
   </si>
   <si>
-    <t>Ultimate Pizza  Ingredients:
-oregano, marjoram, thyme, basil, rosemary,
-red peppers, sage, minced garlic</t>
-  </si>
-  <si>
     <t>NET WT. 1.0 oz (28.3 grams)</t>
   </si>
   <si>
@@ -2916,28 +2608,6 @@
 pure maple syrup</t>
   </si>
   <si>
-    <t>White Cheddar Cheese Powder Ingredients:
-dehydrated blend of whey, cheese(granular &amp;
-cheddar, (pasteurized milk, cheese culture, salt,
-enzymes) buttermilk solids, whey protein 
-concentrate, salt, contains &lt;2% sodium phosphate,
-citric acid, lactic acid
-ALLERGY ALERT: CONTAINS MILK
-NO HYDROGENATED OILS, NO ARTIFICIAL COLORS</t>
-  </si>
-  <si>
-    <t>White Cheddar Popcorn Seasoning Ingredients:
-whey, buttermilk powder, cheddar cheese powder
-(cultured pasteurized milk, salt, enzymes),
-salt, natural flavor, disodium phosphate 
-ALLERGY ALERT: CONTAINS MILK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild Buffalo Wing Seasoning Ingredients:
-sea salt, pepper, garlic, vinegar, sugar, 
-paprika , turmeric </t>
-  </si>
-  <si>
     <t>Yellow Mushroom Popcorn Ingredients:
 mushroom popcorn kernels</t>
   </si>
@@ -2946,16 +2616,6 @@
   </si>
   <si>
     <t>NET WT. 5.8 oz (164.43 grams)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourbon Sea Salt Ingredients:
-flake sea salt that was smoked over 
-bourbon barrel logs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Down Home Beef &amp; Chop Ingredients:
-salt, spices, dehydrated garlic &amp; onion, paprika,
-natural hickory smoke flavor, silicon dioxide </t>
   </si>
   <si>
     <t>Alderwood
@@ -4024,6 +3684,241 @@
   </si>
   <si>
     <t>BBQ  Popcorn Seasoning</t>
+  </si>
+  <si>
+    <t>NET WT. 2 oz (56.7 grams)</t>
+  </si>
+  <si>
+    <t>Rosemary &amp; Garlic Griller Ingredients:
+dehydrated garlic, rosemary, salt, spices</t>
+  </si>
+  <si>
+    <t>Rosemary &amp; Garlic Griller</t>
+  </si>
+  <si>
+    <t>NET WT. 3.4oz ( 96.39grams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacon &amp; Cheddar Popcorn Seasoning Ingredients:
+whey, cheese blend, cheddar cheese, milk salt, cheese cultures, enzymes, disodium phosphate fd &amp;c yellow#5(E102) yellow #6, lactose, hydrolyzed soy protein, nonfat dry milk, natural &amp; artificial flavors,  onion powder, natural smoke flavor, yellow#5 lake, #6 silicon dioxide, red #40 lake, blue#1 lake
+ALLERGENS: CONTAINS MILK &amp; CHEESE </t>
+  </si>
+  <si>
+    <t>Bacon Salt Ingredients:
+salt, brown sugar, rendered bacon fat, natural applewood smoke flavor, silicon dioxide to prevent caking
+GLUTEN FREE</t>
+  </si>
+  <si>
+    <t>NO-SKU</t>
+  </si>
+  <si>
+    <t>BBQ Bacon Popcorn Seasoning Ingredients:
+sugar, salt, onion powder, torula yeast, tomato powder, natural bacon flavor (bacon fat), spices, natural smoke flavor, garlic powder, disodium inosinate and disodium guanylate, citric acid, extractive of paprika, less than 2% silicon dioxide added to prevent caking.</t>
+  </si>
+  <si>
+    <t>Blackened Seasoning Ingredients:
+salt, onion, garlic, black pepper, cayenne, paprika, cumin, basil, oregano, thyme</t>
+  </si>
+  <si>
+    <t>Bleu Cheese Powder Ingredients:
+dehydrated blend of blue &amp; cheddar cheeses (pasteurized milk, cheese cultures, salt, enzymes) whey, sodium phosphate salt, lactic acid.   
+ALLERGY ALERT: CONTAINS DAIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourbon Sea Salt Ingredients:
+flake sea salt that was smoked over bourbon barrel logs </t>
+  </si>
+  <si>
+    <t>Brown Sugar Bacon Salt Ingredients:
+sea salt, cane sugar, dehydrated onion, dehydrated garlic, smoked paprika, red bell peppers, black pepper, natural hickory smoke flavor (maltodextrin, sunflower oil, silicon dioxide (anti cake) natural smoke flavor), paprika oleoresin, rice concentrate (flow agent), bacon flavor (sunflower oil, natural flavor, high oleic sunflower oil, natural smoke flavor)</t>
+  </si>
+  <si>
+    <t>Bruschetta Bread Dip Ingredients:
+tomato flakes, onion, chives, garlic, basil, celery seed, sea salt, oregano, parsley, red pepper flakes, paprika, black pepper, ginger, thyme, yellow mustard, and cloves.</t>
+  </si>
+  <si>
+    <t>Burnt End Brisket Rub Ingredients:
+salt, spices, wheat flour, sugar, monosodium glutamate, dehydrated onion &amp; garlic, tricalium phosphate, papain, citric acid</t>
+  </si>
+  <si>
+    <t>Cape Cod Seafood Ingredients:
+celery salt (approx. 47%), mustard, red pepper, black pepper, bay leaves, cloves, allspice, ginger, mace, cardamom, cinnamon, paprika</t>
+  </si>
+  <si>
+    <t>Caramel Popcorn Glaze Ingredients:
+sugar, molasses, brown sugar, natural/artificial flavors, artificial colors, soy lecithin.
+ALLERGY ALERT: CONTAINS SOY</t>
+  </si>
+  <si>
+    <t>Classic Italian Dressing Ingredients:
+gralic, carrots, salt, dried red bell peppers, onion, maltodextrin, non gmo corn starch, citric acid, natural lemon juice, black pepper, oregano, crushed red pepper, parsley</t>
+  </si>
+  <si>
+    <t>Down Home Beef &amp; Chop Ingredients:
+salt, spices, dehydrated garlic &amp; onion, paprika, natural hickory smoke flavor, silicon dioxide</t>
+  </si>
+  <si>
+    <t>Fiesta Fajita Seasoning Ingredients:
+cumin, chili powder, oregano, onion, salt, garlic, pepper, crushed red peppers</t>
+  </si>
+  <si>
+    <t>Flipping the Bird Ingredients:
+paprika, onion, lemon, honey, sage, marjoram, ancho, black pepper, pasilla, celery, garlic, cumin</t>
+  </si>
+  <si>
+    <t>Garlic &amp; Pepper Steak Seasoning Ingredients:
+salt (including black peppercorn, dill, ginger), spices, garlic, red pepper, contains 2% or less of oleoresin paprika, natural flavors and canola oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garlic &amp; Tomato Bread Dip Ingredients:
+salt, spices, dehydrated garlic, onion powder, tomato powder, red bell peppers, canola oil, dehydrated tomato </t>
+  </si>
+  <si>
+    <t>Garlic Parmesan Bread Dip Ingredients:
+dehydrated vegetables (garlic, red bell pepper, onion, parsley), salt, spices, maltodextrin, natural flavor, parmesan cheese [pasteurized milk cheese cultures, salt, enzymes), cultured nonfat milk, partially hydrogenated soybean oil, whey, sodium citrate, natural flavor, salt], silicon dioxide added to prevent caking
+ALLERGY ALERT: CONTAINS MILK
+This product is packaged with equipment that makes products containing wheat, eggs, milk, soy, and tree nuts.</t>
+  </si>
+  <si>
+    <t>Honey Chipotle Sea Salt Ingredients:
+granulated honey, dried chiles, salt, paprika, spices, contains &lt;2% onion, garlic</t>
+  </si>
+  <si>
+    <t>Italian Salad Dressing Mix Ingredients:
+salt, sugar, spices, red bell peppers, accent flavor enhancer(msg), xanthan gum, lemon oil</t>
+  </si>
+  <si>
+    <t>Kettle Corn Popcorn Ingredients:
+sugar, salt, natural butter flavor, less than 2% tricalcium phosphate (anticaking)
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t>Louisiana Bayou Ingredients:
+aleppo pepper, paprika, salt, onion, garlic, cayenne pepper, black pepper, celery, thyme, jalapeno powder, Mexican oregano, habanero chili powder, parsley, oregano, minced garlic, minced onion, salt, dried cane syrup, spices, natural flavor, bell pepper powder, garlic powder, peppers, distilled vinegar, dextrose, tamarind powder, rice concentrate, molasses, corn syrup, caramel color, corn, maltodextrin</t>
+  </si>
+  <si>
+    <t>Mediterranean Blend Ingredients:
+oregano, sugar, onion, parsley, salt, pepper, starch, msg flavor enhancer, garlic</t>
+  </si>
+  <si>
+    <t>Moroccan Bread Dip Ingredients:
+salt, dehydrated garlic &amp; onion, spices (including mustard), paprika, yeast extract (contains salt), sugar, and silicon dioxide (to prevent caking)</t>
+  </si>
+  <si>
+    <t>Movie Butter Popcorn Ingredients:
+maltodextrin, salt, natural &amp; artificial flavors including butter, whey, dextrose, butter powder (butter (cream, salt), nonfat milk, bha (preservative), buttermilk powder, xanthan gum, extractives of turmeric &amp; paprika, less than 2% silicon dioxide to prevent caking
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t>Parmesan &amp; Herb Bread Dip Ingredients:
+parmesan cheese ([part-skim milk, cheese culture, salt enzymes], whey, buttermilk solids, sodium phosphate, salt), salt, oregano, basil, garlic, crushed red pepper 
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t>Parmesan Cheese Powder Ingredients:
+dehydrated parmesan cheese (part-skim milk, cheese culture, salt, ezymes) whey buttermilk solids, sodium phosphate
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t>Parmesan Garlic Popcorn Seasoning Ingredients: 
+whey, parmesan and romano cheese powders (parmesan and romano cheese (cultured part skim milk, cultures, salt, enzymes), buttermilk, soybean oil, whey, disodium phosphate, citric acid, salt, pasteurized cultured milk, sodium case+E247inate, lactic acid, enzymes), maltodextrin, salt, garlic, onion, spice, natural butter flavor, and less than 2% silicon dioxide added to prevent caking
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t>Ranch Dressing Mix Ingredients:
+buttermilk solids (whey solids, buttermilk powder, nonfat dry milk), cane sugar, whole milk, sea salt, dried onion, maltodextrin, salt, monosodium glutamate, citric acid (acidifier), dried garlic, whey, chicken flavoring (dextrose, salt, monosodium glutamate,  lactose (milk), potato flour, pure vegetable oil (sunflower oil), celery, turmeric (color), onion powder, sunflower lecithin, parsley, and herbs), dextrose, dried sour cream powder (sour cream (cultured cream, nonfat milk)), parsley, corn starch, dried roasted garlic, non-fat dry milk, silicon dioxide (flow agent), lactic acid powder, lswiss cheese flavor (maltodextrin, whey solids, natural swiss cheese flavor, salt), butter powder (butter (cream, salt),
+dry buttermilk), ascorbic acid (preservative), natural and artificial sour cream flavor, natural and artificial sour cream &amp; onion flavor (soy), natural butter flavor, beta carotene (color), canola oil. contains milk, soy. processed on equipment that also processes: crustacean shellfish, egg, fish, milk, peanut, soy, tree nuts (almond, brazil nut, cashew, coconut, filbert (hazelnut), macadamia nut, pecan, pine nut, pistachio, walnut) and wheat.</t>
+  </si>
+  <si>
+    <t>Ranch Popcorn Seasoning Ingredients:
+whey, salt, buttermilk solids, sugar, onion powder, dried cream extract, parsley, silicon dioxide, (flow agent) lactic acid, canola oil, extract of turmeric (color) natural flavor
+ALLERGY ALERT: CONTAINS MILK, SOY</t>
+  </si>
+  <si>
+    <t>Smoked Bacon Bourbon Ingredients:
+brown sugar, cinnamon, caramel sugar, salt, chipotle, soy based bacon bits
+ALLERGY ALERT: CONTAINS SOY</t>
+  </si>
+  <si>
+    <t>Smokey Bacon Ingredients:
+maltodextrin, autolyzed yeast extract, natural flavors, sugar, salt.
+This product is packaged in a facility that also handles wheat, milk, soy, egg, sesame, peanuts, and tree nuts.</t>
+  </si>
+  <si>
+    <t>Smoky Bacon Popcorn Seasoning:
+sugar, salt, onion powder, torula yeast, tomato powder, natural bacon flavor (bacon fat)spices, natural smoke flavor, garlic powder, disodium inosinate, disodium
+guanylate, citric acid, extratives of paprika, &lt;2% silicon dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoky Mountain BBQ Griller Ingredients:
+salt, spices (black pepper, dill seed, coriander, red pepper) dehydrated garlic, soybean oil, hickory,  extactives of paprika, dill, garlic, black pepper </t>
+  </si>
+  <si>
+    <t>Sour Cream and Chive Popcorn Ingredients:
+maltodextrin, salt, sour cream powder (milk), onion powder, sugar, dried cream extract (milk), silicon dioxide (flow agent), chives, lactic acid, parsley, canola oil, and natural flavor.
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t>Sugar Cookie Popcorn Ingredients:
+sugar, natural flavors, salt, less than 2% silicon dioxide added to prevent caking
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t>Sundried Tomato &amp; Basil Ingredients:
+salt, dehydrated garlic, basil, dehydrated tomato, green bell peppers, soybean oil, dehydrated parsley 
+ALLERGY ALERT: CONTAINS SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>Tomato Balsamic Bread Dip Ingredients:
+dehydrated vegetables (tomato, garlic, onion, green onion), salt, spices, demerara sugar, maltodextrin, balsamic vinegar powder (maltodextrin, balsamic vinegar, modified food starch, natural flavor, molasses, caramel color), silicon dioxide added to prevent caking
+This product is packaged on equipment that makes products containing wheat, eggs, milk, soy, and tree nuts</t>
+  </si>
+  <si>
+    <t>Truffle &amp; Cayan Seasoning Ingredients:
+sea salt, truffle, canola oil, cayenne pepper truffle flavor (natural &amp; artificial)</t>
+  </si>
+  <si>
+    <t>Truffle &amp; Parsely Ingredients:
+sea salt, truffle, canola oil, parsely, truffle flavor (natural &amp; artificial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truffle Parmesan Seasoning Ingredients:
+parmesean cheese (pasturized part skim milk, cheese cultures, salt, enzymes) trullfe salt (salt, truffles, natural and artificial flavors) mushrooms, cheese flavor (parmesean
+(pasturized part skim milk, cheese cultures, enzymes) sodium phosphate, salt, lactic acid) corn starch, salt, garlic, dried cane syrup, rice concentrate, onion, cabbage extract powder (maltodextrin, sugar, caggage extract, corn oil) &lt;2% lemon powder (lemon juice concentrate, corn syrup solids, lemon oil) olive oil, artificial and natural flavor
+ALLERGY ALERT: CONTAINS MILK, DAIRY, MUSHROOMS </t>
+  </si>
+  <si>
+    <t>Truffle Parmesan &amp; Black Garlic Seasoning Ingredients:
+ black truffle salt (salt, black truffle, natural &amp; artificial flavors), parmesan cheese (pasteurized part-skim milk, cheese culture, salt, enzymes), cheese flavor (parmesan cheese (pasteurized part-skim milk, cheese culture, salt, enzymes), sodium phosphate, salt, lactic acid), corn starch, dried cane syrup, black garlic powder, cellulose, spices, garlic, natural flavor, onion, olive oil (olive oil, natural flavors).
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t>Tuscan Blend Ingredients:
+basil, granulated garlic, rosemary, oregano, thyme, ground black pepper, parsley</t>
+  </si>
+  <si>
+    <t>Tuscan Sea Salt Ingredients:
+tuscan sea salt
+This product is packaged on equipment that makes products containing wheat, eggs, milk, soy, and tree nuts.</t>
+  </si>
+  <si>
+    <t>Ultimate Pizza  Ingredients:
+oregano, marjoram, thyme, basil, rosemary, red peppers, sage, minced garlic</t>
+  </si>
+  <si>
+    <t>White Cheddar Cheese Powder Ingredients:
+dehydrated blend of whey, cheese(granular &amp; cheddar, (pasteurized milk, cheese culture, salt, enzymes) buttermilk solids, whey protein concentrate, salt, contains &lt;2% sodium phosphate, citric acid, lactic acid
+ALLERGY ALERT: CONTAINS MILK
+NO HYDROGENATED OILS, NO ARTIFICIAL COLORS</t>
+  </si>
+  <si>
+    <t>White Cheddar Popcorn Seasoning Ingredients:
+whey, buttermilk powder, cheddar cheese powder (cultured pasteurized milk, salt, enzymes), salt, natural flavor, disodium phosphate 
+ALLERGY ALERT: CONTAINS MILK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Buffalo Wing Seasoning Ingredients:
+sea salt, pepper, garlic, vinegar, sugar, paprika , turmeric </t>
   </si>
 </sst>
 </file>
@@ -4126,11 +4021,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4445,19 +4340,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A335383E-B031-4E73-B7B8-DDF317F73324}">
-  <dimension ref="A1:F410"/>
+  <dimension ref="A1:F411"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D344" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="100" style="2" customWidth="1"/>
+    <col min="5" max="5" width="75.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="47.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4465,27 +4360,27 @@
       <c r="A1" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1160</v>
+      <c r="B1" s="11" t="s">
+        <v>1113</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1161</v>
+        <v>1114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1162</v>
+        <v>1115</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1163</v>
+        <v>1116</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1164</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>10000000001</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4500,7 +4395,7 @@
       <c r="A3" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>10000000002</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4515,7 +4410,7 @@
       <c r="A4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>10000000003</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4530,7 +4425,7 @@
       <c r="A5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>10000000004</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4545,7 +4440,7 @@
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>10000000005</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4560,7 +4455,7 @@
       <c r="A7" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>10000000006</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4575,7 +4470,7 @@
       <c r="A8" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>10000000007</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -4590,14 +4485,14 @@
       <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>10000000008</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>662</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>898</v>
+        <v>851</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -4605,7 +4500,7 @@
       <c r="A10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>10000000009</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -4620,7 +4515,7 @@
       <c r="A11" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>10000000010</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4635,7 +4530,7 @@
       <c r="A12" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>10000000011</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4650,7 +4545,7 @@
       <c r="A13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>10000000012</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -4665,7 +4560,7 @@
       <c r="A14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>10000000013</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -4680,7 +4575,7 @@
       <c r="A15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>10000000014</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -4695,7 +4590,7 @@
       <c r="A16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>10000000015</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -4710,14 +4605,14 @@
       <c r="A17" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>10000000016</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>622</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>899</v>
+        <v>852</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -4725,14 +4620,14 @@
       <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>10000000017</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>661</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>900</v>
+        <v>853</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -4740,7 +4635,7 @@
       <c r="A19" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>10000000018</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -4755,7 +4650,7 @@
       <c r="A20" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>10000000019</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -4770,14 +4665,14 @@
       <c r="A21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>10000000020</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>481</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>901</v>
+        <v>854</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -4785,57 +4680,57 @@
       <c r="A22" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>10000000021</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>544</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>902</v>
+        <v>855</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>10000000022</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>903</v>
+        <v>856</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>797</v>
+        <v>1124</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>10000000023</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>763</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1159</v>
+        <v>1112</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>10000000024</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -4845,24 +4740,24 @@
         <v>651</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>799</v>
+        <v>1125</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>10000000025</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>764</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>904</v>
+        <v>857</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -4870,7 +4765,7 @@
       <c r="A27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>10000000026</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -4885,14 +4780,14 @@
       <c r="A28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>10000000027</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>611</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>905</v>
+        <v>858</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -4900,14 +4795,14 @@
       <c r="A29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>10000000028</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>689</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>906</v>
+        <v>859</v>
       </c>
       <c r="E29" s="5"/>
     </row>
@@ -4915,14 +4810,14 @@
       <c r="A30" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>10000000029</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>752</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>907</v>
+        <v>860</v>
       </c>
       <c r="E30" s="5"/>
     </row>
@@ -4930,14 +4825,14 @@
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>10000000030</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>455</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>908</v>
+        <v>861</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -4945,43 +4840,43 @@
       <c r="A32" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>10000000031</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>701</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>909</v>
+        <v>862</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>10000000032</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1165</v>
+        <v>1118</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>910</v>
+        <v>863</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>796</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>10000000033</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1166</v>
+        <v>1119</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>790</v>
@@ -4992,14 +4887,14 @@
       <c r="A35" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>10000000034</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>706</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>911</v>
+        <v>864</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -5007,14 +4902,14 @@
       <c r="A36" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>10000000035</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>468</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>912</v>
+        <v>865</v>
       </c>
       <c r="E36" s="5"/>
     </row>
@@ -5022,7 +4917,7 @@
       <c r="A37" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>10000000036</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -5037,14 +4932,14 @@
       <c r="A38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>10000000037</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>665</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>913</v>
+        <v>866</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -5052,7 +4947,7 @@
       <c r="A39" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>10000000038</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -5063,11 +4958,11 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>10000000039</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -5077,17 +4972,17 @@
         <v>620</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>809</v>
+        <v>1128</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>10000000040</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -5097,17 +4992,17 @@
         <v>451</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>801</v>
+        <v>1129</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>10000000041</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5122,7 +5017,7 @@
       <c r="A43" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>10000000042</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -5137,7 +5032,7 @@
       <c r="A44" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>10000000043</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -5152,14 +5047,14 @@
       <c r="A45" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>10000000044</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>464</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>914</v>
+        <v>867</v>
       </c>
       <c r="E45" s="5"/>
     </row>
@@ -5167,14 +5062,14 @@
       <c r="A46" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>10000000045</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>491</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>915</v>
+        <v>868</v>
       </c>
       <c r="E46" s="5"/>
     </row>
@@ -5182,7 +5077,7 @@
       <c r="A47" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>10000000046</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -5197,14 +5092,14 @@
       <c r="A48" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>10000000047</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>756</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>916</v>
+        <v>869</v>
       </c>
       <c r="E48" s="5"/>
     </row>
@@ -5212,14 +5107,14 @@
       <c r="A49" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>10000000048</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>616</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>917</v>
+        <v>870</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -5227,109 +5122,109 @@
       <c r="A50" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>10000000049</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>473</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>918</v>
+        <v>871</v>
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>10000000050</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>919</v>
+        <v>872</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>896</v>
+        <v>1130</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>10000000051</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>682</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>920</v>
+        <v>873</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>803</v>
+        <v>1131</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>10000000052</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>413</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>921</v>
+        <v>874</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>804</v>
+        <v>1132</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>10000000053</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>465</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>922</v>
+        <v>875</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>806</v>
+        <v>1133</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>950</v>
+        <v>903</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>10000000054</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>555</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>923</v>
+        <v>876</v>
       </c>
       <c r="E55" s="5"/>
     </row>
@@ -5337,14 +5232,14 @@
       <c r="A56" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>10000000055</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>591</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>924</v>
+        <v>877</v>
       </c>
       <c r="E56" s="5"/>
     </row>
@@ -5352,14 +5247,14 @@
       <c r="A57" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>10000000056</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>584</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>925</v>
+        <v>878</v>
       </c>
       <c r="E57" s="5"/>
     </row>
@@ -5367,14 +5262,14 @@
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>10000000057</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>472</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>927</v>
+        <v>880</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5382,39 +5277,39 @@
       <c r="A59" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>10000000058</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>466</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>926</v>
+        <v>879</v>
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>10000000059</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>612</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>928</v>
+        <v>881</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>811</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>10000000060</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -5429,46 +5324,46 @@
       <c r="A62" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>10000000061</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>588</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>929</v>
+        <v>882</v>
       </c>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>10000000062</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>930</v>
+        <v>883</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>812</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>10000000063</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>931</v>
+        <v>884</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -5476,7 +5371,7 @@
       <c r="A65" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>10000000064</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -5491,7 +5386,7 @@
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>10000000065</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -5506,14 +5401,14 @@
       <c r="A67" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>10000000066</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>524</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>932</v>
+        <v>885</v>
       </c>
       <c r="E67" s="5"/>
     </row>
@@ -5521,14 +5416,14 @@
       <c r="A68" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>10000000067</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>525</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>933</v>
+        <v>886</v>
       </c>
       <c r="E68" s="5"/>
     </row>
@@ -5536,7 +5431,7 @@
       <c r="A69" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>10000000068</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -5551,7 +5446,7 @@
       <c r="A70" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>10000000069</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -5566,14 +5461,14 @@
       <c r="A71" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>10000000070</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>934</v>
+        <v>887</v>
       </c>
       <c r="E71" s="5"/>
     </row>
@@ -5581,7 +5476,7 @@
       <c r="A72" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>10000000071</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -5596,14 +5491,14 @@
       <c r="A73" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>10000000072</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>765</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>935</v>
+        <v>888</v>
       </c>
       <c r="E73" s="5"/>
     </row>
@@ -5611,14 +5506,14 @@
       <c r="A74" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="10">
         <v>10000000073</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>589</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>936</v>
+        <v>889</v>
       </c>
       <c r="E74" s="5"/>
     </row>
@@ -5626,7 +5521,7 @@
       <c r="A75" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <v>10000000074</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -5641,14 +5536,14 @@
       <c r="A76" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="10">
         <v>10000000075</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>496</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>937</v>
+        <v>890</v>
       </c>
       <c r="E76" s="5"/>
     </row>
@@ -5656,14 +5551,14 @@
       <c r="A77" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>10000000076</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>759</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>938</v>
+        <v>891</v>
       </c>
       <c r="E77" s="5"/>
     </row>
@@ -5671,7 +5566,7 @@
       <c r="A78" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <v>10000000077</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -5686,14 +5581,14 @@
       <c r="A79" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>10000000078</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>664</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>939</v>
+        <v>892</v>
       </c>
       <c r="E79" s="5"/>
     </row>
@@ -5701,14 +5596,14 @@
       <c r="A80" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="10">
         <v>10000000079</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>597</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>940</v>
+        <v>893</v>
       </c>
       <c r="E80" s="5"/>
     </row>
@@ -5716,14 +5611,14 @@
       <c r="A81" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="10">
         <v>10000000080</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>677</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>941</v>
+        <v>894</v>
       </c>
       <c r="E81" s="5"/>
     </row>
@@ -5731,14 +5626,14 @@
       <c r="A82" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>10000000081</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>508</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>942</v>
+        <v>895</v>
       </c>
       <c r="E82" s="5"/>
     </row>
@@ -5746,7 +5641,7 @@
       <c r="A83" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="10">
         <v>10000000082</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -5761,14 +5656,14 @@
       <c r="A84" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="10">
         <v>10000000083</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>697</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>943</v>
+        <v>896</v>
       </c>
       <c r="E84" s="5"/>
     </row>
@@ -5776,7 +5671,7 @@
       <c r="A85" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="10">
         <v>10000000084</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -5791,14 +5686,14 @@
       <c r="A86" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="10">
         <v>10000000085</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>656</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>944</v>
+        <v>897</v>
       </c>
       <c r="E86" s="5"/>
     </row>
@@ -5806,14 +5701,14 @@
       <c r="A87" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>10000000086</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>624</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>945</v>
+        <v>898</v>
       </c>
       <c r="E87" s="5"/>
     </row>
@@ -5821,14 +5716,14 @@
       <c r="A88" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="10">
         <v>10000000087</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>578</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>946</v>
+        <v>899</v>
       </c>
       <c r="E88" s="5"/>
     </row>
@@ -5836,14 +5731,14 @@
       <c r="A89" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="10">
         <v>10000000088</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>401</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>947</v>
+        <v>900</v>
       </c>
       <c r="E89" s="5"/>
     </row>
@@ -5851,7 +5746,7 @@
       <c r="A90" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="10">
         <v>10000000089</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -5862,31 +5757,31 @@
       </c>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="10">
         <v>10000000090</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>766</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>948</v>
+        <v>901</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>807</v>
+        <v>1136</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="10">
         <v>10000000091</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -5901,24 +5796,24 @@
       <c r="A93" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="10">
         <v>10000000092</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>604</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>949</v>
+        <v>902</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="10">
         <v>10000000093</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -5933,14 +5828,14 @@
       <c r="A95" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="10">
         <v>10000000094</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>757</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>951</v>
+        <v>904</v>
       </c>
       <c r="E95" s="5"/>
     </row>
@@ -5948,14 +5843,14 @@
       <c r="A96" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="10">
         <v>10000000095</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>767</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>952</v>
+        <v>905</v>
       </c>
       <c r="E96" s="5"/>
     </row>
@@ -5963,7 +5858,7 @@
       <c r="A97" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>10000000096</v>
       </c>
       <c r="C97" s="7" t="s">
@@ -5978,14 +5873,14 @@
       <c r="A98" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="10">
         <v>10000000097</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>582</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>953</v>
+        <v>906</v>
       </c>
       <c r="E98" s="5"/>
     </row>
@@ -5993,7 +5888,7 @@
       <c r="A99" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="10">
         <v>10000000098</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -6008,7 +5903,7 @@
       <c r="A100" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="10">
         <v>10000000099</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -6023,14 +5918,14 @@
       <c r="A101" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="11">
+      <c r="B101" s="10">
         <v>10000000100</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>490</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>954</v>
+        <v>907</v>
       </c>
       <c r="E101" s="5"/>
     </row>
@@ -6038,14 +5933,14 @@
       <c r="A102" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="10">
         <v>10000000101</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>768</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>955</v>
+        <v>908</v>
       </c>
       <c r="E102" s="5"/>
     </row>
@@ -6053,7 +5948,7 @@
       <c r="A103" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B103" s="10">
         <v>10000000102</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -6068,14 +5963,14 @@
       <c r="A104" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B104" s="10">
         <v>10000000103</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>709</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>956</v>
+        <v>909</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>795</v>
@@ -6085,7 +5980,7 @@
       <c r="A105" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B105" s="11">
+      <c r="B105" s="10">
         <v>10000000104</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -6100,14 +5995,14 @@
       <c r="A106" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B106" s="11">
+      <c r="B106" s="10">
         <v>10000000105</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>598</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>957</v>
+        <v>910</v>
       </c>
       <c r="E106" s="5"/>
     </row>
@@ -6115,7 +6010,7 @@
       <c r="A107" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B107" s="11">
+      <c r="B107" s="10">
         <v>10000000106</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -6130,14 +6025,14 @@
       <c r="A108" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="11">
+      <c r="B108" s="10">
         <v>10000000107</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>590</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>958</v>
+        <v>911</v>
       </c>
       <c r="E108" s="5"/>
     </row>
@@ -6145,7 +6040,7 @@
       <c r="A109" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="11">
+      <c r="B109" s="10">
         <v>10000000108</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -6156,31 +6051,31 @@
       </c>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="11">
+      <c r="B110" s="10">
         <v>10000000109</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>488</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>959</v>
+        <v>912</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>897</v>
+        <v>1137</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B111" s="11">
+      <c r="B111" s="10">
         <v>10000000110</v>
       </c>
       <c r="C111" s="7" t="s">
@@ -6195,14 +6090,14 @@
       <c r="A112" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="11">
+      <c r="B112" s="10">
         <v>10000000111</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>565</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>960</v>
+        <v>913</v>
       </c>
       <c r="E112" s="5"/>
     </row>
@@ -6210,7 +6105,7 @@
       <c r="A113" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B113" s="11">
+      <c r="B113" s="10">
         <v>10000000112</v>
       </c>
       <c r="C113" s="7" t="s">
@@ -6225,7 +6120,7 @@
       <c r="A114" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B114" s="11">
+      <c r="B114" s="10">
         <v>10000000113</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -6240,14 +6135,14 @@
       <c r="A115" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="11">
+      <c r="B115" s="10">
         <v>10000000114</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>440</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>961</v>
+        <v>914</v>
       </c>
       <c r="E115" s="5"/>
     </row>
@@ -6255,14 +6150,14 @@
       <c r="A116" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B116" s="11">
+      <c r="B116" s="10">
         <v>10000000115</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>605</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>962</v>
+        <v>915</v>
       </c>
       <c r="E116" s="5"/>
     </row>
@@ -6270,14 +6165,14 @@
       <c r="A117" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B117" s="11">
+      <c r="B117" s="10">
         <v>10000000116</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>606</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="E117" s="5"/>
     </row>
@@ -6285,14 +6180,14 @@
       <c r="A118" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B118" s="11">
+      <c r="B118" s="10">
         <v>10000000117</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>505</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>964</v>
+        <v>917</v>
       </c>
       <c r="E118" s="5"/>
     </row>
@@ -6300,14 +6195,14 @@
       <c r="A119" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B119" s="11">
+      <c r="B119" s="10">
         <v>10000000118</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>965</v>
+        <v>918</v>
       </c>
       <c r="E119" s="5"/>
     </row>
@@ -6315,7 +6210,7 @@
       <c r="A120" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="11">
+      <c r="B120" s="10">
         <v>10000000119</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -6330,7 +6225,7 @@
       <c r="A121" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="11">
+      <c r="B121" s="10">
         <v>10000000120</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -6345,14 +6240,14 @@
       <c r="A122" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B122" s="11">
+      <c r="B122" s="10">
         <v>10000000121</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>453</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>966</v>
+        <v>919</v>
       </c>
       <c r="E122" s="5"/>
     </row>
@@ -6360,14 +6255,14 @@
       <c r="A123" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B123" s="11">
+      <c r="B123" s="10">
         <v>10000000122</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>742</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>967</v>
+        <v>920</v>
       </c>
       <c r="E123" s="5"/>
     </row>
@@ -6375,14 +6270,14 @@
       <c r="A124" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B124" s="11">
+      <c r="B124" s="10">
         <v>10000000123</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>424</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>968</v>
+        <v>921</v>
       </c>
       <c r="E124" s="5"/>
     </row>
@@ -6390,22 +6285,22 @@
       <c r="A125" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B125" s="11">
+      <c r="B125" s="10">
         <v>10000000124</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>439</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>969</v>
+        <v>922</v>
       </c>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="11">
+      <c r="B126" s="10">
         <v>10000000125</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -6415,24 +6310,24 @@
         <v>460</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>814</v>
+        <v>1138</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B127" s="11">
+      <c r="B127" s="10">
         <v>10000000126</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>618</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>970</v>
+        <v>923</v>
       </c>
       <c r="E127" s="5"/>
     </row>
@@ -6440,14 +6335,14 @@
       <c r="A128" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B128" s="11">
+      <c r="B128" s="10">
         <v>10000000127</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>443</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>971</v>
+        <v>924</v>
       </c>
       <c r="E128" s="5"/>
     </row>
@@ -6455,47 +6350,47 @@
       <c r="A129" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B129" s="11">
+      <c r="B129" s="10">
         <v>10000000128</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>422</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>972</v>
+        <v>925</v>
       </c>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="11">
+      <c r="B130" s="10">
         <v>10000000129</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>973</v>
+        <v>926</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>973</v>
+        <v>926</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>816</v>
+        <v>1139</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B131" s="11">
+      <c r="B131" s="10">
         <v>10000000130</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>974</v>
+        <v>927</v>
       </c>
       <c r="E131" s="5"/>
     </row>
@@ -6503,14 +6398,14 @@
       <c r="A132" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B132" s="11">
+      <c r="B132" s="10">
         <v>10000000131</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>442</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>975</v>
+        <v>928</v>
       </c>
       <c r="E132" s="5"/>
     </row>
@@ -6518,14 +6413,14 @@
       <c r="A133" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B133" s="11">
+      <c r="B133" s="10">
         <v>10000000132</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>704</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>976</v>
+        <v>929</v>
       </c>
       <c r="E133" s="5"/>
     </row>
@@ -6533,14 +6428,14 @@
       <c r="A134" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B134" s="11">
+      <c r="B134" s="10">
         <v>10000000133</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>769</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>977</v>
+        <v>930</v>
       </c>
       <c r="E134" s="5"/>
     </row>
@@ -6548,14 +6443,14 @@
       <c r="A135" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B135" s="11">
+      <c r="B135" s="10">
         <v>10000000134</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>607</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>978</v>
+        <v>931</v>
       </c>
       <c r="E135" s="5"/>
     </row>
@@ -6563,7 +6458,7 @@
       <c r="A136" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B136" s="11">
+      <c r="B136" s="10">
         <v>10000000135</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -6578,7 +6473,7 @@
       <c r="A137" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B137" s="11">
+      <c r="B137" s="10">
         <v>10000000136</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -6593,14 +6488,14 @@
       <c r="A138" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="11">
+      <c r="B138" s="10">
         <v>10000000137</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>419</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>979</v>
+        <v>932</v>
       </c>
       <c r="E138" s="5"/>
     </row>
@@ -6608,49 +6503,49 @@
       <c r="A139" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B139" s="11">
+      <c r="B139" s="10">
         <v>10000000138</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>427</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>980</v>
+        <v>933</v>
       </c>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="11">
+      <c r="B140" s="10">
         <v>10000000139</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>497</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>981</v>
+        <v>934</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>819</v>
+        <v>1140</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B141" s="11">
+      <c r="B141" s="10">
         <v>10000000140</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>423</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>982</v>
+        <v>935</v>
       </c>
       <c r="E141" s="5"/>
     </row>
@@ -6658,22 +6553,22 @@
       <c r="A142" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B142" s="11">
+      <c r="B142" s="10">
         <v>10000000141</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>423</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>982</v>
+        <v>935</v>
       </c>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="11">
+      <c r="B143" s="10">
         <v>10000000142</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -6683,52 +6578,52 @@
         <v>4</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>822</v>
+        <v>1141</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B144" s="11">
+      <c r="B144" s="10">
         <v>10000000143</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>983</v>
+        <v>936</v>
       </c>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B145" s="11">
+      <c r="B145" s="10">
         <v>10000000144</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>984</v>
+        <v>937</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>821</v>
+        <v>1142</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B146" s="11">
+      <c r="B146" s="10">
         <v>10000000145</v>
       </c>
       <c r="C146" s="7" t="s">
@@ -6743,7 +6638,7 @@
       <c r="A147" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B147" s="11">
+      <c r="B147" s="10">
         <v>10000000146</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -6758,7 +6653,7 @@
       <c r="A148" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B148" s="11">
+      <c r="B148" s="10">
         <v>10000000147</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -6773,14 +6668,14 @@
       <c r="A149" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B149" s="11">
+      <c r="B149" s="10">
         <v>10000000148</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>528</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>985</v>
+        <v>938</v>
       </c>
       <c r="E149" s="5"/>
     </row>
@@ -6788,7 +6683,7 @@
       <c r="A150" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B150" s="11">
+      <c r="B150" s="10">
         <v>10000000149</v>
       </c>
       <c r="C150" s="7" t="s">
@@ -6803,7 +6698,7 @@
       <c r="A151" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B151" s="11">
+      <c r="B151" s="10">
         <v>10000000150</v>
       </c>
       <c r="C151" s="7" t="s">
@@ -6818,7 +6713,7 @@
       <c r="A152" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B152" s="11">
+      <c r="B152" s="10">
         <v>10000000151</v>
       </c>
       <c r="C152" s="7" t="s">
@@ -6833,14 +6728,14 @@
       <c r="A153" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B153" s="11">
+      <c r="B153" s="10">
         <v>10000000152</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>668</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>986</v>
+        <v>939</v>
       </c>
       <c r="E153" s="5"/>
     </row>
@@ -6848,14 +6743,14 @@
       <c r="A154" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B154" s="11">
+      <c r="B154" s="10">
         <v>10000000153</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>428</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>987</v>
+        <v>940</v>
       </c>
       <c r="E154" s="5"/>
     </row>
@@ -6863,7 +6758,7 @@
       <c r="A155" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B155" s="11">
+      <c r="B155" s="10">
         <v>10000000154</v>
       </c>
       <c r="C155" s="7" t="s">
@@ -6878,14 +6773,14 @@
       <c r="A156" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B156" s="11">
+      <c r="B156" s="10">
         <v>10000000155</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>628</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>988</v>
+        <v>941</v>
       </c>
       <c r="E156" s="5"/>
     </row>
@@ -6893,14 +6788,14 @@
       <c r="A157" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B157" s="11">
+      <c r="B157" s="10">
         <v>10000000156</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>627</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>989</v>
+        <v>942</v>
       </c>
       <c r="E157" s="5"/>
     </row>
@@ -6908,14 +6803,14 @@
       <c r="A158" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B158" s="11">
+      <c r="B158" s="10">
         <v>10000000157</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>421</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>990</v>
+        <v>943</v>
       </c>
       <c r="E158" s="5"/>
     </row>
@@ -6923,14 +6818,14 @@
       <c r="A159" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B159" s="11">
+      <c r="B159" s="10">
         <v>10000000158</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>518</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>991</v>
+        <v>944</v>
       </c>
       <c r="E159" s="5"/>
     </row>
@@ -6938,14 +6833,14 @@
       <c r="A160" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B160" s="11">
+      <c r="B160" s="10">
         <v>10000000159</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>521</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>992</v>
+        <v>945</v>
       </c>
       <c r="E160" s="5"/>
     </row>
@@ -6953,7 +6848,7 @@
       <c r="A161" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B161" s="11">
+      <c r="B161" s="10">
         <v>10000000160</v>
       </c>
       <c r="C161" s="7" t="s">
@@ -6968,14 +6863,14 @@
       <c r="A162" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B162" s="11">
+      <c r="B162" s="10">
         <v>10000000161</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>503</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>993</v>
+        <v>946</v>
       </c>
       <c r="E162" s="5"/>
     </row>
@@ -6983,14 +6878,14 @@
       <c r="A163" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B163" s="11">
+      <c r="B163" s="10">
         <v>10000000162</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>507</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>994</v>
+        <v>947</v>
       </c>
       <c r="E163" s="5"/>
     </row>
@@ -6998,14 +6893,14 @@
       <c r="A164" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B164" s="11">
+      <c r="B164" s="10">
         <v>10000000163</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>655</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>995</v>
+        <v>948</v>
       </c>
       <c r="E164" s="5"/>
     </row>
@@ -7013,14 +6908,14 @@
       <c r="A165" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B165" s="11">
+      <c r="B165" s="10">
         <v>10000000164</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>445</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>996</v>
+        <v>949</v>
       </c>
       <c r="E165" s="5"/>
     </row>
@@ -7028,14 +6923,14 @@
       <c r="A166" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="10">
         <v>10000000165</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>629</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>997</v>
+        <v>950</v>
       </c>
       <c r="E166" s="5"/>
     </row>
@@ -7043,14 +6938,14 @@
       <c r="A167" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B167" s="11">
+      <c r="B167" s="10">
         <v>10000000166</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>676</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>998</v>
+        <v>951</v>
       </c>
       <c r="E167" s="5"/>
     </row>
@@ -7058,14 +6953,14 @@
       <c r="A168" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B168" s="11">
+      <c r="B168" s="10">
         <v>10000000167</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>707</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>999</v>
+        <v>952</v>
       </c>
       <c r="E168" s="5"/>
     </row>
@@ -7073,7 +6968,7 @@
       <c r="A169" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B169" s="11">
+      <c r="B169" s="10">
         <v>10000000168</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -7088,7 +6983,7 @@
       <c r="A170" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B170" s="11">
+      <c r="B170" s="10">
         <v>10000000169</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -7103,27 +6998,27 @@
       <c r="A171" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B171" s="11">
+      <c r="B171" s="10">
         <v>10000000170</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>654</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1000</v>
+        <v>953</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="11">
+      <c r="B172" s="10">
         <v>10000000171</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -7138,14 +7033,14 @@
       <c r="A173" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B173" s="11">
+      <c r="B173" s="10">
         <v>10000000172</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>688</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1001</v>
+        <v>954</v>
       </c>
       <c r="E173" s="5"/>
     </row>
@@ -7153,14 +7048,14 @@
       <c r="A174" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B174" s="11">
+      <c r="B174" s="10">
         <v>10000000173</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>687</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1002</v>
+        <v>955</v>
       </c>
       <c r="E174" s="5"/>
     </row>
@@ -7168,14 +7063,14 @@
       <c r="A175" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B175" s="11">
+      <c r="B175" s="10">
         <v>10000000174</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>695</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1003</v>
+        <v>956</v>
       </c>
       <c r="E175" s="5"/>
     </row>
@@ -7183,14 +7078,14 @@
       <c r="A176" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B176" s="11">
+      <c r="B176" s="10">
         <v>10000000175</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>779</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1004</v>
+        <v>957</v>
       </c>
       <c r="E176" s="5"/>
     </row>
@@ -7198,14 +7093,14 @@
       <c r="A177" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B177" s="11">
+      <c r="B177" s="10">
         <v>10000000176</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>477</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1005</v>
+        <v>958</v>
       </c>
       <c r="E177" s="5"/>
     </row>
@@ -7213,14 +7108,14 @@
       <c r="A178" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B178" s="11">
+      <c r="B178" s="10">
         <v>10000000177</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>599</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1006</v>
+        <v>959</v>
       </c>
       <c r="E178" s="5"/>
     </row>
@@ -7228,7 +7123,7 @@
       <c r="A179" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B179" s="11">
+      <c r="B179" s="10">
         <v>10000000178</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -7243,42 +7138,42 @@
       <c r="A180" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B180" s="11">
+      <c r="B180" s="10">
         <v>10000000179</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>579</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1007</v>
+        <v>960</v>
       </c>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B181" s="11">
+      <c r="B181" s="10">
         <v>10000000180</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>711</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1008</v>
+        <v>961</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>825</v>
+        <v>1143</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B182" s="11">
+      <c r="B182" s="10">
         <v>10000000181</v>
       </c>
       <c r="C182" s="7" t="s">
@@ -7293,7 +7188,7 @@
       <c r="A183" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B183" s="11">
+      <c r="B183" s="10">
         <v>10000000182</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -7308,14 +7203,14 @@
       <c r="A184" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B184" s="11">
+      <c r="B184" s="10">
         <v>10000000183</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>409</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1009</v>
+        <v>962</v>
       </c>
       <c r="E184" s="5"/>
     </row>
@@ -7323,14 +7218,14 @@
       <c r="A185" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B185" s="11">
+      <c r="B185" s="10">
         <v>10000000184</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>583</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1010</v>
+        <v>963</v>
       </c>
       <c r="E185" s="5"/>
     </row>
@@ -7338,14 +7233,14 @@
       <c r="A186" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B186" s="11">
+      <c r="B186" s="10">
         <v>10000000185</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>585</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1011</v>
+        <v>964</v>
       </c>
       <c r="E186" s="5"/>
     </row>
@@ -7353,7 +7248,7 @@
       <c r="A187" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B187" s="11">
+      <c r="B187" s="10">
         <v>10000000186</v>
       </c>
       <c r="C187" s="7" t="s">
@@ -7368,14 +7263,14 @@
       <c r="A188" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B188" s="11">
+      <c r="B188" s="10">
         <v>10000000187</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>510</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1012</v>
+        <v>965</v>
       </c>
       <c r="E188" s="5"/>
     </row>
@@ -7383,7 +7278,7 @@
       <c r="A189" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B189" s="11">
+      <c r="B189" s="10">
         <v>10000000188</v>
       </c>
       <c r="C189" s="7" t="s">
@@ -7398,49 +7293,49 @@
       <c r="A190" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B190" s="11">
+      <c r="B190" s="10">
         <v>10000000189</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>436</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>1013</v>
+        <v>966</v>
       </c>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B191" s="11">
+      <c r="B191" s="10">
         <v>10000000190</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>770</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1014</v>
+        <v>967</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>826</v>
+        <v>1144</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="11">
+      <c r="B192" s="10">
         <v>10000000191</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>657</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1015</v>
+        <v>968</v>
       </c>
       <c r="E192" s="5"/>
     </row>
@@ -7448,7 +7343,7 @@
       <c r="A193" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B193" s="11">
+      <c r="B193" s="10">
         <v>10000000192</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -7463,14 +7358,14 @@
       <c r="A194" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B194" s="11">
+      <c r="B194" s="10">
         <v>10000000193</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>743</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1016</v>
+        <v>969</v>
       </c>
       <c r="E194" s="5"/>
     </row>
@@ -7478,7 +7373,7 @@
       <c r="A195" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B195" s="11">
+      <c r="B195" s="10">
         <v>10000000194</v>
       </c>
       <c r="C195" s="7" t="s">
@@ -7489,28 +7384,28 @@
       </c>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B196" s="11">
+      <c r="B196" s="10">
         <v>10000000195</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>573</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>1017</v>
+        <v>970</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>828</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B197" s="11">
+      <c r="B197" s="10">
         <v>10000000196</v>
       </c>
       <c r="C197" s="7" t="s">
@@ -7525,14 +7420,14 @@
       <c r="A198" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B198" s="11">
+      <c r="B198" s="10">
         <v>10000000197</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>541</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1018</v>
+        <v>971</v>
       </c>
       <c r="E198" s="5"/>
     </row>
@@ -7540,14 +7435,14 @@
       <c r="A199" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B199" s="11">
+      <c r="B199" s="10">
         <v>10000000198</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>702</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1019</v>
+        <v>972</v>
       </c>
       <c r="E199" s="5"/>
     </row>
@@ -7555,27 +7450,27 @@
       <c r="A200" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B200" s="11">
+      <c r="B200" s="10">
         <v>10000000199</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>713</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>1020</v>
+        <v>973</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B201" s="11">
+      <c r="B201" s="10">
         <v>10000000200</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -7590,14 +7485,14 @@
       <c r="A202" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B202" s="11">
+      <c r="B202" s="10">
         <v>10000000201</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>694</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
       <c r="E202" s="5"/>
     </row>
@@ -7605,14 +7500,14 @@
       <c r="A203" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B203" s="11">
+      <c r="B203" s="10">
         <v>10000000202</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>566</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>1022</v>
+        <v>975</v>
       </c>
       <c r="E203" s="5"/>
     </row>
@@ -7620,14 +7515,14 @@
       <c r="A204" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B204" s="11">
+      <c r="B204" s="10">
         <v>10000000203</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>681</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1023</v>
+        <v>976</v>
       </c>
       <c r="E204" s="5"/>
     </row>
@@ -7635,14 +7530,14 @@
       <c r="A205" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B205" s="11">
+      <c r="B205" s="10">
         <v>10000000204</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>700</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>1024</v>
+        <v>977</v>
       </c>
       <c r="E205" s="5"/>
     </row>
@@ -7650,14 +7545,14 @@
       <c r="A206" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B206" s="11">
+      <c r="B206" s="10">
         <v>10000000205</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>744</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>1025</v>
+        <v>978</v>
       </c>
       <c r="E206" s="5"/>
     </row>
@@ -7665,7 +7560,7 @@
       <c r="A207" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B207" s="11">
+      <c r="B207" s="10">
         <v>10000000206</v>
       </c>
       <c r="C207" s="7" t="s">
@@ -7680,52 +7575,52 @@
       <c r="A208" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B208" s="11">
+      <c r="B208" s="10">
         <v>10000000207</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>540</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>1026</v>
+        <v>979</v>
       </c>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B209" s="11">
+      <c r="B209" s="10">
         <v>10000000208</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>539</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>1027</v>
+        <v>980</v>
       </c>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B210" s="11">
+      <c r="B210" s="10">
         <v>10000000209</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>699</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>1028</v>
+        <v>981</v>
       </c>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B211" s="11">
+      <c r="B211" s="10">
         <v>10000000210</v>
       </c>
       <c r="C211" s="7" t="s">
@@ -7736,103 +7631,103 @@
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B212" s="11">
+      <c r="B212" s="10">
         <v>10000000211</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>745</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>1029</v>
+        <v>982</v>
       </c>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B213" s="11">
+      <c r="B213" s="10">
         <v>10000000212</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>559</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>1030</v>
+        <v>983</v>
       </c>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B214" s="11">
+      <c r="B214" s="10">
         <v>10000000213</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>463</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>1031</v>
+        <v>984</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B215" s="11">
+      <c r="B215" s="10">
         <v>10000000214</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>471</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>1032</v>
+        <v>985</v>
       </c>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B216" s="11">
+      <c r="B216" s="10">
         <v>10000000215</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>410</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>1033</v>
+        <v>986</v>
       </c>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B217" s="11">
+      <c r="B217" s="10">
         <v>10000000216</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>712</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>1034</v>
+        <v>987</v>
       </c>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B218" s="11">
+      <c r="B218" s="10">
         <v>10000000217</v>
       </c>
       <c r="C218" s="7" t="s">
@@ -7843,110 +7738,115 @@
       </c>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B219" s="11">
+      <c r="B219" s="10">
         <v>10000000218</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>580</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>1035</v>
+        <v>988</v>
       </c>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B220" s="11">
+      <c r="B220" s="10">
         <v>10000000219</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>721</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>1036</v>
+        <v>989</v>
       </c>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B221" s="11">
+      <c r="B221" s="10">
         <v>10000000220</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>703</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>1037</v>
+        <v>990</v>
       </c>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B222" s="11">
+      <c r="B222" s="10">
         <v>10000000221</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>414</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B223" s="11">
+      <c r="B223" s="10">
         <v>10000000222</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>429</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>1039</v>
+        <v>992</v>
       </c>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="B224" s="11">
+        <v>811</v>
+      </c>
+      <c r="B224" s="10">
         <v>10000000223</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>693</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>1040</v>
+        <v>993</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B225" s="11">
+      <c r="B225" s="10">
         <v>10000000224</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>499</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>1041</v>
+        <v>994</v>
       </c>
       <c r="E225" s="5"/>
     </row>
@@ -7954,34 +7854,34 @@
       <c r="A226" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B226" s="11">
+      <c r="B226" s="10">
         <v>10000000225</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>663</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>1042</v>
+        <v>995</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B227" s="11">
+      <c r="B227" s="10">
         <v>10000000226</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>459</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>1044</v>
+        <v>997</v>
       </c>
       <c r="E227" s="5"/>
     </row>
@@ -7989,14 +7889,14 @@
       <c r="A228" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B228" s="11">
+      <c r="B228" s="10">
         <v>10000000227</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>467</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>1043</v>
+        <v>996</v>
       </c>
       <c r="E228" s="5"/>
     </row>
@@ -8004,7 +7904,7 @@
       <c r="A229" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B229" s="11">
+      <c r="B229" s="10">
         <v>10000000228</v>
       </c>
       <c r="C229" s="7" t="s">
@@ -8019,14 +7919,14 @@
       <c r="A230" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B230" s="11">
+      <c r="B230" s="10">
         <v>10000000229</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>746</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>1045</v>
+        <v>998</v>
       </c>
       <c r="E230" s="5"/>
     </row>
@@ -8034,7 +7934,7 @@
       <c r="A231" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B231" s="11">
+      <c r="B231" s="10">
         <v>10000000230</v>
       </c>
       <c r="C231" s="7" t="s">
@@ -8045,67 +7945,67 @@
       </c>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B232" s="11">
+      <c r="B232" s="10">
         <v>10000000231</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>426</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>1046</v>
+        <v>999</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>835</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B233" s="11">
+      <c r="B233" s="10">
         <v>10000000232</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>506</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B234" s="11">
+      <c r="B234" s="10">
         <v>10000000233</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>577</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>1048</v>
+        <v>1001</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>834</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B235" s="11">
+      <c r="B235" s="10">
         <v>10000000234</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>644</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1049</v>
+        <v>1002</v>
       </c>
       <c r="E235" s="5"/>
     </row>
@@ -8113,14 +8013,14 @@
       <c r="A236" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B236" s="11">
+      <c r="B236" s="10">
         <v>10000000235</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>645</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>1050</v>
+        <v>1003</v>
       </c>
       <c r="E236" s="5"/>
     </row>
@@ -8128,14 +8028,14 @@
       <c r="A237" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B237" s="11">
+      <c r="B237" s="10">
         <v>10000000236</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>586</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="E237" s="5"/>
     </row>
@@ -8143,14 +8043,14 @@
       <c r="A238" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B238" s="11">
+      <c r="B238" s="10">
         <v>10000000237</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>614</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>1052</v>
+        <v>1005</v>
       </c>
       <c r="E238" s="5"/>
     </row>
@@ -8158,14 +8058,14 @@
       <c r="A239" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B239" s="11">
+      <c r="B239" s="10">
         <v>10000000238</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>771</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>1053</v>
+        <v>1006</v>
       </c>
       <c r="E239" s="5"/>
     </row>
@@ -8173,14 +8073,14 @@
       <c r="A240" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B240" s="11">
+      <c r="B240" s="10">
         <v>10000000239</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>633</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>1054</v>
+        <v>1007</v>
       </c>
       <c r="E240" s="5"/>
     </row>
@@ -8188,14 +8088,14 @@
       <c r="A241" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B241" s="11">
+      <c r="B241" s="10">
         <v>10000000240</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>613</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>1055</v>
+        <v>1008</v>
       </c>
       <c r="E241" s="5"/>
     </row>
@@ -8203,14 +8103,14 @@
       <c r="A242" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B242" s="11">
+      <c r="B242" s="10">
         <v>10000000241</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>617</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>1056</v>
+        <v>1009</v>
       </c>
       <c r="E242" s="5"/>
     </row>
@@ -8218,14 +8118,14 @@
       <c r="A243" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B243" s="11">
+      <c r="B243" s="10">
         <v>10000000242</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>438</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>1057</v>
+        <v>1010</v>
       </c>
       <c r="E243" s="5"/>
     </row>
@@ -8233,7 +8133,7 @@
       <c r="A244" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B244" s="11">
+      <c r="B244" s="10">
         <v>10000000243</v>
       </c>
       <c r="C244" s="7" t="s">
@@ -8248,7 +8148,7 @@
       <c r="A245" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B245" s="11">
+      <c r="B245" s="10">
         <v>10000000244</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -8263,7 +8163,7 @@
       <c r="A246" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B246" s="11">
+      <c r="B246" s="10">
         <v>10000000245</v>
       </c>
       <c r="C246" s="7" t="s">
@@ -8278,7 +8178,7 @@
       <c r="A247" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B247" s="11">
+      <c r="B247" s="10">
         <v>10000000246</v>
       </c>
       <c r="C247" s="7" t="s">
@@ -8293,14 +8193,14 @@
       <c r="A248" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B248" s="11">
+      <c r="B248" s="10">
         <v>10000000247</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>747</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>1058</v>
+        <v>1011</v>
       </c>
       <c r="E248" s="5"/>
     </row>
@@ -8308,14 +8208,14 @@
       <c r="A249" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B249" s="11">
+      <c r="B249" s="10">
         <v>10000000248</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>675</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>1059</v>
+        <v>1012</v>
       </c>
       <c r="E249" s="5"/>
     </row>
@@ -8323,14 +8223,14 @@
       <c r="A250" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B250" s="11">
+      <c r="B250" s="10">
         <v>10000000249</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>530</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>1060</v>
+        <v>1013</v>
       </c>
       <c r="E250" s="5"/>
     </row>
@@ -8338,14 +8238,14 @@
       <c r="A251" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B251" s="11">
+      <c r="B251" s="10">
         <v>10000000250</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>489</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>1061</v>
+        <v>1014</v>
       </c>
       <c r="E251" s="5"/>
     </row>
@@ -8353,14 +8253,14 @@
       <c r="A252" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B252" s="11">
+      <c r="B252" s="10">
         <v>10000000251</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>457</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>1062</v>
+        <v>1015</v>
       </c>
       <c r="E252" s="5"/>
     </row>
@@ -8368,14 +8268,14 @@
       <c r="A253" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B253" s="11">
+      <c r="B253" s="10">
         <v>10000000252</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>608</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1063</v>
+        <v>1016</v>
       </c>
       <c r="E253" s="5"/>
     </row>
@@ -8383,76 +8283,76 @@
       <c r="A254" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B254" s="11">
+      <c r="B254" s="10">
         <v>10000000253</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>511</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1064</v>
+        <v>1017</v>
       </c>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B255" s="11">
+      <c r="B255" s="10">
         <v>10000000254</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>434</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1065</v>
+        <v>1018</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B256" s="11">
+      <c r="B256" s="10">
         <v>10000000255</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>448</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>1066</v>
+        <v>1019</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>837</v>
+        <v>1151</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B257" s="11">
+      <c r="B257" s="10">
         <v>10000000256</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>594</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>1067</v>
+        <v>1020</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>839</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B258" s="11">
+      <c r="B258" s="10">
         <v>10000000257</v>
       </c>
       <c r="C258" s="7" t="s">
@@ -8467,7 +8367,7 @@
       <c r="A259" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B259" s="11">
+      <c r="B259" s="10">
         <v>10000000258</v>
       </c>
       <c r="C259" s="7" t="s">
@@ -8482,14 +8382,14 @@
       <c r="A260" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B260" s="11">
+      <c r="B260" s="10">
         <v>10000000259</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>698</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>1068</v>
+        <v>1021</v>
       </c>
       <c r="E260" s="5"/>
     </row>
@@ -8497,14 +8397,14 @@
       <c r="A261" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B261" s="11">
+      <c r="B261" s="10">
         <v>10000000260</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>432</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>1069</v>
+        <v>1022</v>
       </c>
       <c r="E261" s="5"/>
     </row>
@@ -8512,14 +8412,14 @@
       <c r="A262" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B262" s="11">
+      <c r="B262" s="10">
         <v>10000000261</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>684</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>1070</v>
+        <v>1023</v>
       </c>
       <c r="E262" s="5"/>
     </row>
@@ -8527,14 +8427,14 @@
       <c r="A263" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B263" s="11">
+      <c r="B263" s="10">
         <v>10000000262</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>420</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>1071</v>
+        <v>1024</v>
       </c>
       <c r="E263" s="5"/>
     </row>
@@ -8542,14 +8442,14 @@
       <c r="A264" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B264" s="11">
+      <c r="B264" s="10">
         <v>10000000263</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>602</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>1072</v>
+        <v>1025</v>
       </c>
       <c r="E264" s="5"/>
     </row>
@@ -8557,7 +8457,7 @@
       <c r="A265" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B265" s="11">
+      <c r="B265" s="10">
         <v>10000000264</v>
       </c>
       <c r="C265" s="7" t="s">
@@ -8572,14 +8472,14 @@
       <c r="A266" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B266" s="11">
+      <c r="B266" s="10">
         <v>10000000265</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>748</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>1073</v>
+        <v>1026</v>
       </c>
       <c r="E266" s="5"/>
     </row>
@@ -8587,14 +8487,14 @@
       <c r="A267" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B267" s="11">
+      <c r="B267" s="10">
         <v>10000000266</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>758</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>1074</v>
+        <v>1027</v>
       </c>
       <c r="E267" s="5"/>
     </row>
@@ -8602,7 +8502,7 @@
       <c r="A268" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B268" s="11">
+      <c r="B268" s="10">
         <v>10000000267</v>
       </c>
       <c r="C268" s="7" t="s">
@@ -8617,14 +8517,14 @@
       <c r="A269" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B269" s="11">
+      <c r="B269" s="10">
         <v>10000000268</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>574</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>1075</v>
+        <v>1028</v>
       </c>
       <c r="E269" s="5"/>
     </row>
@@ -8632,14 +8532,14 @@
       <c r="A270" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B270" s="11">
+      <c r="B270" s="10">
         <v>10000000269</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>404</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>1076</v>
+        <v>1029</v>
       </c>
       <c r="E270" s="5"/>
     </row>
@@ -8647,7 +8547,7 @@
       <c r="A271" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B271" s="11">
+      <c r="B271" s="10">
         <v>10000000270</v>
       </c>
       <c r="C271" s="7" t="s">
@@ -8662,14 +8562,14 @@
       <c r="A272" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B272" s="11">
+      <c r="B272" s="10">
         <v>10000000271</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>754</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>1077</v>
+        <v>1030</v>
       </c>
       <c r="E272" s="5"/>
     </row>
@@ -8677,7 +8577,7 @@
       <c r="A273" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B273" s="11">
+      <c r="B273" s="10">
         <v>10000000272</v>
       </c>
       <c r="C273" s="7" t="s">
@@ -8692,14 +8592,14 @@
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B274" s="11">
+      <c r="B274" s="10">
         <v>10000000273</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>660</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>1078</v>
+        <v>1031</v>
       </c>
       <c r="E274" s="5"/>
     </row>
@@ -8707,7 +8607,7 @@
       <c r="A275" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B275" s="11">
+      <c r="B275" s="10">
         <v>10000000274</v>
       </c>
       <c r="C275" s="7" t="s">
@@ -8722,14 +8622,14 @@
       <c r="A276" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B276" s="11">
+      <c r="B276" s="10">
         <v>10000000275</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>685</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>1079</v>
+        <v>1032</v>
       </c>
       <c r="E276" s="5"/>
     </row>
@@ -8737,14 +8637,14 @@
       <c r="A277" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B277" s="11">
+      <c r="B277" s="10">
         <v>10000000276</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>549</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>1080</v>
+        <v>1033</v>
       </c>
       <c r="E277" s="5"/>
     </row>
@@ -8752,14 +8652,14 @@
       <c r="A278" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B278" s="11">
+      <c r="B278" s="10">
         <v>10000000277</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>772</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>1081</v>
+        <v>1034</v>
       </c>
       <c r="E278" s="5"/>
     </row>
@@ -8767,14 +8667,14 @@
       <c r="A279" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B279" s="11">
+      <c r="B279" s="10">
         <v>10000000278</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>634</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>1082</v>
+        <v>1035</v>
       </c>
       <c r="E279" s="5"/>
     </row>
@@ -8782,41 +8682,41 @@
       <c r="A280" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B280" s="11">
+      <c r="B280" s="10">
         <v>10000000279</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>595</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>1083</v>
+        <v>1036</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B281" s="11">
+      <c r="B281" s="10">
         <v>10000000280</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>730</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>1084</v>
+        <v>1037</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B282" s="11">
+      <c r="B282" s="10">
         <v>10000000281</v>
       </c>
       <c r="C282" s="7" t="s">
@@ -8826,59 +8726,59 @@
         <v>773</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
-      <c r="B283" s="11">
+      <c r="B283" s="10">
         <v>10000000282</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B284" s="11">
+      <c r="B284" s="10">
         <v>10000000283</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>575</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>1085</v>
+        <v>1038</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>846</v>
+        <v>1154</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B285" s="11">
+      <c r="B285" s="10">
         <v>10000000284</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>774</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>1086</v>
+        <v>1039</v>
       </c>
       <c r="E285" s="5"/>
     </row>
@@ -8886,7 +8786,7 @@
       <c r="A286" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B286" s="11">
+      <c r="B286" s="10">
         <v>10000000285</v>
       </c>
       <c r="C286" s="7" t="s">
@@ -8901,7 +8801,7 @@
       <c r="A287" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B287" s="11">
+      <c r="B287" s="10">
         <v>10000000286</v>
       </c>
       <c r="C287" s="7" t="s">
@@ -8916,7 +8816,7 @@
       <c r="A288" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B288" s="11">
+      <c r="B288" s="10">
         <v>10000000287</v>
       </c>
       <c r="C288" s="7" t="s">
@@ -8931,7 +8831,7 @@
       <c r="A289" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B289" s="11">
+      <c r="B289" s="10">
         <v>10000000288</v>
       </c>
       <c r="C289" s="7" t="s">
@@ -8946,14 +8846,14 @@
       <c r="A290" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B290" s="11">
+      <c r="B290" s="10">
         <v>10000000289</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>537</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>1087</v>
+        <v>1040</v>
       </c>
       <c r="E290" s="5"/>
     </row>
@@ -8961,14 +8861,14 @@
       <c r="A291" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B291" s="11">
+      <c r="B291" s="10">
         <v>10000000290</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>412</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>1088</v>
+        <v>1041</v>
       </c>
       <c r="E291" s="5"/>
     </row>
@@ -8976,7 +8876,7 @@
       <c r="A292" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B292" s="11">
+      <c r="B292" s="10">
         <v>10000000291</v>
       </c>
       <c r="C292" s="7" t="s">
@@ -8991,14 +8891,14 @@
       <c r="A293" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B293" s="11">
+      <c r="B293" s="10">
         <v>10000000292</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>474</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>1089</v>
+        <v>1042</v>
       </c>
       <c r="E293" s="5"/>
     </row>
@@ -9006,14 +8906,14 @@
       <c r="A294" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B294" s="11">
+      <c r="B294" s="10">
         <v>10000000293</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>562</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>1090</v>
+        <v>1043</v>
       </c>
       <c r="E294" s="5"/>
     </row>
@@ -9021,14 +8921,14 @@
       <c r="A295" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B295" s="11">
+      <c r="B295" s="10">
         <v>10000000294</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>683</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>1091</v>
+        <v>1044</v>
       </c>
       <c r="E295" s="5"/>
     </row>
@@ -9036,7 +8936,7 @@
       <c r="A296" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B296" s="11">
+      <c r="B296" s="10">
         <v>10000000295</v>
       </c>
       <c r="C296" s="7" t="s">
@@ -9051,14 +8951,14 @@
       <c r="A297" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B297" s="11">
+      <c r="B297" s="10">
         <v>10000000296</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>601</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>1092</v>
+        <v>1045</v>
       </c>
       <c r="E297" s="5"/>
     </row>
@@ -9066,14 +8966,14 @@
       <c r="A298" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B298" s="11">
+      <c r="B298" s="10">
         <v>10000000297</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>449</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>1093</v>
+        <v>1046</v>
       </c>
       <c r="E298" s="5"/>
     </row>
@@ -9081,7 +8981,7 @@
       <c r="A299" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B299" s="11">
+      <c r="B299" s="10">
         <v>10000000298</v>
       </c>
       <c r="C299" s="7" t="s">
@@ -9096,7 +8996,7 @@
       <c r="A300" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B300" s="11">
+      <c r="B300" s="10">
         <v>10000000299</v>
       </c>
       <c r="C300" s="7" t="s">
@@ -9111,34 +9011,34 @@
       <c r="A301" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B301" s="11">
+      <c r="B301" s="10">
         <v>10000000300</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>415</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1094</v>
+        <v>1047</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>847</v>
+        <v>820</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B302" s="11">
+      <c r="B302" s="10">
         <v>10000000301</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>433</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>1095</v>
+        <v>1048</v>
       </c>
       <c r="E302" s="5"/>
     </row>
@@ -9146,14 +9046,14 @@
       <c r="A303" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B303" s="11">
+      <c r="B303" s="10">
         <v>10000000302</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>680</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>1096</v>
+        <v>1049</v>
       </c>
       <c r="E303" s="5"/>
     </row>
@@ -9161,14 +9061,14 @@
       <c r="A304" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B304" s="11">
+      <c r="B304" s="10">
         <v>10000000303</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>708</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>1097</v>
+        <v>1050</v>
       </c>
       <c r="E304" s="5"/>
     </row>
@@ -9176,7 +9076,7 @@
       <c r="A305" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B305" s="11">
+      <c r="B305" s="10">
         <v>10000000304</v>
       </c>
       <c r="C305" s="7" t="s">
@@ -9191,7 +9091,7 @@
       <c r="A306" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B306" s="11">
+      <c r="B306" s="10">
         <v>10000000305</v>
       </c>
       <c r="C306" s="7" t="s">
@@ -9206,34 +9106,34 @@
       <c r="A307" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B307" s="11">
+      <c r="B307" s="10">
         <v>10000000306</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>430</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>1098</v>
+        <v>1051</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B308" s="11">
+      <c r="B308" s="10">
         <v>10000000307</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>691</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>1099</v>
+        <v>1052</v>
       </c>
       <c r="E308" s="5"/>
     </row>
@@ -9241,14 +9141,14 @@
       <c r="A309" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B309" s="11">
+      <c r="B309" s="10">
         <v>10000000308</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>690</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>1100</v>
+        <v>1053</v>
       </c>
       <c r="E309" s="5"/>
     </row>
@@ -9256,7 +9156,7 @@
       <c r="A310" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B310" s="11">
+      <c r="B310" s="10">
         <v>10000000309</v>
       </c>
       <c r="C310" s="7" t="s">
@@ -9271,27 +9171,27 @@
       <c r="A311" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B311" s="11">
+      <c r="B311" s="10">
         <v>10000000310</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>431</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>1101</v>
+        <v>1054</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B312" s="11">
+      <c r="B312" s="10">
         <v>10000000311</v>
       </c>
       <c r="C312" s="7" t="s">
@@ -9306,14 +9206,14 @@
       <c r="A313" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B313" s="11">
+      <c r="B313" s="10">
         <v>10000000312</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>470</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>1102</v>
+        <v>1055</v>
       </c>
       <c r="E313" s="5"/>
     </row>
@@ -9321,7 +9221,7 @@
       <c r="A314" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B314" s="11">
+      <c r="B314" s="10">
         <v>10000000313</v>
       </c>
       <c r="C314" s="7" t="s">
@@ -9332,79 +9232,79 @@
       </c>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
-      <c r="B315" s="11">
+      <c r="B315" s="10">
         <v>10000000314</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>854</v>
+        <v>826</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>855</v>
+        <v>1155</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>856</v>
+        <v>827</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B316" s="11">
+      <c r="B316" s="10">
         <v>10000000315</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>692</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>1103</v>
+        <v>1056</v>
       </c>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
-      <c r="B317" s="11">
+      <c r="B317" s="10">
         <v>10000000316</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>857</v>
+        <v>828</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>857</v>
+        <v>828</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B318" s="11">
+      <c r="B318" s="10">
         <v>10000000317</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>593</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>1104</v>
+        <v>1057</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>853</v>
+        <v>1157</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B319" s="11">
+      <c r="B319" s="10">
         <v>10000000318</v>
       </c>
       <c r="C319" s="7" t="s">
@@ -9414,17 +9314,17 @@
         <v>792</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B320" s="11">
+      <c r="B320" s="10">
         <v>10000000319</v>
       </c>
       <c r="C320" s="7" t="s">
@@ -9434,17 +9334,17 @@
         <v>793</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>860</v>
+        <v>1158</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>859</v>
+        <v>829</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B321" s="11">
+      <c r="B321" s="10">
         <v>10000000320</v>
       </c>
       <c r="C321" s="7" t="s">
@@ -9455,28 +9355,28 @@
       </c>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B322" s="11">
+      <c r="B322" s="10">
         <v>10000000321</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>587</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>1105</v>
+        <v>1058</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>863</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B323" s="11">
+      <c r="B323" s="10">
         <v>10000000322</v>
       </c>
       <c r="C323" s="7" t="s">
@@ -9491,14 +9391,14 @@
       <c r="A324" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B324" s="11">
+      <c r="B324" s="10">
         <v>10000000323</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>458</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>1106</v>
+        <v>1059</v>
       </c>
       <c r="E324" s="5"/>
     </row>
@@ -9506,14 +9406,14 @@
       <c r="A325" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B325" s="11">
+      <c r="B325" s="10">
         <v>10000000324</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>775</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>1107</v>
+        <v>1060</v>
       </c>
       <c r="E325" s="5"/>
     </row>
@@ -9521,7 +9421,7 @@
       <c r="A326" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B326" s="11">
+      <c r="B326" s="10">
         <v>10000000325</v>
       </c>
       <c r="C326" s="7" t="s">
@@ -9536,14 +9436,14 @@
       <c r="A327" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B327" s="11">
+      <c r="B327" s="10">
         <v>10000000326</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>495</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>1108</v>
+        <v>1061</v>
       </c>
       <c r="E327" s="5"/>
     </row>
@@ -9551,14 +9451,14 @@
       <c r="A328" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B328" s="11">
+      <c r="B328" s="10">
         <v>10000000327</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>494</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>1109</v>
+        <v>1062</v>
       </c>
       <c r="E328" s="5"/>
     </row>
@@ -9566,14 +9466,14 @@
       <c r="A329" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B329" s="11">
+      <c r="B329" s="10">
         <v>10000000328</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>444</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>1110</v>
+        <v>1063</v>
       </c>
       <c r="E329" s="5"/>
     </row>
@@ -9581,14 +9481,14 @@
       <c r="A330" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B330" s="11">
+      <c r="B330" s="10">
         <v>10000000329</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>548</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>1111</v>
+        <v>1064</v>
       </c>
       <c r="E330" s="5"/>
     </row>
@@ -9596,14 +9496,14 @@
       <c r="A331" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B331" s="11">
+      <c r="B331" s="10">
         <v>10000000330</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>705</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>1112</v>
+        <v>1065</v>
       </c>
       <c r="E331" s="5"/>
     </row>
@@ -9611,14 +9511,14 @@
       <c r="A332" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B332" s="11">
+      <c r="B332" s="10">
         <v>10000000331</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>653</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>1113</v>
+        <v>1066</v>
       </c>
       <c r="E332" s="5"/>
     </row>
@@ -9626,14 +9526,14 @@
       <c r="A333" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B333" s="11">
+      <c r="B333" s="10">
         <v>10000000332</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>652</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>1114</v>
+        <v>1067</v>
       </c>
       <c r="E333" s="5"/>
     </row>
@@ -9641,14 +9541,14 @@
       <c r="A334" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B334" s="11">
+      <c r="B334" s="10">
         <v>10000000333</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>710</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>1115</v>
+        <v>1068</v>
       </c>
       <c r="E334" s="5"/>
     </row>
@@ -9656,7 +9556,7 @@
       <c r="A335" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B335" s="11">
+      <c r="B335" s="10">
         <v>10000000334</v>
       </c>
       <c r="C335" s="7" t="s">
@@ -9666,21 +9566,21 @@
         <v>648</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B336" s="11">
+      <c r="B336" s="10">
         <v>10000000335</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>750</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>1116</v>
+        <v>1069</v>
       </c>
       <c r="E336" s="5"/>
     </row>
@@ -9688,7 +9588,7 @@
       <c r="A337" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B337" s="11">
+      <c r="B337" s="10">
         <v>10000000336</v>
       </c>
       <c r="C337" s="7" t="s">
@@ -9703,31 +9603,31 @@
       <c r="A338" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B338" s="11">
+      <c r="B338" s="10">
         <v>10000000337</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>581</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>1117</v>
+        <v>1070</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>865</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B339" s="11">
+      <c r="B339" s="10">
         <v>10000000338</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>425</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>1118</v>
+        <v>1071</v>
       </c>
       <c r="E339" s="5"/>
     </row>
@@ -9735,49 +9635,49 @@
       <c r="A340" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B340" s="11">
+      <c r="B340" s="10">
         <v>10000000339</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>492</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>1119</v>
+        <v>1072</v>
       </c>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B341" s="11">
+      <c r="B341" s="10">
         <v>10000000340</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>416</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>1120</v>
+        <v>1073</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>866</v>
+        <v>1161</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B342" s="11">
+      <c r="B342" s="10">
         <v>10000000341</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>749</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>1121</v>
+        <v>1074</v>
       </c>
       <c r="E342" s="5"/>
     </row>
@@ -9785,14 +9685,14 @@
       <c r="A343" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B343" s="11">
+      <c r="B343" s="10">
         <v>10000000342</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>625</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>1122</v>
+        <v>1075</v>
       </c>
       <c r="E343" s="5"/>
     </row>
@@ -9800,14 +9700,14 @@
       <c r="A344" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B344" s="11">
+      <c r="B344" s="10">
         <v>10000000343</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>456</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>1123</v>
+        <v>1076</v>
       </c>
       <c r="E344" s="5"/>
     </row>
@@ -9815,14 +9715,14 @@
       <c r="A345" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B345" s="11">
+      <c r="B345" s="10">
         <v>10000000344</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>478</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>1124</v>
+        <v>1077</v>
       </c>
       <c r="E345" s="5"/>
     </row>
@@ -9830,7 +9730,7 @@
       <c r="A346" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B346" s="11">
+      <c r="B346" s="10">
         <v>10000000345</v>
       </c>
       <c r="C346" s="7" t="s">
@@ -9845,14 +9745,14 @@
       <c r="A347" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B347" s="11">
+      <c r="B347" s="10">
         <v>10000000346</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>592</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>1125</v>
+        <v>1078</v>
       </c>
       <c r="E347" s="5"/>
     </row>
@@ -9860,14 +9760,14 @@
       <c r="A348" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B348" s="11">
+      <c r="B348" s="10">
         <v>10000000347</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>751</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>1126</v>
+        <v>1079</v>
       </c>
       <c r="E348" s="5"/>
     </row>
@@ -9875,39 +9775,39 @@
       <c r="A349" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B349" s="11">
+      <c r="B349" s="10">
         <v>10000000348</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>498</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>1127</v>
+        <v>1080</v>
       </c>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B350" s="11">
+      <c r="B350" s="10">
         <v>10000000349</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>418</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>1128</v>
+        <v>1081</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>868</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B351" s="11">
+      <c r="B351" s="10">
         <v>10000000350</v>
       </c>
       <c r="C351" s="7" t="s">
@@ -9922,14 +9822,14 @@
       <c r="A352" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B352" s="11">
+      <c r="B352" s="10">
         <v>10000000351</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>667</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>1129</v>
+        <v>1082</v>
       </c>
       <c r="E352" s="5"/>
     </row>
@@ -9937,7 +9837,7 @@
       <c r="A353" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B353" s="11">
+      <c r="B353" s="10">
         <v>10000000352</v>
       </c>
       <c r="C353" s="7" t="s">
@@ -9952,7 +9852,7 @@
       <c r="A354" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B354" s="11">
+      <c r="B354" s="10">
         <v>10000000353</v>
       </c>
       <c r="C354" s="7" t="s">
@@ -9963,47 +9863,47 @@
       </c>
       <c r="E354" s="5"/>
     </row>
-    <row r="355" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
-      <c r="B355" s="11">
+      <c r="B355" s="10">
         <v>10000000354</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>871</v>
+        <v>835</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>871</v>
+        <v>835</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>870</v>
+        <v>1163</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
-      <c r="B356" s="11">
+      <c r="B356" s="10">
         <v>10000000355</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>873</v>
+        <v>836</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>873</v>
+        <v>836</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>872</v>
+        <v>1164</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B357" s="11">
+      <c r="B357" s="10">
         <v>10000000356</v>
       </c>
       <c r="C357" s="7" t="s">
@@ -10013,52 +9913,52 @@
         <v>636</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>874</v>
+        <v>1165</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
-      <c r="B358" s="11">
+      <c r="B358" s="10">
         <v>10000000357</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>876</v>
+        <v>837</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>1130</v>
+        <v>1083</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B359" s="11">
+      <c r="B359" s="10">
         <v>10000000358</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>1131</v>
+        <v>1084</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>877</v>
+        <v>838</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B360" s="11">
+      <c r="B360" s="10">
         <v>10000000359</v>
       </c>
       <c r="C360" s="7" t="s">
@@ -10068,134 +9968,134 @@
         <v>485</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>878</v>
+        <v>839</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B361" s="11">
+      <c r="B361" s="10">
         <v>10000000360</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>547</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>1132</v>
+        <v>1085</v>
       </c>
       <c r="E361" s="5"/>
     </row>
     <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
-      <c r="B362" s="11">
+      <c r="B362" s="10">
         <v>10000000361</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="7"/>
-      <c r="B363" s="11">
+      <c r="B363" s="10">
         <v>10000000362</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>885</v>
+        <v>1167</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B364" s="11">
+      <c r="B364" s="10">
         <v>10000000363</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>417</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>1133</v>
+        <v>1086</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B365" s="11">
+      <c r="B365" s="10">
         <v>10000000364</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>659</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>1134</v>
+        <v>1087</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>879</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B366" s="11">
+      <c r="B366" s="10">
         <v>10000000365</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>435</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>1135</v>
+        <v>1088</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>886</v>
+        <v>845</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B367" s="11">
+      <c r="B367" s="10">
         <v>10000000366</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>501</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>1136</v>
+        <v>1089</v>
       </c>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B368" s="11">
+      <c r="B368" s="10">
         <v>10000000367</v>
       </c>
       <c r="C368" s="7" t="s">
@@ -10205,17 +10105,17 @@
         <v>596</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>887</v>
+        <v>1169</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B369" s="11">
+      <c r="B369" s="10">
         <v>10000000368</v>
       </c>
       <c r="C369" s="7" t="s">
@@ -10230,7 +10130,7 @@
       <c r="A370" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B370" s="11">
+      <c r="B370" s="10">
         <v>10000000369</v>
       </c>
       <c r="C370" s="7" t="s">
@@ -10245,14 +10145,14 @@
       <c r="A371" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B371" s="11">
+      <c r="B371" s="10">
         <v>10000000370</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>546</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>1137</v>
+        <v>1090</v>
       </c>
       <c r="E371" s="5"/>
     </row>
@@ -10260,7 +10160,7 @@
       <c r="A372" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B372" s="11">
+      <c r="B372" s="10">
         <v>10000000371</v>
       </c>
       <c r="C372" s="7" t="s">
@@ -10275,7 +10175,7 @@
       <c r="A373" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B373" s="11">
+      <c r="B373" s="10">
         <v>10000000372</v>
       </c>
       <c r="C373" s="7" t="s">
@@ -10290,7 +10190,7 @@
       <c r="A374" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B374" s="11">
+      <c r="B374" s="10">
         <v>10000000373</v>
       </c>
       <c r="C374" s="7" t="s">
@@ -10305,7 +10205,7 @@
       <c r="A375" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B375" s="11">
+      <c r="B375" s="10">
         <v>10000000374</v>
       </c>
       <c r="C375" s="7" t="s">
@@ -10320,31 +10220,31 @@
       <c r="A376" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B376" s="11">
+      <c r="B376" s="10">
         <v>10000000375</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>637</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>1138</v>
+        <v>1091</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>889</v>
+        <v>847</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B377" s="11">
+      <c r="B377" s="10">
         <v>10000000376</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>638</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>1139</v>
+        <v>1092</v>
       </c>
       <c r="E377" s="5"/>
     </row>
@@ -10352,14 +10252,14 @@
       <c r="A378" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B378" s="11">
+      <c r="B378" s="10">
         <v>10000000377</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>755</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>1140</v>
+        <v>1093</v>
       </c>
       <c r="E378" s="5"/>
     </row>
@@ -10367,7 +10267,7 @@
       <c r="A379" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B379" s="11">
+      <c r="B379" s="10">
         <v>10000000378</v>
       </c>
       <c r="C379" s="7" t="s">
@@ -10382,14 +10282,14 @@
       <c r="A380" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B380" s="11">
+      <c r="B380" s="10">
         <v>10000000379</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>696</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>1141</v>
+        <v>1094</v>
       </c>
       <c r="E380" s="5"/>
     </row>
@@ -10397,14 +10297,14 @@
       <c r="A381" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B381" s="11">
+      <c r="B381" s="10">
         <v>10000000380</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>479</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>1142</v>
+        <v>1095</v>
       </c>
       <c r="E381" s="5"/>
     </row>
@@ -10412,14 +10312,14 @@
       <c r="A382" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B382" s="11">
+      <c r="B382" s="10">
         <v>10000000381</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>486</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>1143</v>
+        <v>1096</v>
       </c>
       <c r="E382" s="5"/>
     </row>
@@ -10427,14 +10327,14 @@
       <c r="A383" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B383" s="11">
+      <c r="B383" s="10">
         <v>10000000382</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>753</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>1144</v>
+        <v>1097</v>
       </c>
       <c r="E383" s="5"/>
     </row>
@@ -10442,7 +10342,7 @@
       <c r="A384" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B384" s="11">
+      <c r="B384" s="10">
         <v>10000000383</v>
       </c>
       <c r="C384" s="7" t="s">
@@ -10457,14 +10357,14 @@
       <c r="A385" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B385" s="11">
+      <c r="B385" s="10">
         <v>10000000384</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>722</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>1145</v>
+        <v>1098</v>
       </c>
       <c r="E385" s="5"/>
     </row>
@@ -10472,59 +10372,59 @@
       <c r="A386" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B386" s="11">
+      <c r="B386" s="10">
         <v>10000000385</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>552</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>1146</v>
+        <v>1099</v>
       </c>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B387" s="11">
+      <c r="B387" s="10">
         <v>10000000386</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>450</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>1147</v>
+        <v>1100</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>890</v>
+        <v>1170</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B388" s="11">
+      <c r="B388" s="10">
         <v>10000000387</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>576</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>1148</v>
+        <v>1101</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>891</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B389" s="11">
+      <c r="B389" s="10">
         <v>10000000388</v>
       </c>
       <c r="C389" s="7" t="s">
@@ -10539,7 +10439,7 @@
       <c r="A390" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B390" s="11">
+      <c r="B390" s="10">
         <v>10000000389</v>
       </c>
       <c r="C390" s="7" t="s">
@@ -10554,7 +10454,7 @@
       <c r="A391" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B391" s="11">
+      <c r="B391" s="10">
         <v>10000000390</v>
       </c>
       <c r="C391" s="7" t="s">
@@ -10569,14 +10469,14 @@
       <c r="A392" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B392" s="11">
+      <c r="B392" s="10">
         <v>10000000391</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>780</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>1149</v>
+        <v>1102</v>
       </c>
       <c r="E392" s="5"/>
     </row>
@@ -10584,14 +10484,14 @@
       <c r="A393" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B393" s="11">
+      <c r="B393" s="10">
         <v>10000000392</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>781</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>1150</v>
+        <v>1103</v>
       </c>
       <c r="E393" s="5"/>
     </row>
@@ -10599,14 +10499,14 @@
       <c r="A394" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B394" s="11">
+      <c r="B394" s="10">
         <v>10000000393</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>782</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>1151</v>
+        <v>1104</v>
       </c>
       <c r="E394" s="5"/>
     </row>
@@ -10614,14 +10514,14 @@
       <c r="A395" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B395" s="11">
+      <c r="B395" s="10">
         <v>10000000394</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>615</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1152</v>
+        <v>1105</v>
       </c>
       <c r="E395" s="5"/>
     </row>
@@ -10629,7 +10529,7 @@
       <c r="A396" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B396" s="11">
+      <c r="B396" s="10">
         <v>10000000395</v>
       </c>
       <c r="C396" s="7" t="s">
@@ -10640,38 +10540,38 @@
       </c>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B397" s="11">
+      <c r="B397" s="10">
         <v>10000000396</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>484</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>1153</v>
+        <v>1106</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>892</v>
+        <v>1172</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B398" s="11">
+      <c r="B398" s="10">
         <v>10000000397</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>493</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>1154</v>
+        <v>1107</v>
       </c>
       <c r="E398" s="5"/>
     </row>
@@ -10679,14 +10579,14 @@
       <c r="A399" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B399" s="11">
+      <c r="B399" s="10">
         <v>10000000398</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>545</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>1155</v>
+        <v>1108</v>
       </c>
       <c r="E399" s="5"/>
     </row>
@@ -10694,7 +10594,7 @@
       <c r="A400" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B400" s="11">
+      <c r="B400" s="10">
         <v>10000000399</v>
       </c>
       <c r="C400" s="7" t="s">
@@ -10709,7 +10609,7 @@
       <c r="A401" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B401" s="11">
+      <c r="B401" s="10">
         <v>10000000400</v>
       </c>
       <c r="C401" s="7" t="s">
@@ -10719,17 +10619,17 @@
         <v>553</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>893</v>
+        <v>848</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>894</v>
+        <v>849</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B402" s="11">
+      <c r="B402" s="10">
         <v>10000000401</v>
       </c>
       <c r="C402" s="7" t="s">
@@ -10744,14 +10644,14 @@
       <c r="A403" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B403" s="11">
+      <c r="B403" s="10">
         <v>10000000402</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>532</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>1156</v>
+        <v>1109</v>
       </c>
       <c r="E403" s="5"/>
     </row>
@@ -10759,14 +10659,14 @@
       <c r="A404" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B404" s="11">
+      <c r="B404" s="10">
         <v>10000000403</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>502</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>1157</v>
+        <v>1110</v>
       </c>
       <c r="E404" s="5"/>
     </row>
@@ -10774,14 +10674,14 @@
       <c r="A405" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B405" s="11">
+      <c r="B405" s="10">
         <v>10000000404</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>1158</v>
+        <v>1111</v>
       </c>
       <c r="E405" s="5"/>
     </row>
@@ -10789,7 +10689,7 @@
       <c r="A406" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B406" s="11">
+      <c r="B406" s="10">
         <v>10000000405</v>
       </c>
       <c r="C406" s="7" t="s">
@@ -10800,21 +10700,41 @@
       </c>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B407" s="11"/>
+    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A407" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B407" s="10">
+        <v>20000000001</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E407" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B408" s="11"/>
+      <c r="B408" s="10"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B409" s="11"/>
+      <c r="B409" s="10"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B410" s="11"/>
+      <c r="B410" s="10"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B411" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D406">
-    <sortCondition ref="C2:C406"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F411">
+    <sortCondition ref="B1:B411"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database - Spicers Mill.xlsx
+++ b/Database - Spicers Mill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chad\Documents\Spicers Mill\Database-Bartender-Spicers-Mill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E05CB1-776D-489B-9D63-BE7564F1E9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59663E43-3074-48C5-A2F2-430727152156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22170" yWindow="5220" windowWidth="28800" windowHeight="11385" xr2:uid="{69723D9F-0E43-4143-9271-37B31EE29503}"/>
+    <workbookView xWindow="2370" yWindow="2895" windowWidth="28800" windowHeight="11385" xr2:uid="{69723D9F-0E43-4143-9271-37B31EE29503}"/>
   </bookViews>
   <sheets>
     <sheet name="4oz, 8oz, Cruet, Mixer" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1179">
   <si>
     <t>Bacon &amp; Cheddar Popcorn Seasoning</t>
   </si>
@@ -3694,9 +3694,6 @@
   </si>
   <si>
     <t>Rosemary &amp; Garlic Griller</t>
-  </si>
-  <si>
-    <t>NET WT. 3.4oz ( 96.39grams)</t>
   </si>
   <si>
     <t xml:space="preserve">Bacon &amp; Cheddar Popcorn Seasoning Ingredients:
@@ -3797,10 +3794,6 @@
 aleppo pepper, paprika, salt, onion, garlic, cayenne pepper, black pepper, celery, thyme, jalapeno powder, Mexican oregano, habanero chili powder, parsley, oregano, minced garlic, minced onion, salt, dried cane syrup, spices, natural flavor, bell pepper powder, garlic powder, peppers, distilled vinegar, dextrose, tamarind powder, rice concentrate, molasses, corn syrup, caramel color, corn, maltodextrin</t>
   </si>
   <si>
-    <t>Mediterranean Blend Ingredients:
-oregano, sugar, onion, parsley, salt, pepper, starch, msg flavor enhancer, garlic</t>
-  </si>
-  <si>
     <t>Moroccan Bread Dip Ingredients:
 salt, dehydrated garlic &amp; onion, spices (including mustard), paprika, yeast extract (contains salt), sugar, and silicon dioxide (to prevent caking)</t>
   </si>
@@ -3825,11 +3818,6 @@
 ALLERGY ALERT: CONTAINS MILK</t>
   </si>
   <si>
-    <t>Ranch Dressing Mix Ingredients:
-buttermilk solids (whey solids, buttermilk powder, nonfat dry milk), cane sugar, whole milk, sea salt, dried onion, maltodextrin, salt, monosodium glutamate, citric acid (acidifier), dried garlic, whey, chicken flavoring (dextrose, salt, monosodium glutamate,  lactose (milk), potato flour, pure vegetable oil (sunflower oil), celery, turmeric (color), onion powder, sunflower lecithin, parsley, and herbs), dextrose, dried sour cream powder (sour cream (cultured cream, nonfat milk)), parsley, corn starch, dried roasted garlic, non-fat dry milk, silicon dioxide (flow agent), lactic acid powder, lswiss cheese flavor (maltodextrin, whey solids, natural swiss cheese flavor, salt), butter powder (butter (cream, salt),
-dry buttermilk), ascorbic acid (preservative), natural and artificial sour cream flavor, natural and artificial sour cream &amp; onion flavor (soy), natural butter flavor, beta carotene (color), canola oil. contains milk, soy. processed on equipment that also processes: crustacean shellfish, egg, fish, milk, peanut, soy, tree nuts (almond, brazil nut, cashew, coconut, filbert (hazelnut), macadamia nut, pecan, pine nut, pistachio, walnut) and wheat.</t>
-  </si>
-  <si>
     <t>Ranch Popcorn Seasoning Ingredients:
 whey, salt, buttermilk solids, sugar, onion powder, dried cream extract, parsley, silicon dioxide, (flow agent) lactic acid, canola oil, extract of turmeric (color) natural flavor
 ALLERGY ALERT: CONTAINS MILK, SOY</t>
@@ -3880,12 +3868,6 @@
   <si>
     <t>Truffle &amp; Parsely Ingredients:
 sea salt, truffle, canola oil, parsely, truffle flavor (natural &amp; artificial)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truffle Parmesan Seasoning Ingredients:
-parmesean cheese (pasturized part skim milk, cheese cultures, salt, enzymes) trullfe salt (salt, truffles, natural and artificial flavors) mushrooms, cheese flavor (parmesean
-(pasturized part skim milk, cheese cultures, enzymes) sodium phosphate, salt, lactic acid) corn starch, salt, garlic, dried cane syrup, rice concentrate, onion, cabbage extract powder (maltodextrin, sugar, caggage extract, corn oil) &lt;2% lemon powder (lemon juice concentrate, corn syrup solids, lemon oil) olive oil, artificial and natural flavor
-ALLERGY ALERT: CONTAINS MILK, DAIRY, MUSHROOMS </t>
   </si>
   <si>
     <t>Truffle Parmesan &amp; Black Garlic Seasoning Ingredients:
@@ -3919,6 +3901,44 @@
   <si>
     <t xml:space="preserve">Wild Buffalo Wing Seasoning Ingredients:
 sea salt, pepper, garlic, vinegar, sugar, paprika , turmeric </t>
+  </si>
+  <si>
+    <t>Herbes de Provence w/ Lavender Ingredients:
+savory, rosemary, basil, marjoram, thyme, lavender, fennel seed</t>
+  </si>
+  <si>
+    <t>Red Fruit Cocktail Tea Ingredients:
+hibiscus petals, elderberries, black currants, currants, flavoring</t>
+  </si>
+  <si>
+    <t>NET WT.  1.2 oz (34.01 grams)</t>
+  </si>
+  <si>
+    <t>Peppermint Tea Ingredients:
+peppermint leaves</t>
+  </si>
+  <si>
+    <t>Peppermint Tea</t>
+  </si>
+  <si>
+    <t>Winter Cornflower Blue Tea Ingredients:
+apple, hibiscus, rose hips, orange peel, cornflower, artificial flavoring</t>
+  </si>
+  <si>
+    <t>NET WT. 3.4oz (96.39grams)</t>
+  </si>
+  <si>
+    <t>Mediterranean Bread Dip Ingredients:
+oregano, sugar, onion, parsley, salt, pepper, starch, msg flavor enhancer, garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truffle Parmesan Seasoning Ingredients:
+parmesean cheese (pasturized part skim milk, cheese cultures, salt, enzymes) trullfe salt (salt, truffles, natural and artificial flavors) mushrooms, cheese flavor (parmesean (pasturized part skim milk, cheese cultures, enzymes) sodium phosphate, salt, lactic acid) corn starch, salt, garlic, dried cane syrup, rice concentrate, onion, cabbage extract powder (maltodextrin, sugar, caggage extract, corn oil) &lt;2% lemon powder (lemon juice concentrate, corn syrup solids, lemon oil) olive oil, artificial and natural flavor
+ALLERGY ALERT: CONTAINS MILK, DAIRY, MUSHROOMS </t>
+  </si>
+  <si>
+    <t>Ranch Dressing Mix Ingredients:
+buttermilk solids (whey solids, buttermilk powder, nonfat dry milk), cane sugar, whole milk, sea salt, dried onion, maltodextrin, salt, monosodium glutamate, citric acid (acidifier), dried garlic, whey, chicken flavoring (dextrose, salt, monosodium glutamate,  lactose (milk), potato flour, pure vegetable oil (sunflower oil), celery, turmeric (color), onion powder, sunflower lecithin, parsley, and herbs), dextrose, dried sour cream powder (sour cream (cultured cream, nonfat milk)), parsley, corn starch, dried roasted garlic, non-fat dry milk, silicon dioxide (flow agent), lactic acid powder, lswiss cheese flavor (maltodextrin, whey solids, natural swiss cheese flavor, salt), butter powder (butter (cream, salt), dry buttermilk), ascorbic acid (preservative), natural and artificial sour cream flavor, natural and artificial sour cream &amp; onion flavor (soy), natural butter flavor, beta carotene (color), canola oil. contains milk, soy. processed on equipment that also processes: crustacean shellfish, egg, fish, milk, peanut, soy, tree nuts (almond, brazil nut, cashew, coconut, filbert (hazelnut), macadamia nut, pecan, pine nut, pistachio, walnut) and wheat.</t>
   </si>
 </sst>
 </file>
@@ -4340,10 +4360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A335383E-B031-4E73-B7B8-DDF317F73324}">
-  <dimension ref="A1:F411"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D344" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E360" sqref="E360"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F284" sqref="F284:F285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4352,7 +4372,7 @@
     <col min="2" max="2" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="75.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="255.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="47.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4705,7 +4725,7 @@
         <v>856</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>796</v>
@@ -4740,7 +4760,7 @@
         <v>651</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>797</v>
@@ -4865,7 +4885,7 @@
         <v>863</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4972,7 +4992,7 @@
         <v>620</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>801</v>
@@ -4992,7 +5012,7 @@
         <v>451</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>798</v>
@@ -5147,7 +5167,7 @@
         <v>872</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>850</v>
@@ -5167,7 +5187,7 @@
         <v>873</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>797</v>
@@ -5187,7 +5207,7 @@
         <v>874</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>799</v>
@@ -5207,7 +5227,7 @@
         <v>875</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>903</v>
@@ -5302,7 +5322,7 @@
         <v>881</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5349,7 +5369,7 @@
         <v>883</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5771,7 +5791,7 @@
         <v>901</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>800</v>
@@ -6065,7 +6085,7 @@
         <v>912</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>804</v>
@@ -6310,7 +6330,7 @@
         <v>460</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>803</v>
@@ -6373,7 +6393,7 @@
         <v>926</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>804</v>
@@ -6528,7 +6548,7 @@
         <v>934</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>806</v>
@@ -6578,7 +6598,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>805</v>
@@ -6613,7 +6633,7 @@
         <v>937</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>805</v>
@@ -6932,7 +6952,12 @@
       <c r="D166" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
@@ -7163,7 +7188,7 @@
         <v>961</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>801</v>
@@ -7318,7 +7343,7 @@
         <v>967</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>809</v>
@@ -7398,7 +7423,7 @@
         <v>970</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -7675,7 +7700,7 @@
         <v>984</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7783,7 +7808,7 @@
       </c>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>10</v>
       </c>
@@ -7797,10 +7822,10 @@
         <v>991</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>1147</v>
+        <v>1176</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>1123</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7945,7 +7970,7 @@
       </c>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>23</v>
       </c>
@@ -7959,7 +7984,7 @@
         <v>999</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7977,7 +8002,7 @@
       </c>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>229</v>
       </c>
@@ -7991,7 +8016,7 @@
         <v>1001</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8294,7 +8319,7 @@
       </c>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>31</v>
       </c>
@@ -8308,10 +8333,10 @@
         <v>1018</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>210</v>
       </c>
@@ -8325,13 +8350,13 @@
         <v>1019</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>248</v>
       </c>
@@ -8345,10 +8370,10 @@
         <v>1020</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>263</v>
       </c>
@@ -8363,7 +8388,7 @@
       </c>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>363</v>
       </c>
@@ -8378,7 +8403,7 @@
       </c>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>93</v>
       </c>
@@ -8393,2338 +8418,2382 @@
       </c>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B261" s="10">
+        <v>20000000002</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B261" s="10">
+      <c r="B262" s="10">
         <v>10000000260</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C262" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D261" s="6" t="s">
+      <c r="D262" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="E261" s="5"/>
-    </row>
-    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
+      <c r="E262" s="5"/>
+    </row>
+    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B262" s="10">
+      <c r="B263" s="10">
         <v>10000000261</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C263" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="D262" s="6" t="s">
+      <c r="D263" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="E262" s="5"/>
-    </row>
-    <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="7" t="s">
+      <c r="E263" s="5"/>
+    </row>
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B263" s="10">
+      <c r="B264" s="10">
         <v>10000000262</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C264" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D263" s="6" t="s">
+      <c r="D264" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="E263" s="5"/>
-    </row>
-    <row r="264" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="7" t="s">
+      <c r="E264" s="5"/>
+    </row>
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B264" s="10">
+      <c r="B265" s="10">
         <v>10000000263</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C265" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="D264" s="6" t="s">
+      <c r="D265" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="E264" s="5"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="7" t="s">
+      <c r="E265" s="5"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B265" s="10">
+      <c r="B266" s="10">
         <v>10000000264</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C266" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D265" s="5" t="s">
+      <c r="D266" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="E265" s="5"/>
-    </row>
-    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="7" t="s">
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B266" s="10">
+      <c r="B267" s="10">
         <v>10000000265</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C267" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="D266" s="6" t="s">
+      <c r="D267" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="E266" s="5"/>
-    </row>
-    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="7" t="s">
+      <c r="E267" s="5"/>
+    </row>
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B267" s="10">
+      <c r="B268" s="10">
         <v>10000000266</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C268" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="D267" s="6" t="s">
+      <c r="D268" s="6" t="s">
         <v>1027</v>
       </c>
-      <c r="E267" s="5"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="7" t="s">
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B268" s="10">
+      <c r="B269" s="10">
         <v>10000000267</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C269" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="D268" s="5" t="s">
+      <c r="D269" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="E268" s="5"/>
-    </row>
-    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="7" t="s">
+      <c r="E269" s="5"/>
+    </row>
+    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B269" s="10">
+      <c r="B270" s="10">
         <v>10000000268</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C270" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="D269" s="6" t="s">
+      <c r="D270" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="E269" s="5"/>
-    </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="7" t="s">
+      <c r="E270" s="5"/>
+    </row>
+    <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A271" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B270" s="10">
+      <c r="B271" s="10">
         <v>10000000269</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C271" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D270" s="6" t="s">
+      <c r="D271" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="E270" s="5"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="7" t="s">
+      <c r="E271" s="5"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B271" s="10">
+      <c r="B272" s="10">
         <v>10000000270</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C272" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="D271" s="5" t="s">
+      <c r="D272" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="E271" s="5"/>
-    </row>
-    <row r="272" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="7" t="s">
+      <c r="E272" s="5"/>
+    </row>
+    <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B272" s="10">
+      <c r="B273" s="10">
         <v>10000000271</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C273" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="D272" s="6" t="s">
+      <c r="D273" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="E272" s="5"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="7" t="s">
+      <c r="E273" s="5"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B273" s="10">
+      <c r="B274" s="10">
         <v>10000000272</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C274" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D273" s="5" t="s">
+      <c r="D274" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E273" s="5"/>
-    </row>
-    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="7" t="s">
+      <c r="E274" s="5"/>
+    </row>
+    <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B274" s="10">
+      <c r="B275" s="10">
         <v>10000000273</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C275" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="D274" s="6" t="s">
+      <c r="D275" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="E274" s="5"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="7" t="s">
+      <c r="E275" s="5"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B275" s="10">
+      <c r="B276" s="10">
         <v>10000000274</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C276" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="D275" s="5" t="s">
+      <c r="D276" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="E275" s="5"/>
-    </row>
-    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B276" s="10">
-        <v>10000000275</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>1032</v>
       </c>
       <c r="E276" s="5"/>
     </row>
     <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="B277" s="10">
-        <v>10000000276</v>
+        <v>10000000275</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>549</v>
+        <v>685</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E277" s="5"/>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="B278" s="10">
-        <v>10000000277</v>
+        <v>10000000276</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>772</v>
+        <v>549</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E278" s="5"/>
     </row>
     <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B279" s="10">
-        <v>10000000278</v>
+        <v>10000000277</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>634</v>
+        <v>772</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E279" s="5"/>
     </row>
     <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="B280" s="10">
-        <v>10000000279</v>
+        <v>10000000278</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>815</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="E280" s="5"/>
     </row>
     <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B281" s="10">
-        <v>10000000280</v>
+        <v>10000000279</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>730</v>
+        <v>595</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B282" s="10">
+        <v>10000000280</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B282" s="10">
+      <c r="B283" s="10">
         <v>10000000281</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C283" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="D282" s="5" t="s">
+      <c r="D283" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="E282" s="6" t="s">
+      <c r="E283" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="F282" s="5" t="s">
+      <c r="F283" s="5" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
-      <c r="B283" s="10">
+    <row r="284" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+      <c r="B284" s="10">
         <v>10000000282</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C284" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="D283" s="5" t="s">
+      <c r="D284" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="E283" s="6" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A284" s="7" t="s">
+      <c r="E284" s="6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B284" s="10">
+      <c r="B285" s="10">
         <v>10000000283</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C285" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D284" s="6" t="s">
+      <c r="D285" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="E284" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F284" s="5" t="s">
+      <c r="E285" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F285" s="5" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="7" t="s">
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B285" s="10">
+      <c r="B286" s="10">
         <v>10000000284</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C286" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D285" s="6" t="s">
+      <c r="D286" s="6" t="s">
         <v>1039</v>
-      </c>
-      <c r="E285" s="5"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B286" s="10">
-        <v>10000000285</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="E286" s="5"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="B287" s="10">
-        <v>10000000286</v>
+        <v>10000000285</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>733</v>
+        <v>642</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>733</v>
+        <v>642</v>
       </c>
       <c r="E287" s="5"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="B288" s="10">
-        <v>10000000287</v>
+        <v>10000000286</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>522</v>
+        <v>733</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>522</v>
+        <v>733</v>
       </c>
       <c r="E288" s="5"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B289" s="10">
+        <v>10000000287</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E289" s="5"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B289" s="10">
+      <c r="B290" s="10">
         <v>10000000288</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C290" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D289" s="5" t="s">
+      <c r="D290" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="E289" s="5"/>
-    </row>
-    <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B290" s="10">
-        <v>10000000289</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="D290" s="6" t="s">
-        <v>1040</v>
       </c>
       <c r="E290" s="5"/>
     </row>
     <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B291" s="10">
+        <v>10000000289</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B291" s="10">
+      <c r="B292" s="10">
         <v>10000000290</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C292" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D291" s="6" t="s">
+      <c r="D292" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="E291" s="5"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="7" t="s">
+      <c r="E292" s="5"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B292" s="10">
+      <c r="B293" s="10">
         <v>10000000291</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C293" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D292" s="5" t="s">
+      <c r="D293" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="E292" s="5"/>
-    </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B293" s="10">
-        <v>10000000292</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>1042</v>
       </c>
       <c r="E293" s="5"/>
     </row>
     <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B294" s="10">
-        <v>10000000293</v>
+        <v>10000000292</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>562</v>
+        <v>474</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E294" s="5"/>
     </row>
     <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B295" s="10">
+        <v>10000000293</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E295" s="5"/>
+    </row>
+    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B295" s="10">
+      <c r="B296" s="10">
         <v>10000000294</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C296" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="D295" s="6" t="s">
+      <c r="D296" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="E295" s="5"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="7" t="s">
+      <c r="E296" s="5"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B296" s="10">
+      <c r="B297" s="10">
         <v>10000000295</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C297" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="D296" s="5" t="s">
+      <c r="D297" s="5" t="s">
         <v>718</v>
-      </c>
-      <c r="E296" s="5"/>
-    </row>
-    <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B297" s="10">
-        <v>10000000296</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>1045</v>
       </c>
       <c r="E297" s="5"/>
     </row>
     <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B298" s="10">
+        <v>10000000296</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E298" s="5"/>
+    </row>
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B298" s="10">
+      <c r="B299" s="10">
         <v>10000000297</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C299" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D298" s="6" t="s">
+      <c r="D299" s="6" t="s">
         <v>1046</v>
-      </c>
-      <c r="E298" s="5"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B299" s="10">
-        <v>10000000298</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="D299" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="E299" s="5"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B300" s="10">
+        <v>10000000298</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E300" s="5"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B300" s="10">
+      <c r="B301" s="10">
         <v>10000000299</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C301" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="D300" s="5" t="s">
+      <c r="D301" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E300" s="5"/>
-    </row>
-    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B301" s="10">
-        <v>10000000300</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E301" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="F301" s="5" t="s">
-        <v>821</v>
-      </c>
+      <c r="E301" s="5"/>
     </row>
     <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B302" s="10">
-        <v>10000000301</v>
+        <v>10000000300</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E302" s="5"/>
+        <v>1047</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>76</v>
+        <v>1125</v>
       </c>
       <c r="B303" s="10">
-        <v>10000000302</v>
+        <v>20000000001</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>680</v>
+        <v>1122</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E303" s="5"/>
+        <v>1122</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="10">
+        <v>10000000301</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E304" s="5"/>
+    </row>
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B305" s="10">
+        <v>10000000302</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E305" s="5"/>
+    </row>
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B304" s="10">
+      <c r="B306" s="10">
         <v>10000000303</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C306" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="D304" s="6" t="s">
+      <c r="D306" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="E304" s="5"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="7" t="s">
+      <c r="E306" s="5"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B305" s="10">
+      <c r="B307" s="10">
         <v>10000000304</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C307" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="D305" s="5" t="s">
+      <c r="D307" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="E305" s="5"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="7" t="s">
+      <c r="E307" s="5"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B306" s="10">
+      <c r="B308" s="10">
         <v>10000000305</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C308" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="D306" s="5" t="s">
+      <c r="D308" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="E306" s="5"/>
-    </row>
-    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B307" s="10">
-        <v>10000000306</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E307" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="F307" s="6" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A308" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B308" s="10">
-        <v>10000000307</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>1052</v>
       </c>
       <c r="E308" s="5"/>
     </row>
     <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B309" s="10">
-        <v>10000000308</v>
+        <v>10000000306</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>690</v>
+        <v>430</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E309" s="5"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="F309" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B310" s="10">
-        <v>10000000309</v>
+        <v>10000000307</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>671</v>
+        <v>691</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>1052</v>
       </c>
       <c r="E310" s="5"/>
     </row>
     <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B311" s="10">
-        <v>10000000310</v>
+        <v>10000000308</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>431</v>
+        <v>690</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="F311" s="5" t="s">
-        <v>825</v>
-      </c>
+        <v>1053</v>
+      </c>
+      <c r="E311" s="5"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="B312" s="10">
-        <v>10000000311</v>
+        <v>10000000309</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="B313" s="10">
-        <v>10000000312</v>
+        <v>10000000310</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D313" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E313" s="5"/>
+        <v>431</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B314" s="10">
+        <v>10000000311</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E314" s="5"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B315" s="10">
+        <v>10000000312</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B314" s="10">
+      <c r="B316" s="10">
         <v>10000000313</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C316" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D314" s="5" t="s">
+      <c r="D316" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E314" s="5"/>
-    </row>
-    <row r="315" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A315" s="7"/>
-      <c r="B315" s="10">
-        <v>10000000314</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="E315" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F315" s="6" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B316" s="10">
-        <v>10000000315</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="D316" s="6" t="s">
-        <v>1056</v>
-      </c>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
       <c r="B317" s="10">
+        <v>10000000314</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F317" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B318" s="10">
+        <v>10000000315</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E318" s="5"/>
+    </row>
+    <row r="319" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A319" s="7"/>
+      <c r="B319" s="10">
         <v>10000000316</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C319" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="D317" s="5" t="s">
+      <c r="D319" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="E317" s="6" t="s">
+      <c r="E319" s="6" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A320" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B320" s="10">
+        <v>10000000317</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B321" s="10">
+        <v>10000000318</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="F321" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A322" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B322" s="10">
+        <v>10000000319</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B323" s="10">
+        <v>10000000320</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E323" s="5"/>
+    </row>
+    <row r="324" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B324" s="10">
+        <v>10000000321</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E324" s="6" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A318" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B318" s="10">
-        <v>10000000317</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="D318" s="6" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E318" s="6" t="s">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B325" s="10">
+        <v>10000000322</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E325" s="5"/>
+    </row>
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B326" s="10">
+        <v>10000000323</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E326" s="5"/>
+    </row>
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B327" s="10">
+        <v>10000000324</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E327" s="5"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B328" s="10">
+        <v>10000000325</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E328" s="5"/>
+    </row>
+    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B329" s="10">
+        <v>10000000326</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E329" s="5"/>
+    </row>
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B330" s="10">
+        <v>10000000327</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E330" s="5"/>
+    </row>
+    <row r="331" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B331" s="10">
+        <v>10000000328</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E331" s="5"/>
+    </row>
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B332" s="10">
+        <v>10000000329</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E332" s="5"/>
+    </row>
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B333" s="10">
+        <v>10000000330</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E333" s="5"/>
+    </row>
+    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B334" s="10">
+        <v>10000000331</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E334" s="5"/>
+    </row>
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A335" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B335" s="10">
+        <v>10000000332</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E335" s="5"/>
+    </row>
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B336" s="10">
+        <v>10000000333</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E336" s="5"/>
+    </row>
+    <row r="337" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A337" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B337" s="10">
+        <v>10000000334</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A338" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B338" s="10">
+        <v>10000000335</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E338" s="5"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B339" s="10">
+        <v>10000000336</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E339" s="5"/>
+    </row>
+    <row r="340" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A340" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B340" s="10">
+        <v>10000000337</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E340" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="F318" s="5" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B319" s="10">
-        <v>10000000318</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="D319" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="F319" s="6" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A320" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B320" s="10">
-        <v>10000000319</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="D320" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F320" s="6" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B321" s="10">
-        <v>10000000320</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="D321" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E321" s="5"/>
-    </row>
-    <row r="322" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B322" s="10">
-        <v>10000000321</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B323" s="10">
-        <v>10000000322</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="E323" s="5"/>
-    </row>
-    <row r="324" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A324" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B324" s="10">
-        <v>10000000323</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E324" s="5"/>
-    </row>
-    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A325" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B325" s="10">
-        <v>10000000324</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E325" s="5"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B326" s="10">
-        <v>10000000325</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="E326" s="5"/>
-    </row>
-    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A327" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B327" s="10">
-        <v>10000000326</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E327" s="5"/>
-    </row>
-    <row r="328" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A328" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B328" s="10">
-        <v>10000000327</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E328" s="5"/>
-    </row>
-    <row r="329" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B329" s="10">
-        <v>10000000328</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E329" s="5"/>
-    </row>
-    <row r="330" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B330" s="10">
-        <v>10000000329</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E330" s="5"/>
-    </row>
-    <row r="331" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A331" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B331" s="10">
-        <v>10000000330</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E331" s="5"/>
-    </row>
-    <row r="332" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A332" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B332" s="10">
-        <v>10000000331</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E332" s="5"/>
-    </row>
-    <row r="333" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A333" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B333" s="10">
-        <v>10000000332</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E333" s="5"/>
-    </row>
-    <row r="334" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B334" s="10">
-        <v>10000000333</v>
-      </c>
-      <c r="C334" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E334" s="5"/>
-    </row>
-    <row r="335" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A335" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B335" s="10">
-        <v>10000000334</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="D335" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="E335" s="6" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A336" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B336" s="10">
-        <v>10000000335</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E336" s="5"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B337" s="10">
-        <v>10000000336</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="E337" s="5"/>
-    </row>
-    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A338" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B338" s="10">
-        <v>10000000337</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E338" s="6" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A339" s="7" t="s">
+    </row>
+    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A341" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B339" s="10">
+      <c r="B341" s="10">
         <v>10000000338</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="C341" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D339" s="6" t="s">
+      <c r="D341" s="6" t="s">
         <v>1071</v>
       </c>
-      <c r="E339" s="5"/>
-    </row>
-    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A340" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B340" s="10">
-        <v>10000000339</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D340" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E340" s="5"/>
-    </row>
-    <row r="341" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A341" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B341" s="10">
-        <v>10000000340</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E341" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F341" s="5" t="s">
-        <v>833</v>
-      </c>
+      <c r="E341" s="5"/>
     </row>
     <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="B342" s="10">
-        <v>10000000341</v>
+        <v>10000000339</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>749</v>
+        <v>492</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="B343" s="10">
-        <v>10000000342</v>
+        <v>10000000340</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>625</v>
+        <v>416</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E343" s="5"/>
+        <v>1073</v>
+      </c>
+      <c r="E343" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="B344" s="10">
-        <v>10000000343</v>
+        <v>10000000341</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>456</v>
+        <v>749</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E344" s="5"/>
     </row>
     <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
       <c r="B345" s="10">
-        <v>10000000344</v>
+        <v>10000000342</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>478</v>
+        <v>625</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B346" s="10">
-        <v>10000000345</v>
+        <v>10000000343</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>482</v>
+        <v>1076</v>
       </c>
       <c r="E346" s="5"/>
     </row>
     <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="B347" s="10">
-        <v>10000000346</v>
+        <v>10000000344</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>592</v>
+        <v>478</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E347" s="5"/>
     </row>
-    <row r="348" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>328</v>
+        <v>158</v>
       </c>
       <c r="B348" s="10">
-        <v>10000000347</v>
+        <v>10000000345</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>751</v>
+        <v>482</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>1079</v>
+        <v>482</v>
       </c>
       <c r="E348" s="5"/>
     </row>
     <row r="349" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B349" s="10">
+        <v>10000000346</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E349" s="5"/>
+    </row>
+    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A350" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B350" s="10">
+        <v>10000000347</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E350" s="5"/>
+    </row>
+    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A351" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B349" s="10">
+      <c r="B351" s="10">
         <v>10000000348</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C351" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D349" s="6" t="s">
+      <c r="D351" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E349" s="5"/>
-    </row>
-    <row r="350" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A350" s="7" t="s">
+      <c r="E351" s="5"/>
+    </row>
+    <row r="352" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A352" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B350" s="10">
+      <c r="B352" s="10">
         <v>10000000349</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C352" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D350" s="6" t="s">
+      <c r="D352" s="6" t="s">
         <v>1081</v>
       </c>
-      <c r="E350" s="6" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B351" s="10">
-        <v>10000000350</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="D351" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="E351" s="5"/>
-    </row>
-    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A352" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B352" s="10">
-        <v>10000000351</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E352" s="5"/>
+      <c r="E352" s="6" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B353" s="10">
+        <v>10000000350</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E353" s="5"/>
+    </row>
+    <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A354" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B354" s="10">
+        <v>10000000351</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E354" s="5"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B353" s="10">
+      <c r="B355" s="10">
         <v>10000000352</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="C355" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D353" s="5" t="s">
+      <c r="D355" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E353" s="5"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="7" t="s">
+      <c r="E355" s="5"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B354" s="10">
+      <c r="B356" s="10">
         <v>10000000353</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C356" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="D354" s="5" t="s">
+      <c r="D356" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="E354" s="5"/>
-    </row>
-    <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A355" s="7"/>
-      <c r="B355" s="10">
+      <c r="E356" s="5"/>
+    </row>
+    <row r="357" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A357" s="7"/>
+      <c r="B357" s="10">
         <v>10000000354</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="C357" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="D355" s="5" t="s">
+      <c r="D357" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="E355" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F355" s="5" t="s">
+      <c r="E357" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F357" s="5" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A356" s="7"/>
-      <c r="B356" s="10">
-        <v>10000000355</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="D356" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="E356" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F356" s="5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B357" s="10">
-        <v>10000000356</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="D357" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F357" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
       <c r="B358" s="10">
+        <v>10000000355</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B359" s="10">
+        <v>10000000356</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="7"/>
+      <c r="B360" s="10">
         <v>10000000357</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C360" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="D358" s="6" t="s">
+      <c r="D360" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="E358" s="6" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="7" t="s">
+      <c r="E360" s="6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B359" s="10">
+      <c r="B361" s="10">
         <v>10000000358</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="C361" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="D359" s="6" t="s">
+      <c r="D361" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="E359" s="6" t="s">
+      <c r="E361" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="F359" s="5" t="s">
+      <c r="F361" s="5" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="7" t="s">
+    <row r="362" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B360" s="10">
+      <c r="B362" s="10">
         <v>10000000359</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="C362" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D360" s="5" t="s">
+      <c r="D362" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="E360" s="6" t="s">
+      <c r="E362" s="6" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A361" s="7" t="s">
+    <row r="363" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A363" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B361" s="10">
+      <c r="B363" s="10">
         <v>10000000360</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="C363" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="D361" s="6" t="s">
+      <c r="D363" s="6" t="s">
         <v>1085</v>
       </c>
-      <c r="E361" s="5"/>
-    </row>
-    <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A362" s="7"/>
-      <c r="B362" s="10">
+      <c r="E363" s="5"/>
+    </row>
+    <row r="364" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A364" s="7"/>
+      <c r="B364" s="10">
         <v>10000000361</v>
       </c>
-      <c r="C362" s="7" t="s">
+      <c r="C364" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="D362" s="5" t="s">
+      <c r="D364" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="E362" s="6" t="s">
+      <c r="E364" s="6" t="s">
         <v>843</v>
-      </c>
-      <c r="F362" s="5" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A363" s="7"/>
-      <c r="B363" s="10">
-        <v>10000000362</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="D363" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="E363" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F363" s="5" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A364" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B364" s="10">
-        <v>10000000363</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E364" s="8" t="s">
-        <v>841</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A365" s="7" t="s">
+    <row r="365" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A365" s="7"/>
+      <c r="B365" s="10">
+        <v>10000000362</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A366" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B366" s="10">
+        <v>10000000363</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A367" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B365" s="10">
+      <c r="B367" s="10">
         <v>10000000364</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C367" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D365" s="6" t="s">
+      <c r="D367" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="E365" s="6" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A366" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B366" s="10">
-        <v>10000000365</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D366" s="6" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E366" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A367" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B367" s="10">
-        <v>10000000366</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E367" s="5"/>
+      <c r="E367" s="6" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B368" s="10">
+        <v>10000000365</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A369" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B369" s="10">
+        <v>10000000366</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E369" s="5"/>
+    </row>
+    <row r="370" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A370" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B368" s="10">
+      <c r="B370" s="10">
         <v>10000000367</v>
       </c>
-      <c r="C368" s="7" t="s">
+      <c r="C370" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="D368" s="5" t="s">
+      <c r="D370" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="E368" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F368" s="6" t="s">
+      <c r="E370" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F370" s="6" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="7" t="s">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B369" s="10">
+      <c r="B371" s="10">
         <v>10000000368</v>
       </c>
-      <c r="C369" s="7" t="s">
+      <c r="C371" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="D369" s="5" t="s">
+      <c r="D371" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E369" s="5"/>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="7" t="s">
+      <c r="E371" s="5"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B370" s="10">
+      <c r="B372" s="10">
         <v>10000000369</v>
       </c>
-      <c r="C370" s="7" t="s">
+      <c r="C372" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="D370" s="5" t="s">
+      <c r="D372" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="E370" s="5"/>
-    </row>
-    <row r="371" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A371" s="7" t="s">
+      <c r="E372" s="5"/>
+    </row>
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B371" s="10">
+      <c r="B373" s="10">
         <v>10000000370</v>
       </c>
-      <c r="C371" s="7" t="s">
+      <c r="C373" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="D371" s="6" t="s">
+      <c r="D373" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="E371" s="5"/>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="7" t="s">
+      <c r="E373" s="5"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B372" s="10">
+      <c r="B374" s="10">
         <v>10000000371</v>
       </c>
-      <c r="C372" s="7" t="s">
+      <c r="C374" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D372" s="5" t="s">
+      <c r="D374" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="E372" s="5"/>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="7" t="s">
+      <c r="E374" s="5"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B373" s="10">
+      <c r="B375" s="10">
         <v>10000000372</v>
       </c>
-      <c r="C373" s="7" t="s">
+      <c r="C375" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="D373" s="5" t="s">
+      <c r="D375" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="E373" s="5"/>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="7" t="s">
+      <c r="E375" s="5"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B374" s="10">
+      <c r="B376" s="10">
         <v>10000000373</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="C376" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="D374" s="5" t="s">
+      <c r="D376" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="E374" s="5"/>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="7" t="s">
+      <c r="E376" s="5"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B375" s="10">
+      <c r="B377" s="10">
         <v>10000000374</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C377" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="D375" s="5" t="s">
+      <c r="D377" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="E375" s="5"/>
-    </row>
-    <row r="376" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A376" s="7" t="s">
+      <c r="E377" s="5"/>
+    </row>
+    <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A378" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B376" s="10">
+      <c r="B378" s="10">
         <v>10000000375</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C378" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="D376" s="6" t="s">
+      <c r="D378" s="6" t="s">
         <v>1091</v>
       </c>
-      <c r="E376" s="6" t="s">
+      <c r="E378" s="6" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A377" s="7" t="s">
+    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A379" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B377" s="10">
+      <c r="B379" s="10">
         <v>10000000376</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C379" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="D377" s="6" t="s">
+      <c r="D379" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="E377" s="5"/>
-    </row>
-    <row r="378" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A378" s="7" t="s">
+      <c r="E379" s="5"/>
+    </row>
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B378" s="10">
+      <c r="B380" s="10">
         <v>10000000377</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C380" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="D378" s="6" t="s">
+      <c r="D380" s="6" t="s">
         <v>1093</v>
       </c>
-      <c r="E378" s="5"/>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="7" t="s">
+      <c r="E380" s="5"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B379" s="10">
+      <c r="B381" s="10">
         <v>10000000378</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C381" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D379" s="5" t="s">
+      <c r="D381" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="E379" s="5"/>
-    </row>
-    <row r="380" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A380" s="7" t="s">
+      <c r="E381" s="5"/>
+    </row>
+    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A382" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B380" s="10">
+      <c r="B382" s="10">
         <v>10000000379</v>
       </c>
-      <c r="C380" s="7" t="s">
+      <c r="C382" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="D380" s="6" t="s">
+      <c r="D382" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="E380" s="5"/>
-    </row>
-    <row r="381" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A381" s="7" t="s">
+      <c r="E382" s="5"/>
+    </row>
+    <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A383" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B381" s="10">
+      <c r="B383" s="10">
         <v>10000000380</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C383" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="D381" s="6" t="s">
+      <c r="D383" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="E381" s="5"/>
-    </row>
-    <row r="382" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A382" s="7" t="s">
+      <c r="E383" s="5"/>
+    </row>
+    <row r="384" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A384" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B382" s="10">
+      <c r="B384" s="10">
         <v>10000000381</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C384" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="D382" s="6" t="s">
+      <c r="D384" s="6" t="s">
         <v>1096</v>
-      </c>
-      <c r="E382" s="5"/>
-    </row>
-    <row r="383" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A383" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B383" s="10">
-        <v>10000000382</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="D383" s="6" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E383" s="5"/>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B384" s="10">
-        <v>10000000383</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="D384" s="5" t="s">
-        <v>728</v>
       </c>
       <c r="E384" s="5"/>
     </row>
     <row r="385" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B385" s="10">
+        <v>10000000382</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E385" s="5"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B386" s="10">
+        <v>10000000383</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E386" s="5"/>
+    </row>
+    <row r="387" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A387" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B385" s="10">
+      <c r="B387" s="10">
         <v>10000000384</v>
       </c>
-      <c r="C385" s="7" t="s">
+      <c r="C387" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="D385" s="6" t="s">
+      <c r="D387" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="E385" s="5"/>
-    </row>
-    <row r="386" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A386" s="7" t="s">
+      <c r="E387" s="5"/>
+    </row>
+    <row r="388" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A388" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B386" s="10">
+      <c r="B388" s="10">
         <v>10000000385</v>
       </c>
-      <c r="C386" s="7" t="s">
+      <c r="C388" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="D386" s="6" t="s">
+      <c r="D388" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="E386" s="5"/>
-    </row>
-    <row r="387" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A387" s="7" t="s">
+      <c r="E388" s="5"/>
+    </row>
+    <row r="389" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B387" s="10">
+      <c r="B389" s="10">
         <v>10000000386</v>
       </c>
-      <c r="C387" s="7" t="s">
+      <c r="C389" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="D387" s="6" t="s">
+      <c r="D389" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="E387" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F387" s="6" t="s">
+      <c r="E389" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F389" s="6" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A388" s="7" t="s">
+    <row r="390" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A390" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B388" s="10">
+      <c r="B390" s="10">
         <v>10000000387</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C390" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="D388" s="6" t="s">
+      <c r="D390" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="E388" s="6" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B389" s="10">
-        <v>10000000388</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="D389" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="E389" s="5"/>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B390" s="10">
-        <v>10000000389</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="D390" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="E390" s="5"/>
+      <c r="E390" s="6" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B391" s="10">
+        <v>10000000388</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E391" s="5"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B392" s="10">
+        <v>10000000389</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E392" s="5"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B391" s="10">
+      <c r="B393" s="10">
         <v>10000000390</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="C393" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="D391" s="5" t="s">
+      <c r="D393" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="E391" s="5"/>
-    </row>
-    <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A392" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B392" s="10">
-        <v>10000000391</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D392" s="6" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E392" s="5"/>
-    </row>
-    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A393" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B393" s="10">
-        <v>10000000392</v>
-      </c>
-      <c r="C393" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="D393" s="6" t="s">
-        <v>1103</v>
       </c>
       <c r="E393" s="5"/>
     </row>
     <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B394" s="10">
-        <v>10000000393</v>
+        <v>10000000391</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E394" s="5"/>
     </row>
     <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>195</v>
+        <v>352</v>
       </c>
       <c r="B395" s="10">
-        <v>10000000394</v>
+        <v>10000000392</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>615</v>
+        <v>781</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>256</v>
+        <v>350</v>
       </c>
       <c r="B396" s="10">
-        <v>10000000395</v>
+        <v>10000000393</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="D396" s="5" t="s">
-        <v>720</v>
+        <v>782</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>1104</v>
       </c>
       <c r="E396" s="5"/>
     </row>
     <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B397" s="10">
-        <v>10000000396</v>
+        <v>10000000394</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>484</v>
+        <v>615</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E397" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F397" s="5" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B398" s="10">
-        <v>10000000397</v>
+        <v>10000000395</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="D398" s="6" t="s">
-        <v>1107</v>
+        <v>720</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="E398" s="5"/>
     </row>
     <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>396</v>
+        <v>160</v>
       </c>
       <c r="B399" s="10">
-        <v>10000000398</v>
+        <v>10000000396</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E399" s="5"/>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+      <c r="E399" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B400" s="10">
-        <v>10000000399</v>
+        <v>10000000397</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="D400" s="5" t="s">
-        <v>794</v>
+        <v>493</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>1107</v>
       </c>
       <c r="E400" s="5"/>
     </row>
     <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="B401" s="10">
-        <v>10000000400</v>
+        <v>10000000398</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="D401" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>1108</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>848</v>
+        <v>1174</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>849</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>384</v>
+        <v>166</v>
       </c>
       <c r="B402" s="10">
-        <v>10000000401</v>
+        <v>10000000399</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>533</v>
+        <v>794</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>533</v>
+        <v>794</v>
       </c>
       <c r="E402" s="5"/>
     </row>
     <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
-        <v>383</v>
+        <v>220</v>
       </c>
       <c r="B403" s="10">
-        <v>10000000402</v>
+        <v>10000000400</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D403" s="6" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E403" s="5"/>
-    </row>
-    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>179</v>
+        <v>384</v>
       </c>
       <c r="B404" s="10">
-        <v>10000000403</v>
+        <v>10000000401</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>1110</v>
+        <v>533</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E404" s="5"/>
     </row>
     <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
-        <v>34</v>
+        <v>383</v>
       </c>
       <c r="B405" s="10">
-        <v>10000000404</v>
+        <v>10000000402</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>437</v>
+        <v>532</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E405" s="5"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B406" s="10">
-        <v>10000000405</v>
+        <v>10000000403</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D406" s="5" t="s">
-        <v>483</v>
+        <v>502</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>1110</v>
       </c>
       <c r="E406" s="5"/>
     </row>
     <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
-        <v>1126</v>
+        <v>34</v>
       </c>
       <c r="B407" s="10">
+        <v>10000000404</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E407" s="5"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B408" s="10">
+        <v>10000000405</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E408" s="5"/>
+    </row>
+    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A409" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B409" s="10">
         <v>20000000001</v>
       </c>
-      <c r="C407" s="7" t="s">
+      <c r="C409" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="D407" s="6" t="s">
+      <c r="D409" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="E407" s="6" t="s">
+      <c r="E409" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="F407" s="5" t="s">
+      <c r="F409" s="5" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B408" s="10"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B409" s="10"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B410" s="10"/>
@@ -10732,9 +10801,15 @@
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B411" s="10"/>
     </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B412" s="10"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B413" s="10"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F411">
-    <sortCondition ref="B1:B411"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F413">
+    <sortCondition ref="B1:B413"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database - Spicers Mill.xlsx
+++ b/Database - Spicers Mill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c316a4d5fbf13c6/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{FF6EAA7E-8F2A-4835-A54F-DBE5B2E29E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FDA8C4F-81BD-44ED-8CC8-AF52146B50BF}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{FF6EAA7E-8F2A-4835-A54F-DBE5B2E29E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D949B0B-1F00-443A-9745-7879E7F9F388}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" tabRatio="499" xr2:uid="{69723D9F-0E43-4143-9271-37B31EE29503}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1895">
   <si>
     <t>SKU</t>
   </si>
@@ -3285,9 +3285,6 @@
 Sea Salt</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>SS-050</t>
   </si>
   <si>
@@ -3354,10 +3351,6 @@
   <si>
     <t>Lime
 Sea Salt</t>
-  </si>
-  <si>
-    <t>Lime Sea Salt Ingredients:
-sea salt, lime juice, key limes</t>
   </si>
   <si>
     <t>WS-004</t>
@@ -4150,11 +4143,6 @@
 Cheese Powder</t>
   </si>
   <si>
-    <t>Parmesan Cheese Powder Ingredients:
-dehydrated parmesan cheese (part-skim milk, cheese culture, salt, enzymes) whey buttermilk solids, sodium phosphate
-• ALLERGY ALERT: contains milk •</t>
-  </si>
-  <si>
     <t>PS-028</t>
   </si>
   <si>
@@ -4733,10 +4721,6 @@
 Garlic Pepper</t>
   </si>
   <si>
-    <t>Roasted Garlic Pepper Ingredients:
-garlic dry roasted</t>
-  </si>
-  <si>
     <t>PZ-010 *</t>
   </si>
   <si>
@@ -5537,11 +5521,6 @@
 Seasoning</t>
   </si>
   <si>
-    <t>Sundried Tomato &amp; Basil Seasoning Ingredients:
-salt, dehydrated garlic, basil, dehydrated tomato, green bell peppers, soybean oil, dehydrated parsley
-• ALLERGY ALERT: contains soybean oil •</t>
-  </si>
-  <si>
     <t>• Client: Vines &amp; Branches
 • Original SKU: BD-006 - Sun Dried Tomato &amp; Basil Bread Dip</t>
   </si>
@@ -6264,10 +6243,6 @@
 Wing Seasoning</t>
   </si>
   <si>
-    <t xml:space="preserve">Wild Buffalo Wing Seasoning Ingredients:
-sea salt, pepper, garlic, vinegar, sugar, paprika , turmeric </t>
-  </si>
-  <si>
     <t>CNC-010</t>
   </si>
   <si>
@@ -6732,6 +6707,29 @@
   <si>
     <t>Lemon Flake Sea Salt Ingredients:
 lemon flake salt</t>
+  </si>
+  <si>
+    <t>Sun Dried Tomato &amp; Basil Seasoning Ingredients:
+salt, dehydrated garlic, basil, dehydrated tomato, green bell peppers, soybean oil, dehydrated parsley
+• ALLERGY ALERT: contains soybean oil •</t>
+  </si>
+  <si>
+    <t>Lime Sea Salt Ingredients:
+sea salt &amp; lime powder</t>
+  </si>
+  <si>
+    <t>Wild Buffalo Wing Seasoning Ingredients:
+sea salt, vinegar powder, cayenne pepper, sugar, garlic, paprika, pepper, turmeric</t>
+  </si>
+  <si>
+    <t>Parmesan Cheese Powder Ingredients:
+dehydrated parmesan cheese (part-skim milk, cheese culture, salt, enzymes), whey, buttermilk solids, sodium phosphate, and salt
+• ALLERGY ALERT: contains milk •
+• Packaged in a facility that also handles wheat, milk, soy, egg, sesame, peanuts, and tree nuts •</t>
+  </si>
+  <si>
+    <t>Roasted Garlic Pepper Ingredients:
+black pepper, garlic, onion, and white pepper</t>
   </si>
 </sst>
 </file>
@@ -6967,53 +6965,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7616,6 +7567,53 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7630,60 +7628,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04EB5F79-DCAB-4AF9-8C9F-068A8B5CE2A7}" name="Table9" displayName="Table9" ref="A1:AB488" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04EB5F79-DCAB-4AF9-8C9F-068A8B5CE2A7}" name="Table9" displayName="Table9" ref="A1:AB488" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:AB488" xr:uid="{04EB5F79-DCAB-4AF9-8C9F-068A8B5CE2A7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB488">
     <sortCondition ref="B1:B488"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{EA6BFF53-459C-4C8C-AF26-B6AD20617AD0}" name="SKU" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{F8CB9197-5A3A-43E7-88BD-8A0B3713D11E}" name="Spice Name" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{A97B3E5A-9015-423D-AD86-BA58DC374853}" name="Spice Name _x000a_Front Display" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{35F9A730-229E-4F31-B3C5-A8C1698F769B}" name="Ingredients" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{A919D9C6-44B8-4533-BB31-A647F99B8188}" name="2oz/Cruet/_x000a_Infuser/Mixer_x000a_Net Wt (oz)" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{EA6BFF53-459C-4C8C-AF26-B6AD20617AD0}" name="SKU" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{F8CB9197-5A3A-43E7-88BD-8A0B3713D11E}" name="Spice Name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{A97B3E5A-9015-423D-AD86-BA58DC374853}" name="Spice Name _x000a_Front Display" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{35F9A730-229E-4F31-B3C5-A8C1698F769B}" name="Ingredients" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A919D9C6-44B8-4533-BB31-A647F99B8188}" name="2oz/Cruet/_x000a_Infuser/Mixer_x000a_Net Wt (oz)" dataDxfId="28">
       <calculatedColumnFormula>IF(G2 = "NULL", "NULL", G2/2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CE0AA7C2-F739-46FE-8033-CC0710A464CD}" name="2oz/Cruet/_x000a_Infuser/Mixer_x000a_Net Wt (grams)" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{CE0AA7C2-F739-46FE-8033-CC0710A464CD}" name="2oz/Cruet/_x000a_Infuser/Mixer_x000a_Net Wt (grams)" dataDxfId="27">
       <calculatedColumnFormula>IF(E2 = "NULL", "NULL", E2*28.35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FDF94DFF-E769-4966-A5A7-44079CB7B992}" name="4oz _x000a_Net Wt (oz)" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{6CDFCDB5-ADE1-4B19-BAE9-989160D630EC}" name="4oz _x000a_Net Wt (grams)" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{FDF94DFF-E769-4966-A5A7-44079CB7B992}" name="4oz _x000a_Net Wt (oz)" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{6CDFCDB5-ADE1-4B19-BAE9-989160D630EC}" name="4oz _x000a_Net Wt (grams)" dataDxfId="25">
       <calculatedColumnFormula>IF(G2 = "NULL", "NULL", G2*28.35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B258590B-66D9-4850-9B07-D86594BBA154}" name="5oz _x000a_Net Wt (oz)" dataDxfId="29">
+    <tableColumn id="9" xr3:uid="{B258590B-66D9-4850-9B07-D86594BBA154}" name="5oz _x000a_Net Wt (oz)" dataDxfId="24">
       <calculatedColumnFormula>IF(G2 = "NULL", "NULL", G2*1.2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D23022E3-CF3A-41C0-9780-16287B8D1EC3}" name="5oz _x000a_Net Wt (grams)" dataDxfId="28">
+    <tableColumn id="10" xr3:uid="{D23022E3-CF3A-41C0-9780-16287B8D1EC3}" name="5oz _x000a_Net Wt (grams)" dataDxfId="23">
       <calculatedColumnFormula>IF(G2 = "NULL", "NULL", I2*28.35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A9EAA3BC-A311-4D2D-A61D-02A08FCBD54C}" name="8oz _x000a_Net Wt (oz)" dataDxfId="27">
+    <tableColumn id="11" xr3:uid="{A9EAA3BC-A311-4D2D-A61D-02A08FCBD54C}" name="8oz _x000a_Net Wt (oz)" dataDxfId="22">
       <calculatedColumnFormula>IF(G2 = "NULL", "NULL", G2*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{AA71245F-DC1D-42DD-843B-0FF34B1B5EDF}" name="8oz _x000a_Net Wt (grams)" dataDxfId="26">
+    <tableColumn id="12" xr3:uid="{AA71245F-DC1D-42DD-843B-0FF34B1B5EDF}" name="8oz _x000a_Net Wt (grams)" dataDxfId="21">
       <calculatedColumnFormula>IF(G2 = "NULL", "NULL", K2*28.35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{71A0E1F7-9899-406A-A09B-DE5D731D1926}" name="Back Display" dataDxfId="25">
+    <tableColumn id="13" xr3:uid="{71A0E1F7-9899-406A-A09B-DE5D731D1926}" name="Back Display" dataDxfId="20">
       <calculatedColumnFormula>CONCATENATE(D2, CHAR(10), " - NET WT. ", E2, " oz (", F2, " grams)")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E644EB84-D521-45DA-B7B7-7CB66F9B2636}" name="4oz _x000a_Barcodes" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{AD074499-144B-41CC-9A38-1E1E02789160}" name="5oz _x000a_Barcodes" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{68B3869D-DB85-45DB-A527-551B9706E3A0}" name="8oz _x000a_Barcodes" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{BA6AC144-44A7-495E-821A-A1D67BDF0DD1}" name="Cruet _x000a_Barcodes" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{C6183FAF-EBF9-4CF9-9902-30228429FF52}" name="Mixer _x000a_Barcodes" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{C0FAB907-9389-4FEB-B7AE-2B8C9215ED78}" name="16oz _x000a_Barcodes" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{1BA14C6A-E4C4-4611-99B0-7CA0A60FD26F}" name="1oz _x000a_Barcodes" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{F52DB977-F3A7-48C0-A828-E86BE18988EB}" name="2022" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{4C31F18C-98FC-485E-A38C-1ECFFE9CA87B}" name="Supplier" dataDxfId="16"/>
-    <tableColumn id="26" xr3:uid="{029B877A-2CC0-4D5C-8302-F320A205EABA}" name="1oz Net Wt (oz)" dataDxfId="15"/>
-    <tableColumn id="28" xr3:uid="{8A8909AB-9AD7-4752-8C62-853B8A758FA2}" name="1oz_x000a_Net Wt (grams)" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{DC46C6EA-D6E5-4366-B83F-87F46DA90B03}" name="16oz Net Wt (oz)" dataDxfId="13">
+    <tableColumn id="14" xr3:uid="{E644EB84-D521-45DA-B7B7-7CB66F9B2636}" name="4oz _x000a_Barcodes" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{AD074499-144B-41CC-9A38-1E1E02789160}" name="5oz _x000a_Barcodes" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{68B3869D-DB85-45DB-A527-551B9706E3A0}" name="8oz _x000a_Barcodes" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{BA6AC144-44A7-495E-821A-A1D67BDF0DD1}" name="Cruet _x000a_Barcodes" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{C6183FAF-EBF9-4CF9-9902-30228429FF52}" name="Mixer _x000a_Barcodes" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{C0FAB907-9389-4FEB-B7AE-2B8C9215ED78}" name="16oz _x000a_Barcodes" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{1BA14C6A-E4C4-4611-99B0-7CA0A60FD26F}" name="1oz _x000a_Barcodes" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{F52DB977-F3A7-48C0-A828-E86BE18988EB}" name="2022" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{4C31F18C-98FC-485E-A38C-1ECFFE9CA87B}" name="Supplier" dataDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{029B877A-2CC0-4D5C-8302-F320A205EABA}" name="1oz Net Wt (oz)" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{8A8909AB-9AD7-4752-8C62-853B8A758FA2}" name="1oz_x000a_Net Wt (grams)" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{DC46C6EA-D6E5-4366-B83F-87F46DA90B03}" name="16oz Net Wt (oz)" dataDxfId="8">
       <calculatedColumnFormula>IF(G2 = "NULL", "NULL", G2*4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3D970AAB-8B27-4682-BF26-3B205E92F1D5}" name="16oz Net Wt (grams)" dataDxfId="12">
+    <tableColumn id="22" xr3:uid="{3D970AAB-8B27-4682-BF26-3B205E92F1D5}" name="16oz Net Wt (grams)" dataDxfId="7">
       <calculatedColumnFormula>IF(G2 = "NULL", "NULL", H2*4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{146F4FD5-A2F8-43EA-AE9E-88157D43E2DC}" name="2oz _x000a_Barcodes" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{862ED8C8-BF05-4CA9-AEFF-E4D1E98D8682}" name="NOTES" dataDxfId="10"/>
+    <tableColumn id="27" xr3:uid="{146F4FD5-A2F8-43EA-AE9E-88157D43E2DC}" name="2oz _x000a_Barcodes" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{862ED8C8-BF05-4CA9-AEFF-E4D1E98D8682}" name="NOTES" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7990,7 +7988,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8104,7 +8102,7 @@
         <v>25</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>26</v>
@@ -8405,7 +8403,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="E5" s="3">
         <f>IF(G5 = "NULL", "NULL", G5/2)</f>
@@ -8467,7 +8465,7 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="21" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W5" s="3">
         <f>IF(G5 = "NULL", "NULL", G5/4)</f>
@@ -8565,7 +8563,7 @@
         <v>43</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W6" s="3">
         <f>IF(G6 = "NULL", "NULL", G6/4)</f>
@@ -9523,7 +9521,7 @@
         <v>43</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W16" s="3">
         <f>IF(G16 = "NULL", "NULL", G16/4)</f>
@@ -9651,7 +9649,7 @@
         <v>86</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="E18" s="3">
         <f>IF(G18 = "NULL", "NULL", G18/2)</f>
@@ -9905,7 +9903,7 @@
         <v>43</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W20" s="3">
         <f>IF(G20 = "NULL", "NULL", G20/4)</f>
@@ -11275,7 +11273,7 @@
         <v>147</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="E35" s="3">
         <f>IF(G35 = "NULL", "NULL", G35/2)</f>
@@ -12100,7 +12098,7 @@
         <v>43</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W43" s="3">
         <f>IF(G43 = "NULL", "NULL", G43/4)</f>
@@ -12485,7 +12483,7 @@
         <v>43</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W47" s="3">
         <f>IF(G47 = "NULL", "NULL", G47/4)</f>
@@ -12614,7 +12612,7 @@
         <v>197</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="E49" s="3">
         <f>IF(G49 = "NULL", "NULL", G49/2)</f>
@@ -13068,7 +13066,7 @@
         <v>43</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W53" s="3">
         <f>IF(G53 = "NULL", "NULL", G53/4)</f>
@@ -13392,7 +13390,7 @@
         <v>229</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="E57" s="3">
         <f>IF(G57 = "NULL", "NULL", G57/2)</f>
@@ -13550,7 +13548,7 @@
         <v>43</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W58" s="3">
         <f>IF(G58 = "NULL", "NULL", G58/4)</f>
@@ -13744,7 +13742,7 @@
         <v>43</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W60" s="3">
         <f>IF(G60 = "NULL", "NULL", G60/4)</f>
@@ -13865,13 +13863,13 @@
     </row>
     <row r="62" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>34</v>
@@ -14329,7 +14327,7 @@
         <v>43</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W66" s="3">
         <f>IF(G66 = "NULL", "NULL", G66/4)</f>
@@ -14527,7 +14525,7 @@
         <v>43</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W68" s="3">
         <f>IF(G68 = "NULL", "NULL", G68/4)</f>
@@ -14749,7 +14747,7 @@
         <v>281</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="E71" s="3">
         <f>IF(G71 = "NULL", "NULL", G71/2)</f>
@@ -14907,7 +14905,7 @@
         <v>43</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W72" s="3">
         <f>IF(G72 = "NULL", "NULL", G72/4)</f>
@@ -15954,7 +15952,7 @@
         <v>43</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W83" s="3">
         <f>IF(G83 = "NULL", "NULL", G83/4)</f>
@@ -16564,7 +16562,7 @@
         <v>350</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="E90" s="3">
         <f>IF(G90 = "NULL", "NULL", G90/2)</f>
@@ -17014,7 +17012,7 @@
         <v>43</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W94" s="3">
         <f>IF(G94 = "NULL", "NULL", G94/4)</f>
@@ -17111,9 +17109,11 @@
       <c r="T95" s="6">
         <v>13000000092</v>
       </c>
-      <c r="U95" s="2"/>
+      <c r="U95" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="V95" s="1" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="W95" s="3">
         <f>IF(G95 = "NULL", "NULL", G95/4)</f>
@@ -18835,7 +18835,7 @@
         <v>43</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W113" s="3">
         <f>IF(G113 = "NULL", "NULL", G113/4)</f>
@@ -19920,16 +19920,16 @@
     </row>
     <row r="125" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A125" s="16" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="E125" s="3">
         <f>IF(G125 = "NULL", "NULL", G125/2)</f>
@@ -20015,7 +20015,7 @@
         <v>15000000485</v>
       </c>
       <c r="AB125" s="20" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="120" x14ac:dyDescent="0.3">
@@ -20666,7 +20666,7 @@
         <v>43</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="W132" s="3">
         <f>IF(G132 = "NULL", "NULL", G132/4)</f>
@@ -21180,7 +21180,7 @@
         <v>523</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="E138" s="3">
         <f>IF(G138 = "NULL", "NULL", G138/2)</f>
@@ -21270,10 +21270,10 @@
         <v>524</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>525</v>
@@ -21528,7 +21528,7 @@
         <v>43</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W141" s="3">
         <f>IF(G141 = "NULL", "NULL", G141/4)</f>
@@ -21626,7 +21626,7 @@
         <v>43</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W142" s="3">
         <f>IF(G142 = "NULL", "NULL", G142/4)</f>
@@ -21724,7 +21724,7 @@
         <v>43</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W143" s="3">
         <f>IF(G143 = "NULL", "NULL", G143/4)</f>
@@ -22392,7 +22392,7 @@
         <v>43</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W150" s="3">
         <f>IF(G150 = "NULL", "NULL", G150/4)</f>
@@ -22872,7 +22872,7 @@
         <v>43</v>
       </c>
       <c r="V155" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W155" s="3">
         <f>IF(G155 = "NULL", "NULL", G155/4)</f>
@@ -23066,7 +23066,7 @@
         <v>43</v>
       </c>
       <c r="V157" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W157" s="3">
         <f>IF(G157 = "NULL", "NULL", G157/4)</f>
@@ -23356,7 +23356,7 @@
         <v>43</v>
       </c>
       <c r="V160" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W160" s="3">
         <f>IF(G160 = "NULL", "NULL", G160/4)</f>
@@ -24702,7 +24702,7 @@
         <v>43</v>
       </c>
       <c r="V174" s="1" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W174" s="3">
         <f>IF(G174 = "NULL", "NULL", G174/4)</f>
@@ -24989,7 +24989,7 @@
         <v>43</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W177" s="3">
         <f>IF(G177 = "NULL", "NULL", G177/4)</f>
@@ -25282,7 +25282,7 @@
         <v>43</v>
       </c>
       <c r="V180" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W180" s="3">
         <f>IF(G180 = "NULL", "NULL", G180/4)</f>
@@ -25885,7 +25885,7 @@
         <v>709</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="E187" s="3">
         <f>IF(G187 = "NULL", "NULL", G187/2)</f>
@@ -26462,13 +26462,13 @@
         <v>797</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="E193" s="3">
         <f>IF(G193 = "NULL", "NULL", G193/2)</f>
@@ -26552,7 +26552,7 @@
         <v>15000000484</v>
       </c>
       <c r="AB193" s="20" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="194" spans="1:28" ht="45" x14ac:dyDescent="0.3">
@@ -26724,7 +26724,7 @@
         <v>43</v>
       </c>
       <c r="V195" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W195" s="3">
         <f>IF(G195 = "NULL", "NULL", G195/4)</f>
@@ -27586,7 +27586,7 @@
         <v>43</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W204" s="3">
         <f>IF(G204 = "NULL", "NULL", G204/4)</f>
@@ -28066,7 +28066,7 @@
         <v>43</v>
       </c>
       <c r="V209" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W209" s="3">
         <f>IF(G209 = "NULL", "NULL", G209/4)</f>
@@ -28574,7 +28574,7 @@
         <v>812</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="E215" s="3">
         <f>IF(G215 = "NULL", "NULL", G215/2)</f>
@@ -28634,9 +28634,11 @@
       <c r="T215" s="6">
         <v>13000000207</v>
       </c>
-      <c r="U215" s="2"/>
+      <c r="U215" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="V215" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W215" s="3">
         <f>IF(G215 = "NULL", "NULL", G215/4)</f>
@@ -28736,7 +28738,7 @@
         <v>43</v>
       </c>
       <c r="V216" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W216" s="3">
         <f>IF(G216 = "NULL", "NULL", G216/4)</f>
@@ -29600,7 +29602,7 @@
         <v>43</v>
       </c>
       <c r="V225" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W225" s="3">
         <f>IF(G225 = "NULL", "NULL", G225/4)</f>
@@ -29634,7 +29636,7 @@
         <v>851</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="E226" s="3">
         <f>IF(G226 = "NULL", "NULL", G226/2)</f>
@@ -30080,7 +30082,7 @@
       </c>
       <c r="U230" s="2"/>
       <c r="V230" s="21" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W230" s="3">
         <f>IF(G230 = "NULL", "NULL", G230/4)</f>
@@ -30178,7 +30180,7 @@
       </c>
       <c r="U231" s="2"/>
       <c r="V231" s="21" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W231" s="3">
         <f>IF(G231 = "NULL", "NULL", G231/4)</f>
@@ -30372,7 +30374,7 @@
         <v>43</v>
       </c>
       <c r="V233" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W233" s="3">
         <f>IF(G233 = "NULL", "NULL", G233/4)</f>
@@ -31165,7 +31167,7 @@
         <v>910</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="E242" s="3">
         <f>IF(G242 = "NULL", "NULL", G242/2)</f>
@@ -31352,16 +31354,16 @@
     </row>
     <row r="244" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A244" s="16" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="E244" s="3">
         <f>IF(G244 = "NULL", "NULL", G244/2)</f>
@@ -31457,7 +31459,7 @@
         <v>918</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="E245" s="3">
         <f>IF(G245 = "NULL", "NULL", G245/2)</f>
@@ -31555,7 +31557,7 @@
         <v>921</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="E246" s="3">
         <f>IF(G246 = "NULL", "NULL", G246/2)</f>
@@ -31615,9 +31617,7 @@
       <c r="T246" s="6">
         <v>13000000237</v>
       </c>
-      <c r="U246" s="2" t="s">
-        <v>922</v>
-      </c>
+      <c r="U246" s="2"/>
       <c r="V246" s="1" t="s">
         <v>915</v>
       </c>
@@ -31644,16 +31644,16 @@
     </row>
     <row r="247" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A247" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="D247" s="23" t="s">
         <v>925</v>
-      </c>
-      <c r="D247" s="23" t="s">
-        <v>926</v>
       </c>
       <c r="E247" s="3">
         <f>IF(G247 = "NULL", "NULL", G247/2)</f>
@@ -31738,16 +31738,16 @@
     </row>
     <row r="248" spans="1:28" ht="180" x14ac:dyDescent="0.3">
       <c r="A248" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="D248" s="23" t="s">
         <v>929</v>
-      </c>
-      <c r="D248" s="23" t="s">
-        <v>930</v>
       </c>
       <c r="E248" s="3">
         <f>IF(G248 = "NULL", "NULL", G248/2)</f>
@@ -31834,16 +31834,16 @@
     </row>
     <row r="249" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A249" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="D249" s="23" t="s">
         <v>933</v>
-      </c>
-      <c r="D249" s="23" t="s">
-        <v>934</v>
       </c>
       <c r="E249" s="3">
         <f>IF(G249 = "NULL", "NULL", G249/2)</f>
@@ -31930,16 +31930,16 @@
     </row>
     <row r="250" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A250" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="D250" s="23" t="s">
         <v>937</v>
-      </c>
-      <c r="D250" s="23" t="s">
-        <v>938</v>
       </c>
       <c r="E250" s="3">
         <f>IF(G250 = "NULL", "NULL", G250/2)</f>
@@ -32024,16 +32024,16 @@
     </row>
     <row r="251" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A251" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>941</v>
-      </c>
       <c r="D251" s="23" t="s">
-        <v>942</v>
+        <v>1891</v>
       </c>
       <c r="E251" s="3">
         <f>IF(G251 = "NULL", "NULL", G251/2)</f>
@@ -32069,7 +32069,7 @@
       <c r="M251" s="1" t="str">
         <f>CONCATENATE(D251, CHAR(10), " - NET WT. ", E251, " oz (", F251, " grams)")</f>
         <v>Lime Sea Salt Ingredients:
-sea salt, lime juice, key limes
+sea salt &amp; lime powder
  - NET WT. 1.95 oz (55.2825 grams)</v>
       </c>
       <c r="N251" s="6">
@@ -32093,9 +32093,11 @@
       <c r="T251" s="6">
         <v>13000000242</v>
       </c>
-      <c r="U251" s="2"/>
+      <c r="U251" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="V251" s="1" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="W251" s="3">
         <f>IF(G251 = "NULL", "NULL", G251/4)</f>
@@ -32120,16 +32122,16 @@
     </row>
     <row r="252" spans="1:28" ht="195" x14ac:dyDescent="0.3">
       <c r="A252" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="D252" s="23" t="s">
         <v>944</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="D252" s="23" t="s">
-        <v>946</v>
       </c>
       <c r="E252" s="3">
         <f>IF(G252 = "NULL", "NULL", G252/2)</f>
@@ -32216,16 +32218,16 @@
     </row>
     <row r="253" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A253" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="D253" s="23" t="s">
         <v>948</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="D253" s="23" t="s">
-        <v>950</v>
       </c>
       <c r="E253" s="3">
         <f>IF(G253 = "NULL", "NULL", G253/2)</f>
@@ -32307,21 +32309,21 @@
         <v>15000000196</v>
       </c>
       <c r="AB253" s="20" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="254" spans="1:28" ht="165" x14ac:dyDescent="0.3">
       <c r="A254" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="D254" s="23" t="s">
         <v>953</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="D254" s="23" t="s">
-        <v>955</v>
       </c>
       <c r="E254" s="3">
         <f>IF(G254 = "NULL", "NULL", G254/2)</f>
@@ -32406,16 +32408,16 @@
     </row>
     <row r="255" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A255" s="16" t="s">
+        <v>954</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="D255" s="23" t="s">
         <v>957</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="D255" s="23" t="s">
-        <v>959</v>
       </c>
       <c r="E255" s="3">
         <f>IF(G255 = "NULL", "NULL", G255/2)</f>
@@ -32500,16 +32502,16 @@
     </row>
     <row r="256" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A256" s="16" t="s">
+        <v>958</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="D256" s="23" t="s">
         <v>961</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="D256" s="23" t="s">
-        <v>963</v>
       </c>
       <c r="E256" s="3">
         <f>IF(G256 = "NULL", "NULL", G256/2)</f>
@@ -32599,13 +32601,13 @@
     </row>
     <row r="257" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A257" s="16" t="s">
+        <v>962</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>34</v>
@@ -32692,16 +32694,16 @@
     </row>
     <row r="258" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A258" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="D258" s="23" t="s">
         <v>967</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="D258" s="23" t="s">
-        <v>969</v>
       </c>
       <c r="E258" s="3">
         <f>IF(G258 = "NULL", "NULL", G258/2)</f>
@@ -32765,7 +32767,7 @@
         <v>43</v>
       </c>
       <c r="V258" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W258" s="3">
         <f>IF(G258 = "NULL", "NULL", G258/4)</f>
@@ -32790,16 +32792,16 @@
     </row>
     <row r="259" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A259" s="16" t="s">
+        <v>968</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="D259" s="23" t="s">
         <v>971</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="D259" s="23" t="s">
-        <v>973</v>
       </c>
       <c r="E259" s="3">
         <f>IF(G259 = "NULL", "NULL", G259/2)</f>
@@ -32885,16 +32887,16 @@
     </row>
     <row r="260" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A260" s="16" t="s">
+        <v>972</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="D260" s="23" t="s">
         <v>975</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="D260" s="23" t="s">
-        <v>977</v>
       </c>
       <c r="E260" s="3">
         <f>IF(G260 = "NULL", "NULL", G260/2)</f>
@@ -32979,16 +32981,16 @@
     </row>
     <row r="261" spans="1:28" ht="225" x14ac:dyDescent="0.3">
       <c r="A261" s="16" t="s">
+        <v>976</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="D261" s="23" t="s">
         <v>979</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="D261" s="23" t="s">
-        <v>981</v>
       </c>
       <c r="E261" s="3">
         <f>IF(G261 = "NULL", "NULL", G261/2)</f>
@@ -33072,18 +33074,18 @@
         <v>15000000462</v>
       </c>
       <c r="AB261" s="20" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="262" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A262" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>34</v>
@@ -33147,7 +33149,7 @@
       </c>
       <c r="U262" s="2"/>
       <c r="V262" s="1" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="W262" s="3">
         <f>IF(G262 = "NULL", "NULL", G262/4)</f>
@@ -33172,16 +33174,16 @@
     </row>
     <row r="263" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A263" s="16" t="s">
+        <v>984</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="D263" s="23" t="s">
         <v>987</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="D263" s="23" t="s">
-        <v>989</v>
       </c>
       <c r="E263" s="3">
         <f>IF(G263 = "NULL", "NULL", G263/2)</f>
@@ -33270,16 +33272,16 @@
     </row>
     <row r="264" spans="1:28" ht="135" x14ac:dyDescent="0.3">
       <c r="A264" s="16" t="s">
+        <v>988</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="D264" s="23" t="s">
         <v>991</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="D264" s="23" t="s">
-        <v>993</v>
       </c>
       <c r="E264" s="3">
         <f>IF(G264 = "NULL", "NULL", G264/2)</f>
@@ -33369,16 +33371,16 @@
     </row>
     <row r="265" spans="1:28" ht="135" x14ac:dyDescent="0.3">
       <c r="A265" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D265" s="23" t="s">
         <v>994</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="D265" s="23" t="s">
-        <v>996</v>
       </c>
       <c r="E265" s="3">
         <f>IF(G265 = "NULL", "NULL", G265/2)</f>
@@ -33465,21 +33467,21 @@
         <v>15000000442</v>
       </c>
       <c r="AB265" s="20" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="266" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A266" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="D266" s="23" t="s">
         <v>999</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D266" s="23" t="s">
-        <v>1001</v>
       </c>
       <c r="E266" s="3">
         <f>IF(G266 = "NULL", "NULL", G266/2)</f>
@@ -33564,16 +33566,16 @@
     </row>
     <row r="267" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A267" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="D267" s="23" t="s">
         <v>1003</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>1005</v>
       </c>
       <c r="E267" s="3">
         <f>IF(G267 = "NULL", "NULL", G267/2)</f>
@@ -33637,7 +33639,7 @@
         <v>43</v>
       </c>
       <c r="V267" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W267" s="3">
         <f>IF(G267 = "NULL", "NULL", G267/4)</f>
@@ -33662,16 +33664,16 @@
     </row>
     <row r="268" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A268" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="D268" s="23" t="s">
         <v>1007</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>1009</v>
       </c>
       <c r="E268" s="3">
         <f>IF(G268 = "NULL", "NULL", G268/2)</f>
@@ -33756,16 +33758,16 @@
     </row>
     <row r="269" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A269" s="16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="D269" s="23" t="s">
         <v>1011</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D269" s="23" t="s">
-        <v>1013</v>
       </c>
       <c r="E269" s="3">
         <f>IF(G269 = "NULL", "NULL", G269/2)</f>
@@ -33850,16 +33852,16 @@
     </row>
     <row r="270" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A270" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="D270" s="23" t="s">
         <v>1015</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D270" s="23" t="s">
-        <v>1017</v>
       </c>
       <c r="E270" s="3">
         <f>IF(G270 = "NULL", "NULL", G270/2)</f>
@@ -33944,16 +33946,16 @@
     </row>
     <row r="271" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A271" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D271" s="23" t="s">
         <v>1018</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D271" s="23" t="s">
-        <v>1020</v>
       </c>
       <c r="E271" s="3">
         <f>IF(G271 = "NULL", "NULL", G271/2)</f>
@@ -34038,16 +34040,16 @@
     </row>
     <row r="272" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A272" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D272" s="23" t="s">
         <v>1021</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>1023</v>
       </c>
       <c r="E272" s="3">
         <f>IF(G272 = "NULL", "NULL", G272/2)</f>
@@ -34132,16 +34134,16 @@
     </row>
     <row r="273" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A273" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D273" s="23" t="s">
         <v>1024</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D273" s="23" t="s">
-        <v>1026</v>
       </c>
       <c r="E273" s="3">
         <f>IF(G273 = "NULL", "NULL", G273/2)</f>
@@ -34223,21 +34225,21 @@
         <v>15000000422</v>
       </c>
       <c r="AB273" s="20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="274" spans="1:28" ht="210" x14ac:dyDescent="0.3">
       <c r="A274" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="D274" s="23" t="s">
         <v>1029</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>1031</v>
       </c>
       <c r="E274" s="3">
         <f>IF(G274 = "NULL", "NULL", G274/2)</f>
@@ -34324,16 +34326,16 @@
     </row>
     <row r="275" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A275" s="16" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="E275" s="3">
         <f>IF(G275 = "NULL", "NULL", G275/2)</f>
@@ -34418,16 +34420,16 @@
     </row>
     <row r="276" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A276" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="D276" s="23" t="s">
         <v>1035</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>1037</v>
       </c>
       <c r="E276" s="3">
         <f>IF(G276 = "NULL", "NULL", G276/2)</f>
@@ -34517,16 +34519,16 @@
     </row>
     <row r="277" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A277" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="D277" s="23" t="s">
         <v>1039</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D277" s="23" t="s">
-        <v>1041</v>
       </c>
       <c r="E277" s="3">
         <f>IF(G277 = "NULL", "NULL", G277/2)</f>
@@ -34590,7 +34592,7 @@
         <v>43</v>
       </c>
       <c r="V277" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W277" s="3">
         <f>IF(G277 = "NULL", "NULL", G277/4)</f>
@@ -34615,16 +34617,16 @@
     </row>
     <row r="278" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A278" s="16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D278" s="23" t="s">
         <v>1042</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D278" s="23" t="s">
-        <v>1044</v>
       </c>
       <c r="E278" s="3">
         <f>IF(G278 = "NULL", "NULL", G278/2)</f>
@@ -34711,21 +34713,21 @@
         <v>15000000463</v>
       </c>
       <c r="AB278" s="20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="279" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A279" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="D279" s="23" t="s">
         <v>1047</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>1049</v>
       </c>
       <c r="E279" s="3">
         <f>IF(G279 = "NULL", "NULL", G279/2)</f>
@@ -34807,21 +34809,21 @@
         <v>15000000432</v>
       </c>
       <c r="AB279" s="20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="280" spans="1:28" ht="135" x14ac:dyDescent="0.3">
       <c r="A280" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="D280" s="23" t="s">
         <v>1052</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D280" s="23" t="s">
-        <v>1054</v>
       </c>
       <c r="E280" s="3">
         <f>IF(G280 = "NULL", "NULL", G280/2)</f>
@@ -34911,16 +34913,16 @@
     </row>
     <row r="281" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A281" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D281" s="23" t="s">
         <v>1055</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>1057</v>
       </c>
       <c r="E281" s="3">
         <f>IF(G281 = "NULL", "NULL", G281/2)</f>
@@ -35007,16 +35009,16 @@
     </row>
     <row r="282" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A282" s="16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="D282" s="23" t="s">
         <v>1059</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>1061</v>
       </c>
       <c r="E282" s="3">
         <f>IF(G282 = "NULL", "NULL", G282/2)</f>
@@ -35101,16 +35103,16 @@
     </row>
     <row r="283" spans="1:28" ht="135" x14ac:dyDescent="0.3">
       <c r="A283" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="D283" s="23" t="s">
         <v>1063</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>1065</v>
       </c>
       <c r="E283" s="3">
         <f>IF(G283 = "NULL", "NULL", G283/2)</f>
@@ -35198,16 +35200,16 @@
     </row>
     <row r="284" spans="1:28" ht="135" x14ac:dyDescent="0.3">
       <c r="A284" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="D284" s="23" t="s">
         <v>1067</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>1069</v>
       </c>
       <c r="E284" s="3">
         <f>IF(G284 = "NULL", "NULL", G284/2)</f>
@@ -35297,16 +35299,16 @@
     </row>
     <row r="285" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A285" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="D285" s="23" t="s">
         <v>1071</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D285" s="23" t="s">
-        <v>1073</v>
       </c>
       <c r="E285" s="3">
         <f>IF(G285 = "NULL", "NULL", G285/2)</f>
@@ -35391,16 +35393,16 @@
     </row>
     <row r="286" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A286" s="16" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="D286" s="23" t="s">
         <v>1075</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>1077</v>
       </c>
       <c r="E286" s="3">
         <f>IF(G286 = "NULL", "NULL", G286/2)</f>
@@ -35486,16 +35488,16 @@
     </row>
     <row r="287" spans="1:28" ht="165" x14ac:dyDescent="0.3">
       <c r="A287" s="16" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="D287" s="23" t="s">
         <v>1079</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>1081</v>
       </c>
       <c r="E287" s="3">
         <f>IF(G287 = "NULL", "NULL", G287/2)</f>
@@ -35577,21 +35579,21 @@
         <v>15000000443</v>
       </c>
       <c r="AB287" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="288" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A288" s="16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="D288" s="23" t="s">
         <v>1084</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>1086</v>
       </c>
       <c r="E288" s="3">
         <f>IF(G288 = "NULL", "NULL", G288/2)</f>
@@ -35678,16 +35680,16 @@
     </row>
     <row r="289" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A289" s="16" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>1089</v>
-      </c>
       <c r="D289" s="1" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="E289" s="3">
         <f>IF(G289 = "NULL", "NULL", G289/2)</f>
@@ -35772,16 +35774,16 @@
     </row>
     <row r="290" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A290" s="16" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="D290" s="23" t="s">
         <v>1091</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>1093</v>
       </c>
       <c r="E290" s="3">
         <f>IF(G290 = "NULL", "NULL", G290/2)</f>
@@ -35863,21 +35865,21 @@
         <v>15000000401</v>
       </c>
       <c r="AB290" s="20" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="291" spans="1:28" ht="165" x14ac:dyDescent="0.3">
       <c r="A291" s="16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D291" s="23" t="s">
         <v>1095</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D291" s="23" t="s">
-        <v>1097</v>
       </c>
       <c r="E291" s="3">
         <f>IF(G291 = "NULL", "NULL", G291/2)</f>
@@ -35959,21 +35961,21 @@
         <v>15000000434</v>
       </c>
       <c r="AB291" s="20" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="292" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A292" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="D292" s="23" t="s">
         <v>1100</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D292" s="23" t="s">
-        <v>1102</v>
       </c>
       <c r="E292" s="3">
         <f>IF(G292 = "NULL", "NULL", G292/2)</f>
@@ -36058,16 +36060,16 @@
     </row>
     <row r="293" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A293" s="16" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="D293" s="23" t="s">
         <v>1104</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D293" s="23" t="s">
-        <v>1106</v>
       </c>
       <c r="E293" s="3">
         <f>IF(G293 = "NULL", "NULL", G293/2)</f>
@@ -36152,16 +36154,16 @@
     </row>
     <row r="294" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A294" s="16" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D294" s="23" t="s">
         <v>1107</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D294" s="23" t="s">
-        <v>1109</v>
       </c>
       <c r="E294" s="3">
         <f>IF(G294 = "NULL", "NULL", G294/2)</f>
@@ -36246,16 +36248,16 @@
     </row>
     <row r="295" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A295" s="16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="D295" s="23" t="s">
         <v>1111</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D295" s="23" t="s">
-        <v>1113</v>
       </c>
       <c r="E295" s="3">
         <f>IF(G295 = "NULL", "NULL", G295/2)</f>
@@ -36319,7 +36321,7 @@
         <v>43</v>
       </c>
       <c r="V295" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W295" s="3">
         <f>IF(G295 = "NULL", "NULL", G295/4)</f>
@@ -36344,16 +36346,16 @@
     </row>
     <row r="296" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A296" s="16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D296" s="23" t="s">
         <v>1114</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D296" s="23" t="s">
-        <v>1116</v>
       </c>
       <c r="E296" s="3">
         <f>IF(G296 = "NULL", "NULL", G296/2)</f>
@@ -36438,16 +36440,16 @@
     </row>
     <row r="297" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A297" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D297" s="23" t="s">
         <v>1117</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D297" s="23" t="s">
-        <v>1119</v>
       </c>
       <c r="E297" s="3">
         <f>IF(G297 = "NULL", "NULL", G297/2)</f>
@@ -36532,16 +36534,16 @@
     </row>
     <row r="298" spans="1:28" ht="225" x14ac:dyDescent="0.3">
       <c r="A298" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>1122</v>
-      </c>
       <c r="D298" s="23" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="E298" s="3">
         <f>IF(G298 = "NULL", "NULL", G298/2)</f>
@@ -36632,16 +36634,16 @@
     </row>
     <row r="299" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A299" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="D299" s="23" t="s">
         <v>1124</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D299" s="23" t="s">
-        <v>1126</v>
       </c>
       <c r="E299" s="3">
         <f>IF(G299 = "NULL", "NULL", G299/2)</f>
@@ -36726,16 +36728,16 @@
     </row>
     <row r="300" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A300" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D300" s="23" t="s">
         <v>1127</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D300" s="23" t="s">
-        <v>1129</v>
       </c>
       <c r="E300" s="3">
         <f>IF(G300 = "NULL", "NULL", G300/2)</f>
@@ -36799,7 +36801,7 @@
         <v>43</v>
       </c>
       <c r="V300" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W300" s="3">
         <f>IF(G300 = "NULL", "NULL", G300/4)</f>
@@ -36824,16 +36826,16 @@
     </row>
     <row r="301" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A301" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="D301" s="23" t="s">
         <v>1131</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D301" s="23" t="s">
-        <v>1133</v>
       </c>
       <c r="E301" s="3">
         <f>IF(G301 = "NULL", "NULL", G301/2)</f>
@@ -36918,16 +36920,16 @@
     </row>
     <row r="302" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A302" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>1136</v>
-      </c>
       <c r="D302" s="23" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="E302" s="3">
         <f>IF(G302 = "NULL", "NULL", G302/2)</f>
@@ -36991,7 +36993,7 @@
         <v>43</v>
       </c>
       <c r="V302" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="W302" s="3">
         <f>IF(G302 = "NULL", "NULL", G302/4)</f>
@@ -37018,16 +37020,16 @@
     </row>
     <row r="303" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A303" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="D303" s="23" t="s">
         <v>1139</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D303" s="23" t="s">
-        <v>1141</v>
       </c>
       <c r="E303" s="3">
         <f>IF(G303 = "NULL", "NULL", G303/2)</f>
@@ -37112,16 +37114,16 @@
     </row>
     <row r="304" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A304" s="16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="D304" s="23" t="s">
         <v>1143</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D304" s="23" t="s">
-        <v>1145</v>
       </c>
       <c r="E304" s="3">
         <f>IF(G304 = "NULL", "NULL", G304/2)</f>
@@ -37206,16 +37208,16 @@
     </row>
     <row r="305" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A305" s="16" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D305" s="23" t="s">
         <v>1146</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D305" s="23" t="s">
-        <v>1148</v>
       </c>
       <c r="E305" s="3">
         <f>IF(G305 = "NULL", "NULL", G305/2)</f>
@@ -37300,16 +37302,16 @@
     </row>
     <row r="306" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A306" s="16" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="D306" s="23" t="s">
         <v>1150</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D306" s="23" t="s">
-        <v>1152</v>
       </c>
       <c r="E306" s="3">
         <f>IF(G306 = "NULL", "NULL", G306/2)</f>
@@ -37397,16 +37399,16 @@
     </row>
     <row r="307" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A307" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="D307" s="23" t="s">
         <v>1154</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D307" s="23" t="s">
-        <v>1156</v>
       </c>
       <c r="E307" s="3">
         <f>IF(G307 = "NULL", "NULL", G307/2)</f>
@@ -37489,21 +37491,21 @@
         <v>15000000396</v>
       </c>
       <c r="AB307" s="20" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="308" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A308" s="16" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D308" s="23" t="s">
         <v>1158</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D308" s="23" t="s">
-        <v>1160</v>
       </c>
       <c r="E308" s="3">
         <f>IF(G308 = "NULL", "NULL", G308/2)</f>
@@ -37588,21 +37590,21 @@
         <v>15000000444</v>
       </c>
       <c r="AB308" s="20" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="309" spans="1:28" ht="120" x14ac:dyDescent="0.3">
+      <c r="A309" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="309" spans="1:28" ht="90" x14ac:dyDescent="0.3">
-      <c r="A309" s="16" t="s">
+      <c r="C309" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>1164</v>
-      </c>
       <c r="D309" s="23" t="s">
-        <v>1165</v>
+        <v>1893</v>
       </c>
       <c r="E309" s="3">
         <f>IF(G309 = "NULL", "NULL", G309/2)</f>
@@ -37638,8 +37640,9 @@
       <c r="M309" s="1" t="str">
         <f>CONCATENATE(D309, CHAR(10), " - NET WT. ", E309, " oz (", F309, " grams)")</f>
         <v>Parmesan Cheese Powder Ingredients:
-dehydrated parmesan cheese (part-skim milk, cheese culture, salt, enzymes) whey buttermilk solids, sodium phosphate
+dehydrated parmesan cheese (part-skim milk, cheese culture, salt, enzymes), whey, buttermilk solids, sodium phosphate, and salt
 • ALLERGY ALERT: contains milk •
+• Packaged in a facility that also handles wheat, milk, soy, egg, sesame, peanuts, and tree nuts •
  - NET WT. 1.1 oz (31.185 grams)</v>
       </c>
       <c r="N309" s="6">
@@ -37663,9 +37666,11 @@
       <c r="T309" s="6">
         <v>13000000298</v>
       </c>
-      <c r="U309" s="2"/>
+      <c r="U309" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="V309" s="1" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="W309" s="3">
         <f>IF(G309 = "NULL", "NULL", G309/4)</f>
@@ -37690,16 +37695,16 @@
     </row>
     <row r="310" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A310" s="16" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D310" s="23" t="s">
         <v>1166</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D310" s="23" t="s">
-        <v>1169</v>
       </c>
       <c r="E310" s="3">
         <f>IF(G310 = "NULL", "NULL", G310/2)</f>
@@ -37764,7 +37769,7 @@
         <v>43</v>
       </c>
       <c r="V310" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="W310" s="3">
         <f>IF(G310 = "NULL", "NULL", G310/4)</f>
@@ -37789,16 +37794,16 @@
     </row>
     <row r="311" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A311" s="16" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E311" s="3">
         <f>IF(G311 = "NULL", "NULL", G311/2)</f>
@@ -37883,16 +37888,16 @@
     </row>
     <row r="312" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A312" s="16" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E312" s="3">
         <f>IF(G312 = "NULL", "NULL", G312/2)</f>
@@ -37956,7 +37961,7 @@
         <v>43</v>
       </c>
       <c r="V312" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W312" s="3">
         <f>IF(G312 = "NULL", "NULL", G312/4)</f>
@@ -37981,13 +37986,13 @@
     </row>
     <row r="313" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A313" s="16" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>34</v>
@@ -38074,16 +38079,16 @@
     </row>
     <row r="314" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A314" s="16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D314" s="23" t="s">
         <v>1180</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D314" s="23" t="s">
-        <v>1183</v>
       </c>
       <c r="E314" s="3">
         <f>IF(G314 = "NULL", "NULL", G314/2)</f>
@@ -38168,16 +38173,16 @@
     </row>
     <row r="315" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A315" s="16" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D315" s="23" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E315" s="3">
         <f>IF(G315 = "NULL", "NULL", G315/2)</f>
@@ -38262,16 +38267,16 @@
     </row>
     <row r="316" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A316" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D316" s="23" t="s">
         <v>1187</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D316" s="23" t="s">
-        <v>1190</v>
       </c>
       <c r="E316" s="3">
         <f>IF(G316 = "NULL", "NULL", G316/2)</f>
@@ -38335,7 +38340,7 @@
         <v>43</v>
       </c>
       <c r="V316" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W316" s="3">
         <f>IF(G316 = "NULL", "NULL", G316/4)</f>
@@ -38357,21 +38362,21 @@
         <v>15000000416</v>
       </c>
       <c r="AB316" s="20" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="317" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A317" s="16" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D317" s="23" t="s">
         <v>1192</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D317" s="23" t="s">
-        <v>1195</v>
       </c>
       <c r="E317" s="3">
         <f>IF(G317 = "NULL", "NULL", G317/2)</f>
@@ -38456,13 +38461,13 @@
     </row>
     <row r="318" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A318" s="16" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>34</v>
@@ -38549,16 +38554,16 @@
     </row>
     <row r="319" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A319" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D319" s="23" t="s">
         <v>1199</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D319" s="23" t="s">
-        <v>1202</v>
       </c>
       <c r="E319" s="3">
         <f>IF(G319 = "NULL", "NULL", G319/2)</f>
@@ -38649,16 +38654,16 @@
     </row>
     <row r="320" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A320" s="16" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D320" s="23" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E320" s="3">
         <f>IF(G320 = "NULL", "NULL", G320/2)</f>
@@ -38746,21 +38751,21 @@
         <v>15000000445</v>
       </c>
       <c r="AB320" s="20" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="321" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A321" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D321" s="23" t="s">
         <v>1207</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D321" s="23" t="s">
-        <v>1210</v>
       </c>
       <c r="E321" s="3">
         <f>IF(G321 = "NULL", "NULL", G321/2)</f>
@@ -38824,7 +38829,7 @@
         <v>43</v>
       </c>
       <c r="V321" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="W321" s="3">
         <f>IF(G321 = "NULL", "NULL", G321/4)</f>
@@ -38851,16 +38856,16 @@
     </row>
     <row r="322" spans="1:28" ht="210" x14ac:dyDescent="0.3">
       <c r="A322" s="16" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D322" s="23" t="s">
         <v>1212</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D322" s="23" t="s">
-        <v>1215</v>
       </c>
       <c r="E322" s="3">
         <f>IF(G322 = "NULL", "NULL", G322/2)</f>
@@ -38948,16 +38953,16 @@
     </row>
     <row r="323" spans="1:28" ht="210" x14ac:dyDescent="0.3">
       <c r="A323" s="16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D323" s="23" t="s">
         <v>1216</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D323" s="23" t="s">
-        <v>1219</v>
       </c>
       <c r="E323" s="3">
         <f>IF(G323 = "NULL", "NULL", G323/2)</f>
@@ -39044,16 +39049,16 @@
     </row>
     <row r="324" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A324" s="16" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D324" s="23" t="s">
         <v>1220</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D324" s="23" t="s">
-        <v>1223</v>
       </c>
       <c r="E324" s="3">
         <f>IF(G324 = "NULL", "NULL", G324/2)</f>
@@ -39138,16 +39143,16 @@
     </row>
     <row r="325" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A325" s="16" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D325" s="23" t="s">
         <v>1224</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D325" s="23" t="s">
-        <v>1227</v>
       </c>
       <c r="E325" s="3">
         <f>IF(G325 = "NULL", "NULL", G325/2)</f>
@@ -39234,16 +39239,16 @@
     </row>
     <row r="326" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A326" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D326" s="23" t="s">
         <v>1228</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D326" s="23" t="s">
-        <v>1231</v>
       </c>
       <c r="E326" s="3">
         <f>IF(G326 = "NULL", "NULL", G326/2)</f>
@@ -39328,16 +39333,16 @@
     </row>
     <row r="327" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A327" s="16" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D327" s="23" t="s">
         <v>1232</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D327" s="23" t="s">
-        <v>1235</v>
       </c>
       <c r="E327" s="3">
         <f>IF(G327 = "NULL", "NULL", G327/2)</f>
@@ -39424,16 +39429,16 @@
     </row>
     <row r="328" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A328" s="16" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D328" s="23" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E328" s="3">
         <f>IF(G328 = "NULL", "NULL", G328/2)</f>
@@ -39495,7 +39500,7 @@
       </c>
       <c r="U328" s="2"/>
       <c r="V328" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W328" s="3">
         <f>IF(G328 = "NULL", "NULL", G328/4)</f>
@@ -39520,16 +39525,16 @@
     </row>
     <row r="329" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A329" s="16" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D329" s="23" t="s">
         <v>1239</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D329" s="23" t="s">
-        <v>1242</v>
       </c>
       <c r="E329" s="3">
         <f>IF(G329 = "NULL", "NULL", G329/2)</f>
@@ -39618,16 +39623,16 @@
     </row>
     <row r="330" spans="1:28" ht="195" x14ac:dyDescent="0.3">
       <c r="A330" s="16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D330" s="23" t="s">
         <v>1243</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D330" s="23" t="s">
-        <v>1246</v>
       </c>
       <c r="E330" s="3">
         <f>IF(G330 = "NULL", "NULL", G330/2)</f>
@@ -39718,16 +39723,16 @@
     </row>
     <row r="331" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A331" s="16" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D331" s="23" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="E331" s="3">
         <f>IF(G331 = "NULL", "NULL", G331/2)</f>
@@ -39791,7 +39796,7 @@
         <v>43</v>
       </c>
       <c r="V331" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W331" s="3">
         <f>IF(G331 = "NULL", "NULL", G331/4)</f>
@@ -39816,16 +39821,16 @@
     </row>
     <row r="332" spans="1:28" ht="210" x14ac:dyDescent="0.3">
       <c r="A332" s="16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D332" s="23" t="s">
         <v>1250</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D332" s="23" t="s">
-        <v>1253</v>
       </c>
       <c r="E332" s="3">
         <f>IF(G332 = "NULL", "NULL", G332/2)</f>
@@ -39912,13 +39917,13 @@
     </row>
     <row r="333" spans="1:28" ht="30" x14ac:dyDescent="0.3">
       <c r="A333" s="16" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>34</v>
@@ -40002,21 +40007,21 @@
         <v>15000000252</v>
       </c>
       <c r="AB333" s="20" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="334" spans="1:28" ht="225" x14ac:dyDescent="0.3">
       <c r="A334" s="16" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D334" s="23" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E334" s="3">
         <f>IF(G334 = "NULL", "NULL", G334/2)</f>
@@ -40105,16 +40110,16 @@
     </row>
     <row r="335" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A335" s="16" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D335" s="23" t="s">
         <v>1259</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D335" s="23" t="s">
-        <v>1262</v>
       </c>
       <c r="E335" s="3">
         <f>IF(G335 = "NULL", "NULL", G335/2)</f>
@@ -40178,7 +40183,7 @@
         <v>43</v>
       </c>
       <c r="V335" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="W335" s="3">
         <f>IF(G335 = "NULL", "NULL", G335/4)</f>
@@ -40203,16 +40208,16 @@
     </row>
     <row r="336" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A336" s="16" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D336" s="23" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E336" s="3">
         <f>IF(G336 = "NULL", "NULL", G336/2)</f>
@@ -40297,13 +40302,13 @@
     </row>
     <row r="337" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A337" s="16" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>34</v>
@@ -40390,13 +40395,13 @@
     </row>
     <row r="338" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A338" s="16" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>34</v>
@@ -40483,16 +40488,16 @@
     </row>
     <row r="339" spans="1:28" ht="180" x14ac:dyDescent="0.3">
       <c r="A339" s="16" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D339" s="23" t="s">
         <v>1273</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D339" s="23" t="s">
-        <v>1276</v>
       </c>
       <c r="E339" s="3">
         <f>IF(G339 = "NULL", "NULL", G339/2)</f>
@@ -40579,16 +40584,16 @@
     </row>
     <row r="340" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A340" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D340" s="23" t="s">
         <v>1277</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D340" s="23" t="s">
-        <v>1280</v>
       </c>
       <c r="E340" s="3">
         <f>IF(G340 = "NULL", "NULL", G340/2)</f>
@@ -40675,16 +40680,16 @@
     </row>
     <row r="341" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A341" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D341" s="23" t="s">
         <v>1281</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D341" s="23" t="s">
-        <v>1284</v>
       </c>
       <c r="E341" s="3">
         <f>IF(G341 = "NULL", "NULL", G341/2)</f>
@@ -40771,16 +40776,16 @@
     </row>
     <row r="342" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A342" s="16" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D342" s="23" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E342" s="3">
         <f>IF(G342 = "NULL", "NULL", G342/2)</f>
@@ -40862,21 +40867,21 @@
         <v>15000000464</v>
       </c>
       <c r="AB342" s="20" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="343" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A343" s="16" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D343" s="23" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E343" s="3">
         <f>IF(G343 = "NULL", "NULL", G343/2)</f>
@@ -40961,16 +40966,16 @@
     </row>
     <row r="344" spans="1:28" ht="405" x14ac:dyDescent="0.3">
       <c r="A344" s="16" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D344" s="23" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="E344" s="3">
         <f>IF(G344 = "NULL", "NULL", G344/2)</f>
@@ -41056,16 +41061,16 @@
     </row>
     <row r="345" spans="1:28" ht="135" x14ac:dyDescent="0.3">
       <c r="A345" s="16" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D345" s="23" t="s">
         <v>1295</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D345" s="23" t="s">
-        <v>1298</v>
       </c>
       <c r="E345" s="3">
         <f>IF(G345 = "NULL", "NULL", G345/2)</f>
@@ -41155,16 +41160,16 @@
     </row>
     <row r="346" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A346" s="16" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D346" s="23" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E346" s="3">
         <f>IF(G346 = "NULL", "NULL", G346/2)</f>
@@ -41249,16 +41254,16 @@
     </row>
     <row r="347" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A347" s="16" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D347" s="23" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E347" s="3">
         <f>IF(G347 = "NULL", "NULL", G347/2)</f>
@@ -41322,7 +41327,7 @@
         <v>43</v>
       </c>
       <c r="V347" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W347" s="3">
         <f>IF(G347 = "NULL", "NULL", G347/4)</f>
@@ -41347,16 +41352,16 @@
     </row>
     <row r="348" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A348" s="16" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D348" s="23" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="E348" s="3">
         <f>IF(G348 = "NULL", "NULL", G348/2)</f>
@@ -41441,16 +41446,16 @@
     </row>
     <row r="349" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A349" s="16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D349" s="23" t="s">
         <v>1308</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D349" s="23" t="s">
-        <v>1311</v>
       </c>
       <c r="E349" s="3">
         <f>IF(G349 = "NULL", "NULL", G349/2)</f>
@@ -41535,16 +41540,16 @@
     </row>
     <row r="350" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A350" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D350" s="23" t="s">
         <v>1312</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D350" s="23" t="s">
-        <v>1315</v>
       </c>
       <c r="E350" s="3">
         <f>IF(G350 = "NULL", "NULL", G350/2)</f>
@@ -41630,16 +41635,16 @@
     </row>
     <row r="351" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A351" s="16" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D351" s="23" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="E351" s="3">
         <f>IF(G351 = "NULL", "NULL", G351/2)</f>
@@ -41721,21 +41726,21 @@
         <v>15000000456</v>
       </c>
       <c r="AB351" s="20" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="352" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A352" s="16" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D352" s="23" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="E352" s="3">
         <f>IF(G352 = "NULL", "NULL", G352/2)</f>
@@ -41820,16 +41825,16 @@
     </row>
     <row r="353" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A353" s="16" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="E353" s="3">
         <f>IF(G353 = "NULL", "NULL", G353/2)</f>
@@ -41914,16 +41919,16 @@
     </row>
     <row r="354" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A354" s="16" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D354" s="23" t="s">
-        <v>1329</v>
+        <v>1894</v>
       </c>
       <c r="E354" s="3">
         <f>IF(G354 = "NULL", "NULL", G354/2)</f>
@@ -41959,7 +41964,7 @@
       <c r="M354" s="1" t="str">
         <f>CONCATENATE(D354, CHAR(10), " - NET WT. ", E354, " oz (", F354, " grams)")</f>
         <v>Roasted Garlic Pepper Ingredients:
-garlic dry roasted
+black pepper, garlic, onion, and white pepper
  - NET WT. 1.3 oz (36.855 grams)</v>
       </c>
       <c r="N354" s="6">
@@ -41983,9 +41988,11 @@
       <c r="T354" s="6">
         <v>13000000342</v>
       </c>
-      <c r="U354" s="2"/>
+      <c r="U354" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="V354" s="1" t="s">
-        <v>1857</v>
+        <v>188</v>
       </c>
       <c r="W354" s="3">
         <f>IF(G354 = "NULL", "NULL", G354/4)</f>
@@ -42010,16 +42017,16 @@
     </row>
     <row r="355" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A355" s="16" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="D355" s="23" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="E355" s="3">
         <f>IF(G355 = "NULL", "NULL", G355/2)</f>
@@ -42083,7 +42090,7 @@
         <v>43</v>
       </c>
       <c r="V355" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W355" s="3">
         <f>IF(G355 = "NULL", "NULL", G355/4)</f>
@@ -42108,16 +42115,16 @@
     </row>
     <row r="356" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A356" s="16" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D356" s="23" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E356" s="3">
         <f>IF(G356 = "NULL", "NULL", G356/2)</f>
@@ -42202,16 +42209,16 @@
     </row>
     <row r="357" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A357" s="16" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D357" s="23" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E357" s="3">
         <f>IF(G357 = "NULL", "NULL", G357/2)</f>
@@ -42298,16 +42305,16 @@
     </row>
     <row r="358" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A358" s="16" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D358" s="23" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="E358" s="3">
         <f>IF(G358 = "NULL", "NULL", G358/2)</f>
@@ -42398,16 +42405,16 @@
     </row>
     <row r="359" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A359" s="16" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="D359" s="23" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="E359" s="3">
         <f>IF(G359 = "NULL", "NULL", G359/2)</f>
@@ -42494,16 +42501,16 @@
     </row>
     <row r="360" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A360" s="16" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D360" s="23" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E360" s="3">
         <f>IF(G360 = "NULL", "NULL", G360/2)</f>
@@ -42588,16 +42595,16 @@
     </row>
     <row r="361" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A361" s="16" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="D361" s="23" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="E361" s="3">
         <f>IF(G361 = "NULL", "NULL", G361/2)</f>
@@ -42682,16 +42689,16 @@
     </row>
     <row r="362" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A362" s="16" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="D362" s="23" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="E362" s="3">
         <f>IF(G362 = "NULL", "NULL", G362/2)</f>
@@ -42773,21 +42780,21 @@
         <v>15000000275</v>
       </c>
       <c r="AB362" s="20" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="363" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A363" s="16" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="D363" s="23" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E363" s="3">
         <f>IF(G363 = "NULL", "NULL", G363/2)</f>
@@ -42869,21 +42876,21 @@
         <v>15000000446</v>
       </c>
       <c r="AB363" s="20" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="364" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A364" s="16" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D364" s="23" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="E364" s="3">
         <f>IF(G364 = "NULL", "NULL", G364/2)</f>
@@ -42970,16 +42977,16 @@
     </row>
     <row r="365" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A365" s="16" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D365" s="23" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E365" s="3">
         <f>IF(G365 = "NULL", "NULL", G365/2)</f>
@@ -43063,21 +43070,21 @@
         <v>15000000447</v>
       </c>
       <c r="AB365" s="20" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="366" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A366" s="16" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D366" s="23" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="E366" s="3">
         <f>IF(G366 = "NULL", "NULL", G366/2)</f>
@@ -43162,16 +43169,16 @@
     </row>
     <row r="367" spans="1:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A367" s="16" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="D367" s="23" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="E367" s="3">
         <f>IF(G367 = "NULL", "NULL", G367/2)</f>
@@ -43256,16 +43263,16 @@
     </row>
     <row r="368" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A368" s="16" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="D368" s="23" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="E368" s="3">
         <f>IF(G368 = "NULL", "NULL", G368/2)</f>
@@ -43352,16 +43359,16 @@
     </row>
     <row r="369" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A369" s="16" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D369" s="23" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="E369" s="3">
         <f>IF(G369 = "NULL", "NULL", G369/2)</f>
@@ -43449,16 +43456,16 @@
     </row>
     <row r="370" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A370" s="16" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D370" s="23" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="E370" s="3">
         <f>IF(G370 = "NULL", "NULL", G370/2)</f>
@@ -43543,16 +43550,16 @@
     </row>
     <row r="371" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A371" s="16" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="D371" s="23" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="E371" s="3">
         <f>IF(G371 = "NULL", "NULL", G371/2)</f>
@@ -43639,16 +43646,16 @@
     </row>
     <row r="372" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A372" s="16" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="D372" s="23" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="E372" s="3">
         <f>IF(G372 = "NULL", "NULL", G372/2)</f>
@@ -43737,16 +43744,16 @@
     </row>
     <row r="373" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A373" s="16" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="D373" s="23" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="E373" s="3">
         <f>IF(G373 = "NULL", "NULL", G373/2)</f>
@@ -43833,16 +43840,16 @@
     </row>
     <row r="374" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A374" s="16" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D374" s="23" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="E374" s="3">
         <f>IF(G374 = "NULL", "NULL", G374/2)</f>
@@ -43926,21 +43933,21 @@
         <v>15000000461</v>
       </c>
       <c r="AB374" s="20" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="375" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A375" s="16" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="D375" s="23" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="E375" s="3">
         <f>IF(G375 = "NULL", "NULL", G375/2)</f>
@@ -44027,16 +44034,16 @@
     </row>
     <row r="376" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A376" s="16" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D376" s="23" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E376" s="3">
         <f>IF(G376 = "NULL", "NULL", G376/2)</f>
@@ -44120,21 +44127,21 @@
         <v>15000000453</v>
       </c>
       <c r="AB376" s="20" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="377" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A377" s="16" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="E377" s="3">
         <f>IF(G377 = "NULL", "NULL", G377/2)</f>
@@ -44216,21 +44223,21 @@
         <v>15000000473</v>
       </c>
       <c r="AB377" s="20" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="378" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A378" s="16" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D378" s="23" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="E378" s="3">
         <f>IF(G378 = "NULL", "NULL", G378/2)</f>
@@ -44315,16 +44322,16 @@
     </row>
     <row r="379" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A379" s="16" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D379" s="23" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E379" s="3">
         <f>IF(G379 = "NULL", "NULL", G379/2)</f>
@@ -44409,16 +44416,16 @@
     </row>
     <row r="380" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A380" s="16" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="D380" s="23" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="E380" s="3">
         <f>IF(G380 = "NULL", "NULL", G380/2)</f>
@@ -44500,21 +44507,21 @@
         <v>15000000448</v>
       </c>
       <c r="AB380" s="20" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="381" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A381" s="16" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="D381" s="23" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="E381" s="3">
         <f>IF(G381 = "NULL", "NULL", G381/2)</f>
@@ -44599,16 +44606,16 @@
     </row>
     <row r="382" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A382" s="16" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D382" s="23" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E382" s="3">
         <f>IF(G382 = "NULL", "NULL", G382/2)</f>
@@ -44693,16 +44700,16 @@
     </row>
     <row r="383" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A383" s="16" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D383" s="23" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="E383" s="3">
         <f>IF(G383 = "NULL", "NULL", G383/2)</f>
@@ -44789,16 +44796,16 @@
     </row>
     <row r="384" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A384" s="16" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="D384" s="23" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="E384" s="3">
         <f>IF(G384 = "NULL", "NULL", G384/2)</f>
@@ -44883,16 +44890,16 @@
     </row>
     <row r="385" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A385" s="16" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="D385" s="23" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="E385" s="3">
         <f>IF(G385 = "NULL", "NULL", G385/2)</f>
@@ -44974,21 +44981,21 @@
         <v>15000000397</v>
       </c>
       <c r="AB385" s="20" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="386" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A386" s="16" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D386" s="23" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="E386" s="3">
         <f>IF(G386 = "NULL", "NULL", G386/2)</f>
@@ -45075,16 +45082,16 @@
     </row>
     <row r="387" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A387" s="16" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="D387" s="23" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="E387" s="3">
         <f>IF(G387 = "NULL", "NULL", G387/2)</f>
@@ -45169,16 +45176,16 @@
     </row>
     <row r="388" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A388" s="16" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="D388" s="23" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="E388" s="3">
         <f>IF(G388 = "NULL", "NULL", G388/2)</f>
@@ -45263,16 +45270,16 @@
     </row>
     <row r="389" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A389" s="16" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="D389" s="23" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="E389" s="3">
         <f>IF(G389 = "NULL", "NULL", G389/2)</f>
@@ -45357,16 +45364,16 @@
     </row>
     <row r="390" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A390" s="16" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="D390" s="23" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="E390" s="3">
         <f>IF(G390 = "NULL", "NULL", G390/2)</f>
@@ -45452,16 +45459,16 @@
     </row>
     <row r="391" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A391" s="16" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="D391" s="23" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="E391" s="3">
         <f>IF(G391 = "NULL", "NULL", G391/2)</f>
@@ -45546,16 +45553,16 @@
     </row>
     <row r="392" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A392" s="16" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="D392" s="23" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="E392" s="3">
         <f>IF(G392 = "NULL", "NULL", G392/2)</f>
@@ -45640,16 +45647,16 @@
     </row>
     <row r="393" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A393" s="16" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="D393" s="23" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="E393" s="3">
         <f>IF(G393 = "NULL", "NULL", G393/2)</f>
@@ -45734,16 +45741,16 @@
     </row>
     <row r="394" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A394" s="16" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D394" s="23" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="E394" s="3">
         <f>IF(G394 = "NULL", "NULL", G394/2)</f>
@@ -45828,16 +45835,16 @@
     </row>
     <row r="395" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A395" s="16" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="D395" s="23" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="E395" s="3">
         <f>IF(G395 = "NULL", "NULL", G395/2)</f>
@@ -45922,16 +45929,16 @@
     </row>
     <row r="396" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A396" s="16" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D396" s="23" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="E396" s="3">
         <f>IF(G396 = "NULL", "NULL", G396/2)</f>
@@ -46016,16 +46023,16 @@
     </row>
     <row r="397" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A397" s="16" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D397" s="23" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="E397" s="3">
         <f>IF(G397 = "NULL", "NULL", G397/2)</f>
@@ -46112,16 +46119,16 @@
     </row>
     <row r="398" spans="1:28" ht="195" x14ac:dyDescent="0.3">
       <c r="A398" s="16" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D398" s="23" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="E398" s="3">
         <f>IF(G398 = "NULL", "NULL", G398/2)</f>
@@ -46212,16 +46219,16 @@
     </row>
     <row r="399" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A399" s="16" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D399" s="23" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="E399" s="3">
         <f>IF(G399 = "NULL", "NULL", G399/2)</f>
@@ -46311,16 +46318,16 @@
     </row>
     <row r="400" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A400" s="16" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="D400" s="23" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="E400" s="3">
         <f>IF(G400 = "NULL", "NULL", G400/2)</f>
@@ -46402,21 +46409,21 @@
         <v>15000000454</v>
       </c>
       <c r="AB400" s="20" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="401" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A401" s="16" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D401" s="23" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E401" s="3">
         <f>IF(G401 = "NULL", "NULL", G401/2)</f>
@@ -46501,16 +46508,16 @@
     </row>
     <row r="402" spans="1:28" ht="120" x14ac:dyDescent="0.3">
       <c r="A402" s="16" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D402" s="23" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="E402" s="3">
         <f>IF(G402 = "NULL", "NULL", G402/2)</f>
@@ -46595,13 +46602,13 @@
     </row>
     <row r="403" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A403" s="16" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>34</v>
@@ -46688,16 +46695,16 @@
     </row>
     <row r="404" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A404" s="16" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="E404" s="3">
         <f>IF(G404 = "NULL", "NULL", G404/2)</f>
@@ -46783,16 +46790,16 @@
     </row>
     <row r="405" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A405" s="16" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D405" s="23" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E405" s="3">
         <f>IF(G405 = "NULL", "NULL", G405/2)</f>
@@ -46877,16 +46884,16 @@
     </row>
     <row r="406" spans="1:28" ht="135" x14ac:dyDescent="0.3">
       <c r="A406" s="16" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D406" s="23" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="E406" s="3">
         <f>IF(G406 = "NULL", "NULL", G406/2)</f>
@@ -46971,16 +46978,16 @@
     </row>
     <row r="407" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A407" s="16" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="D407" s="23" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="E407" s="3">
         <f>IF(G407 = "NULL", "NULL", G407/2)</f>
@@ -47067,16 +47074,16 @@
     </row>
     <row r="408" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A408" s="16" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="D408" s="23" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="E408" s="3">
         <f>IF(G408 = "NULL", "NULL", G408/2)</f>
@@ -47165,16 +47172,16 @@
     </row>
     <row r="409" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A409" s="16" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="D409" s="23" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="E409" s="3">
         <f>IF(G409 = "NULL", "NULL", G409/2)</f>
@@ -47259,16 +47266,16 @@
     </row>
     <row r="410" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A410" s="16" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="D410" s="23" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="E410" s="3">
         <f>IF(G410 = "NULL", "NULL", G410/2)</f>
@@ -47332,7 +47339,7 @@
         <v>43</v>
       </c>
       <c r="V410" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W410" s="3">
         <f>IF(G410 = "NULL", "NULL", G410/4)</f>
@@ -47357,16 +47364,16 @@
     </row>
     <row r="411" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A411" s="16" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D411" s="23" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="E411" s="3">
         <f>IF(G411 = "NULL", "NULL", G411/2)</f>
@@ -47451,16 +47458,16 @@
     </row>
     <row r="412" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A412" s="16" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="D412" s="23" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="E412" s="3">
         <f>IF(G412 = "NULL", "NULL", G412/2)</f>
@@ -47548,16 +47555,16 @@
     </row>
     <row r="413" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A413" s="16" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="D413" s="23" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="E413" s="3">
         <f>IF(G413 = "NULL", "NULL", G413/2)</f>
@@ -47642,13 +47649,13 @@
     </row>
     <row r="414" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A414" s="16" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>34</v>
@@ -47735,16 +47742,16 @@
     </row>
     <row r="415" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A415" s="16" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="D415" s="23" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E415" s="3">
         <f>IF(G415 = "NULL", "NULL", G415/2)</f>
@@ -47831,16 +47838,16 @@
     </row>
     <row r="416" spans="1:28" ht="195" x14ac:dyDescent="0.3">
       <c r="A416" s="16" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D416" s="23" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E416" s="3">
         <f>IF(G416 = "NULL", "NULL", G416/2)</f>
@@ -47927,16 +47934,16 @@
     </row>
     <row r="417" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A417" s="16" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D417" s="23" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="E417" s="3">
         <f>IF(G417 = "NULL", "NULL", G417/2)</f>
@@ -48026,16 +48033,16 @@
     </row>
     <row r="418" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A418" s="16" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D418" s="23" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="E418" s="3">
         <f>IF(G418 = "NULL", "NULL", G418/2)</f>
@@ -48120,16 +48127,16 @@
     </row>
     <row r="419" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A419" s="16" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D419" s="23" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E419" s="3">
         <f>IF(G419 = "NULL", "NULL", G419/2)</f>
@@ -48214,16 +48221,16 @@
     </row>
     <row r="420" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A420" s="16" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D420" s="23" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="E420" s="3">
         <f>IF(G420 = "NULL", "NULL", G420/2)</f>
@@ -48288,7 +48295,7 @@
         <v>43</v>
       </c>
       <c r="V420" s="1" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W420" s="3">
         <f>IF(G420 = "NULL", "NULL", G420/4)</f>
@@ -48311,18 +48318,18 @@
       </c>
       <c r="AB420" s="20"/>
     </row>
-    <row r="421" spans="1:28" ht="90" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A421" s="16" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="D421" s="23" t="s">
-        <v>1559</v>
+        <v>1890</v>
       </c>
       <c r="E421" s="3">
         <f>IF(G421 = "NULL", "NULL", G421/2)</f>
@@ -48357,7 +48364,7 @@
       </c>
       <c r="M421" s="1" t="str">
         <f>CONCATENATE(D421, CHAR(10), " - NET WT. ", E421, " oz (", F421, " grams)")</f>
-        <v>Sundried Tomato &amp; Basil Seasoning Ingredients:
+        <v>Sun Dried Tomato &amp; Basil Seasoning Ingredients:
 salt, dehydrated garlic, basil, dehydrated tomato, green bell peppers, soybean oil, dehydrated parsley
 • ALLERGY ALERT: contains soybean oil •
  - NET WT. 1.15 oz (32.6025 grams)</v>
@@ -48387,7 +48394,7 @@
         <v>43</v>
       </c>
       <c r="V421" s="1" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W421" s="3">
         <f>IF(G421 = "NULL", "NULL", G421/4)</f>
@@ -48409,21 +48416,21 @@
         <v>15000000449</v>
       </c>
       <c r="AB421" s="20" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="422" spans="1:28" ht="225" x14ac:dyDescent="0.3">
       <c r="A422" s="16" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="D422" s="23" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="E422" s="3">
         <f>IF(G422 = "NULL", "NULL", G422/2)</f>
@@ -48510,16 +48517,16 @@
     </row>
     <row r="423" spans="1:28" ht="195" x14ac:dyDescent="0.3">
       <c r="A423" s="16" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="D423" s="23" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="E423" s="3">
         <f>IF(G423 = "NULL", "NULL", G423/2)</f>
@@ -48606,16 +48613,16 @@
     </row>
     <row r="424" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A424" s="16" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="D424" s="23" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="E424" s="3">
         <f>IF(G424 = "NULL", "NULL", G424/2)</f>
@@ -48700,16 +48707,16 @@
     </row>
     <row r="425" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A425" s="16" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="D425" s="23" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="E425" s="3">
         <f>IF(G425 = "NULL", "NULL", G425/2)</f>
@@ -48796,16 +48803,16 @@
     </row>
     <row r="426" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A426" s="16" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="D426" s="23" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="E426" s="3">
         <f>IF(G426 = "NULL", "NULL", G426/2)</f>
@@ -48890,13 +48897,13 @@
     </row>
     <row r="427" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A427" s="16" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>34</v>
@@ -48983,16 +48990,16 @@
     </row>
     <row r="428" spans="1:28" ht="210" x14ac:dyDescent="0.3">
       <c r="A428" s="16" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="D428" s="23" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="E428" s="3">
         <f>IF(G428 = "NULL", "NULL", G428/2)</f>
@@ -49079,16 +49086,16 @@
     </row>
     <row r="429" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A429" s="16" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="D429" s="23" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="E429" s="3">
         <f>IF(G429 = "NULL", "NULL", G429/2)</f>
@@ -49152,7 +49159,7 @@
         <v>43</v>
       </c>
       <c r="V429" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W429" s="3">
         <f>IF(G429 = "NULL", "NULL", G429/4)</f>
@@ -49177,16 +49184,16 @@
     </row>
     <row r="430" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A430" s="16" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="D430" s="23" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="E430" s="3">
         <f>IF(G430 = "NULL", "NULL", G430/2)</f>
@@ -49250,7 +49257,7 @@
         <v>43</v>
       </c>
       <c r="V430" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W430" s="3">
         <f>IF(G430 = "NULL", "NULL", G430/4)</f>
@@ -49275,16 +49282,16 @@
     </row>
     <row r="431" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A431" s="16" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="D431" s="23" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="E431" s="3">
         <f>IF(G431 = "NULL", "NULL", G431/2)</f>
@@ -49369,16 +49376,16 @@
     </row>
     <row r="432" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A432" s="16" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="D432" s="23" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="E432" s="3">
         <f>IF(G432 = "NULL", "NULL", G432/2)</f>
@@ -49442,7 +49449,7 @@
         <v>43</v>
       </c>
       <c r="V432" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W432" s="3">
         <f>IF(G432 = "NULL", "NULL", G432/4)</f>
@@ -49467,16 +49474,16 @@
     </row>
     <row r="433" spans="1:28" ht="165" x14ac:dyDescent="0.3">
       <c r="A433" s="16" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="D433" s="23" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="E433" s="3">
         <f>IF(G433 = "NULL", "NULL", G433/2)</f>
@@ -49566,16 +49573,16 @@
     </row>
     <row r="434" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A434" s="16" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="D434" s="23" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="E434" s="3">
         <f>IF(G434 = "NULL", "NULL", G434/2)</f>
@@ -49639,7 +49646,7 @@
         <v>43</v>
       </c>
       <c r="V434" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W434" s="3">
         <f>IF(G434 = "NULL", "NULL", G434/4)</f>
@@ -49664,16 +49671,16 @@
     </row>
     <row r="435" spans="1:28" ht="195" x14ac:dyDescent="0.3">
       <c r="A435" s="16" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="D435" s="23" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="E435" s="3">
         <f>IF(G435 = "NULL", "NULL", G435/2)</f>
@@ -49764,16 +49771,16 @@
     </row>
     <row r="436" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A436" s="16" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="D436" s="23" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="E436" s="3">
         <f>IF(G436 = "NULL", "NULL", G436/2)</f>
@@ -49860,16 +49867,16 @@
     </row>
     <row r="437" spans="1:28" ht="195" x14ac:dyDescent="0.3">
       <c r="A437" s="16" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="D437" s="23" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="E437" s="3">
         <f>IF(G437 = "NULL", "NULL", G437/2)</f>
@@ -49955,16 +49962,16 @@
     </row>
     <row r="438" spans="1:28" ht="345" x14ac:dyDescent="0.3">
       <c r="A438" s="16" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="D438" s="23" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="E438" s="3">
         <f>IF(G438 = "NULL", "NULL", G438/2)</f>
@@ -50053,16 +50060,16 @@
     </row>
     <row r="439" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A439" s="16" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="D439" s="23" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="E439" s="3">
         <f>IF(G439 = "NULL", "NULL", G439/2)</f>
@@ -50127,7 +50134,7 @@
         <v>43</v>
       </c>
       <c r="V439" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="W439" s="3">
         <f>IF(G439 = "NULL", "NULL", G439/4)</f>
@@ -50152,16 +50159,16 @@
     </row>
     <row r="440" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A440" s="16" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="D440" s="23" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="E440" s="3">
         <f>IF(G440 = "NULL", "NULL", G440/2)</f>
@@ -50248,16 +50255,16 @@
     </row>
     <row r="441" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A441" s="16" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D441" s="23" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="E441" s="3">
         <f>IF(G441 = "NULL", "NULL", G441/2)</f>
@@ -50342,16 +50349,16 @@
     </row>
     <row r="442" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A442" s="16" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="D442" s="23" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="E442" s="3">
         <f>IF(G442 = "NULL", "NULL", G442/2)</f>
@@ -50436,16 +50443,16 @@
     </row>
     <row r="443" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A443" s="16" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="D443" s="23" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="E443" s="3">
         <f>IF(G443 = "NULL", "NULL", G443/2)</f>
@@ -50530,16 +50537,16 @@
     </row>
     <row r="444" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A444" s="16" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="D444" s="23" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="E444" s="3">
         <f>IF(G444 = "NULL", "NULL", G444/2)</f>
@@ -50603,7 +50610,7 @@
         <v>43</v>
       </c>
       <c r="V444" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W444" s="3">
         <f>IF(G444 = "NULL", "NULL", G444/4)</f>
@@ -50628,16 +50635,16 @@
     </row>
     <row r="445" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A445" s="16" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="D445" s="23" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="E445" s="3">
         <f>IF(G445 = "NULL", "NULL", G445/2)</f>
@@ -50726,16 +50733,16 @@
     </row>
     <row r="446" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A446" s="16" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="D446" s="23" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="E446" s="3">
         <f>IF(G446 = "NULL", "NULL", G446/2)</f>
@@ -50821,21 +50828,21 @@
         <v>15000000398</v>
       </c>
       <c r="AB446" s="20" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="447" spans="1:28" ht="90" x14ac:dyDescent="0.3">
       <c r="A447" s="16" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="D447" s="23" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="E447" s="3">
         <f>IF(G447 = "NULL", "NULL", G447/2)</f>
@@ -50923,16 +50930,16 @@
     </row>
     <row r="448" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A448" s="16" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="D448" s="23" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="E448" s="3">
         <f>IF(G448 = "NULL", "NULL", G448/2)</f>
@@ -51018,21 +51025,21 @@
         <v>15000000450</v>
       </c>
       <c r="AB448" s="20" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="449" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A449" s="16" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="D449" s="23" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="E449" s="3">
         <f>IF(G449 = "NULL", "NULL", G449/2)</f>
@@ -51119,16 +51126,16 @@
     </row>
     <row r="450" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A450" s="16" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="D450" s="23" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="E450" s="3">
         <f>IF(G450 = "NULL", "NULL", G450/2)</f>
@@ -51213,16 +51220,16 @@
     </row>
     <row r="451" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A451" s="16" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="D451" s="23" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="E451" s="3">
         <f>IF(G451 = "NULL", "NULL", G451/2)</f>
@@ -51311,16 +51318,16 @@
     </row>
     <row r="452" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A452" s="16" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="D452" s="23" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="E452" s="3">
         <f>IF(G452 = "NULL", "NULL", G452/2)</f>
@@ -51405,16 +51412,16 @@
     </row>
     <row r="453" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A453" s="16" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="D453" s="23" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="E453" s="3">
         <f>IF(G453 = "NULL", "NULL", G453/2)</f>
@@ -51478,7 +51485,7 @@
         <v>43</v>
       </c>
       <c r="V453" s="1" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="W453" s="3">
         <f>IF(G453 = "NULL", "NULL", G453/4)</f>
@@ -51503,16 +51510,16 @@
     </row>
     <row r="454" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A454" s="16" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="D454" s="23" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="E454" s="3">
         <f>IF(G454 = "NULL", "NULL", G454/2)</f>
@@ -51597,16 +51604,16 @@
     </row>
     <row r="455" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A455" s="16" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="D455" s="23" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="E455" s="3">
         <f>IF(G455 = "NULL", "NULL", G455/2)</f>
@@ -51693,16 +51700,16 @@
     </row>
     <row r="456" spans="1:28" ht="210" x14ac:dyDescent="0.3">
       <c r="A456" s="16" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="D456" s="23" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="E456" s="3">
         <f>IF(G456 = "NULL", "NULL", G456/2)</f>
@@ -51788,16 +51795,16 @@
     </row>
     <row r="457" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A457" s="16" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="D457" s="23" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="E457" s="3">
         <f>IF(G457 = "NULL", "NULL", G457/2)</f>
@@ -51859,7 +51866,7 @@
       </c>
       <c r="U457" s="2"/>
       <c r="V457" s="21" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="W457" s="3">
         <f>IF(G457 = "NULL", "NULL", G457/4)</f>
@@ -51881,21 +51888,21 @@
         <v>15000000341</v>
       </c>
       <c r="AB457" s="20" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="458" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A458" s="16" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="D458" s="23" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="E458" s="3">
         <f>IF(G458 = "NULL", "NULL", G458/2)</f>
@@ -51980,16 +51987,16 @@
     </row>
     <row r="459" spans="1:28" ht="195" x14ac:dyDescent="0.3">
       <c r="A459" s="16" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="D459" s="23" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="E459" s="3">
         <f>IF(G459 = "NULL", "NULL", G459/2)</f>
@@ -52076,16 +52083,16 @@
     </row>
     <row r="460" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A460" s="16" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="D460" s="23" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="E460" s="3">
         <f>IF(G460 = "NULL", "NULL", G460/2)</f>
@@ -52167,18 +52174,18 @@
         <v>15000000344</v>
       </c>
       <c r="AB460" s="20" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="461" spans="1:28" ht="30" x14ac:dyDescent="0.3">
       <c r="A461" s="16" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>34</v>
@@ -52240,7 +52247,7 @@
       </c>
       <c r="U461" s="2"/>
       <c r="V461" s="1" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="W461" s="3">
         <f>IF(G461 = "NULL", "NULL", G461/4)</f>
@@ -52265,16 +52272,16 @@
     </row>
     <row r="462" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A462" s="16" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="D462" s="23" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="E462" s="3">
         <f>IF(G462 = "NULL", "NULL", G462/2)</f>
@@ -52358,21 +52365,21 @@
         <v>15000000345</v>
       </c>
       <c r="AB462" s="20" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="463" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A463" s="16" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="D463" s="23" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="E463" s="3">
         <f>IF(G463 = "NULL", "NULL", G463/2)</f>
@@ -52457,16 +52464,16 @@
     </row>
     <row r="464" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A464" s="16" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="E464" s="3">
         <f>IF(G464 = "NULL", "NULL", G464/2)</f>
@@ -52551,16 +52558,16 @@
     </row>
     <row r="465" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A465" s="16" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="D465" s="23" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="E465" s="3">
         <f>IF(G465 = "NULL", "NULL", G465/2)</f>
@@ -52645,16 +52652,16 @@
     </row>
     <row r="466" spans="1:28" ht="165" x14ac:dyDescent="0.3">
       <c r="A466" s="16" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="D466" s="23" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="E466" s="3">
         <f>IF(G466 = "NULL", "NULL", G466/2)</f>
@@ -52736,21 +52743,21 @@
         <v>15000000423</v>
       </c>
       <c r="AB466" s="20" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="467" spans="1:28" ht="210" x14ac:dyDescent="0.3">
       <c r="A467" s="16" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="D467" s="23" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="E467" s="3">
         <f>IF(G467 = "NULL", "NULL", G467/2)</f>
@@ -52837,16 +52844,16 @@
     </row>
     <row r="468" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A468" s="16" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="D468" s="23" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="E468" s="3">
         <f>IF(G468 = "NULL", "NULL", G468/2)</f>
@@ -52910,7 +52917,7 @@
         <v>43</v>
       </c>
       <c r="V468" s="1" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="W468" s="3">
         <f>IF(G468 = "NULL", "NULL", G468/4)</f>
@@ -52935,16 +52942,16 @@
     </row>
     <row r="469" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A469" s="16" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="D469" s="23" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="E469" s="3">
         <f>IF(G469 = "NULL", "NULL", G469/2)</f>
@@ -53029,16 +53036,16 @@
     </row>
     <row r="470" spans="1:28" ht="135" x14ac:dyDescent="0.3">
       <c r="A470" s="16" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="D470" s="23" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="E470" s="3">
         <f>IF(G470 = "NULL", "NULL", G470/2)</f>
@@ -53125,16 +53132,16 @@
     </row>
     <row r="471" spans="1:28" ht="105" x14ac:dyDescent="0.3">
       <c r="A471" s="16" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="D471" s="23" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="E471" s="3">
         <f>IF(G471 = "NULL", "NULL", G471/2)</f>
@@ -53224,16 +53231,16 @@
     </row>
     <row r="472" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A472" s="16" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="D472" s="23" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="E472" s="3">
         <f>IF(G472 = "NULL", "NULL", G472/2)</f>
@@ -53320,16 +53327,16 @@
     </row>
     <row r="473" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A473" s="16" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="D473" s="23" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="E473" s="3">
         <f>IF(G473 = "NULL", "NULL", G473/2)</f>
@@ -53416,16 +53423,16 @@
     </row>
     <row r="474" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A474" s="16" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="D474" s="23" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="E474" s="3">
         <f>IF(G474 = "NULL", "NULL", G474/2)</f>
@@ -53512,16 +53519,16 @@
     </row>
     <row r="475" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A475" s="16" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="D475" s="23" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="E475" s="3" t="str">
         <f>IF(G475 = "NULL", "NULL", G475/2)</f>
@@ -53608,16 +53615,16 @@
     </row>
     <row r="476" spans="1:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A476" s="16" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="D476" s="23" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="E476" s="3" t="str">
         <f>IF(G476 = "NULL", "NULL", G476/2)</f>
@@ -53704,16 +53711,16 @@
     </row>
     <row r="477" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A477" s="16" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="D477" s="23" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="E477" s="3" t="str">
         <f>IF(G477 = "NULL", "NULL", G477/2)</f>
@@ -53800,16 +53807,16 @@
     </row>
     <row r="478" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A478" s="16" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="D478" s="23" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="E478" s="3">
         <f>IF(G478 = "NULL", "NULL", G478/2)</f>
@@ -53896,16 +53903,16 @@
     </row>
     <row r="479" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A479" s="16" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="D479" s="23" t="s">
-        <v>1764</v>
+        <v>1892</v>
       </c>
       <c r="E479" s="3">
         <f>IF(G479 = "NULL", "NULL", G479/2)</f>
@@ -53941,7 +53948,7 @@
       <c r="M479" s="1" t="str">
         <f>CONCATENATE(D479, CHAR(10), " - NET WT. ", E479, " oz (", F479, " grams)")</f>
         <v>Wild Buffalo Wing Seasoning Ingredients:
-sea salt, pepper, garlic, vinegar, sugar, paprika , turmeric 
+sea salt, vinegar powder, cayenne pepper, sugar, garlic, paprika, pepper, turmeric
  - NET WT. 2 oz (56.7 grams)</v>
       </c>
       <c r="N479" s="6">
@@ -53965,7 +53972,9 @@
       <c r="T479" s="6">
         <v>13000000465</v>
       </c>
-      <c r="U479" s="2"/>
+      <c r="U479" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="V479" s="1" t="s">
         <v>265</v>
       </c>
@@ -53992,16 +54001,16 @@
     </row>
     <row r="480" spans="1:28" ht="150" x14ac:dyDescent="0.3">
       <c r="A480" s="16" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="D480" s="23" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="E480" s="3">
         <f>IF(G480 = "NULL", "NULL", G480/2)</f>
@@ -54085,21 +54094,21 @@
         <v>15000000350</v>
       </c>
       <c r="AB480" s="20" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="481" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A481" s="16" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="D481" s="23" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="E481" s="3">
         <f>IF(G481 = "NULL", "NULL", G481/2)</f>
@@ -54184,16 +54193,16 @@
     </row>
     <row r="482" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A482" s="16" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="D482" s="23" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="E482" s="3">
         <f>IF(G482 = "NULL", "NULL", G482/2)</f>
@@ -54278,16 +54287,16 @@
     </row>
     <row r="483" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A483" s="16" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="D483" s="23" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="E483" s="3">
         <f>IF(G483 = "NULL", "NULL", G483/2)</f>
@@ -54374,16 +54383,16 @@
     </row>
     <row r="484" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A484" s="16" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="D484" s="23" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="E484" s="3">
         <f>IF(G484 = "NULL", "NULL", G484/2)</f>
@@ -54470,16 +54479,16 @@
     </row>
     <row r="485" spans="1:28" ht="75" x14ac:dyDescent="0.3">
       <c r="A485" s="16" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="D485" s="23" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="E485" s="3">
         <f>IF(G485 = "NULL", "NULL", G485/2)</f>
@@ -54564,16 +54573,16 @@
     </row>
     <row r="486" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A486" s="16" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="D486" s="23" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="E486" s="3">
         <f>IF(G486 = "NULL", "NULL", G486/2)</f>
@@ -54660,16 +54669,16 @@
     </row>
     <row r="487" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A487" s="16" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="D487" s="23" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="E487" s="3">
         <f>IF(G487 = "NULL", "NULL", G487/2)</f>
@@ -54753,21 +54762,21 @@
         <v>15000000455</v>
       </c>
       <c r="AB487" s="20" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="488" spans="1:28" ht="60" x14ac:dyDescent="0.3">
       <c r="A488" s="16" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="D488" s="23" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="E488" s="3">
         <f>IF(G488 = "NULL", "NULL", G488/2)</f>
@@ -54856,21 +54865,21 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="N489:T1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D489:D1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="soy">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="soy">
       <formula>NOT(ISERROR(SEARCH("soy",D489)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A489:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="903"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="903"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C489:C1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="905"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="905"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B489:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="911"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="911"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54906,13 +54915,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -54923,7 +54932,7 @@
         <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -54936,7 +54945,7 @@
         <v>117</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -54949,7 +54958,7 @@
         <v>168</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -54962,7 +54971,7 @@
         <v>835</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -54975,198 +54984,198 @@
         <v>851</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>
